--- a/Báo Cáo/Tuần 2/PhacThaoChiTiet_ThemPhong.xlsx
+++ b/Báo Cáo/Tuần 2/PhacThaoChiTiet_ThemPhong.xlsx
@@ -2617,6 +2617,606 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2645,603 +3245,108 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="29" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3280,111 +3385,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="28" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="29" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3425,7 +3425,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFFCF85-3824-4438-BDD4-585B6BD497A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BFFCF85-3824-4438-BDD4-585B6BD497A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3509,7 @@
         <xdr:cNvPr id="4" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48AC0931-138B-4ED5-B659-1337D32A1ACA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48AC0931-138B-4ED5-B659-1337D32A1ACA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3576,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4459">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BEEB0F-6CDF-4363-B2AF-C34D58D7C0E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2BEEB0F-6CDF-4363-B2AF-C34D58D7C0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3645,7 @@
         <xdr:cNvPr id="6" name="Text Box 4320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF8EB73-22C0-4C03-B955-74E2A093D84D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EF8EB73-22C0-4C03-B955-74E2A093D84D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,7 +3755,7 @@
         <xdr:cNvPr id="7" name="Line 4328">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBEBA4-76A1-4722-8C34-B551F9B9CE5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBEBA4-76A1-4722-8C34-B551F9B9CE5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3819,7 +3819,7 @@
         <xdr:cNvPr id="8" name="Line 4328">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA335FF4-995F-405C-B881-CBD590308980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA335FF4-995F-405C-B881-CBD590308980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3883,7 +3883,7 @@
         <xdr:cNvPr id="9" name="Text Box 4324">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FD0FE3-6F08-4E2D-A720-729D1784D173}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76FD0FE3-6F08-4E2D-A720-729D1784D173}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,7 +3969,7 @@
         <xdr:cNvPr id="10" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB54A1A-1100-40C0-A2DD-46621FD7D2C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FB54A1A-1100-40C0-A2DD-46621FD7D2C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4053,7 +4053,7 @@
         <xdr:cNvPr id="11" name="AutoShape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7946BEED-1B2E-4022-B8DC-4D79E09ECBF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7946BEED-1B2E-4022-B8DC-4D79E09ECBF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4117,7 +4117,7 @@
         <xdr:cNvPr id="14" name="Elbow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B34820-03AE-4BE3-9327-568227C2EE6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67B34820-03AE-4BE3-9327-568227C2EE6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4241,7 +4241,7 @@
                 <xdr:cNvPr id="17" name="Rectangle 16">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000B000000}"/>
+                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4297,7 +4297,7 @@
                 <xdr:cNvPr id="19" name="TextBox 18">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000C000000}"/>
+                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4352,7 +4352,7 @@
                 <xdr:cNvPr id="20" name="Rounded Rectangle 19">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000E000000}"/>
+                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4429,7 +4429,7 @@
                 <xdr:cNvPr id="21" name="Rounded Rectangle 20">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000F000000}"/>
+                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4490,7 +4490,7 @@
                 <xdr:cNvPr id="23" name="Rectangle 22">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
+                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4549,7 +4549,7 @@
                 <xdr:cNvPr id="24" name="Rounded Rectangle 23">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000018000000}"/>
+                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4757,7 +4757,7 @@
                 <xdr:cNvPr id="51" name="Rounded Rectangle 50">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000E000000}"/>
+                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4868,7 +4868,7 @@
                 <xdr:cNvPr id="53" name="Rounded Rectangle 52">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000F000000}"/>
+                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -5412,7 +5412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5429,629 +5429,629 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:49" ht="15" thickTop="1">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="324" t="s">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="324" t="s">
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="315"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325"/>
-      <c r="S1" s="325"/>
-      <c r="T1" s="325"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="333" t="s">
+      <c r="Q1" s="315"/>
+      <c r="R1" s="315"/>
+      <c r="S1" s="315"/>
+      <c r="T1" s="315"/>
+      <c r="U1" s="316"/>
+      <c r="V1" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="334"/>
-      <c r="X1" s="334"/>
-      <c r="Y1" s="334"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="339" t="s">
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="331"/>
+      <c r="AA1" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="325"/>
-      <c r="AC1" s="325"/>
-      <c r="AD1" s="325"/>
-      <c r="AE1" s="325"/>
-      <c r="AF1" s="325"/>
-      <c r="AG1" s="325"/>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="325"/>
-      <c r="AJ1" s="325"/>
-      <c r="AK1" s="325"/>
-      <c r="AL1" s="326"/>
-      <c r="AM1" s="341" t="s">
+      <c r="AB1" s="315"/>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="315"/>
+      <c r="AE1" s="315"/>
+      <c r="AF1" s="315"/>
+      <c r="AG1" s="315"/>
+      <c r="AH1" s="315"/>
+      <c r="AI1" s="315"/>
+      <c r="AJ1" s="315"/>
+      <c r="AK1" s="315"/>
+      <c r="AL1" s="316"/>
+      <c r="AM1" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="342"/>
-      <c r="AO1" s="343" t="s">
+      <c r="AN1" s="338"/>
+      <c r="AO1" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="344"/>
-      <c r="AQ1" s="345"/>
-      <c r="AR1" s="341" t="s">
+      <c r="AP1" s="346"/>
+      <c r="AQ1" s="347"/>
+      <c r="AR1" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="342"/>
-      <c r="AT1" s="346">
+      <c r="AS1" s="338"/>
+      <c r="AT1" s="356">
         <v>45056</v>
       </c>
-      <c r="AU1" s="347"/>
-      <c r="AV1" s="347"/>
-      <c r="AW1" s="348"/>
+      <c r="AU1" s="357"/>
+      <c r="AV1" s="357"/>
+      <c r="AW1" s="358"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="318"/>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="328"/>
-      <c r="R2" s="328"/>
-      <c r="S2" s="328"/>
-      <c r="T2" s="328"/>
-      <c r="U2" s="329"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="337"/>
-      <c r="X2" s="337"/>
-      <c r="Y2" s="337"/>
-      <c r="Z2" s="338"/>
-      <c r="AA2" s="340"/>
-      <c r="AB2" s="328"/>
-      <c r="AC2" s="328"/>
-      <c r="AD2" s="328"/>
-      <c r="AE2" s="328"/>
-      <c r="AF2" s="328"/>
-      <c r="AG2" s="328"/>
-      <c r="AH2" s="328"/>
-      <c r="AI2" s="328"/>
-      <c r="AJ2" s="328"/>
-      <c r="AK2" s="328"/>
-      <c r="AL2" s="329"/>
-      <c r="AM2" s="349" t="s">
+      <c r="A2" s="308"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="318"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="318"/>
+      <c r="U2" s="319"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="334"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="318"/>
+      <c r="AC2" s="318"/>
+      <c r="AD2" s="318"/>
+      <c r="AE2" s="318"/>
+      <c r="AF2" s="318"/>
+      <c r="AG2" s="318"/>
+      <c r="AH2" s="318"/>
+      <c r="AI2" s="318"/>
+      <c r="AJ2" s="318"/>
+      <c r="AK2" s="318"/>
+      <c r="AL2" s="319"/>
+      <c r="AM2" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="350"/>
-      <c r="AO2" s="351"/>
-      <c r="AP2" s="352"/>
-      <c r="AQ2" s="353"/>
-      <c r="AR2" s="349" t="s">
+      <c r="AN2" s="349"/>
+      <c r="AO2" s="350"/>
+      <c r="AP2" s="351"/>
+      <c r="AQ2" s="352"/>
+      <c r="AR2" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="350"/>
-      <c r="AT2" s="354"/>
-      <c r="AU2" s="355"/>
-      <c r="AV2" s="355"/>
-      <c r="AW2" s="356"/>
+      <c r="AS2" s="349"/>
+      <c r="AT2" s="353"/>
+      <c r="AU2" s="354"/>
+      <c r="AV2" s="354"/>
+      <c r="AW2" s="355"/>
     </row>
     <row r="3" spans="1:49" ht="15" thickBot="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="323"/>
-      <c r="J3" s="330"/>
-      <c r="K3" s="331"/>
-      <c r="L3" s="331"/>
-      <c r="M3" s="331"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="332"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="331"/>
-      <c r="R3" s="331"/>
-      <c r="S3" s="331"/>
-      <c r="T3" s="331"/>
-      <c r="U3" s="332"/>
-      <c r="V3" s="357" t="s">
+      <c r="A3" s="311"/>
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="321"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="320"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="321"/>
+      <c r="S3" s="321"/>
+      <c r="T3" s="321"/>
+      <c r="U3" s="322"/>
+      <c r="V3" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="358"/>
-      <c r="X3" s="358"/>
-      <c r="Y3" s="358"/>
-      <c r="Z3" s="359"/>
-      <c r="AA3" s="360"/>
-      <c r="AB3" s="361"/>
-      <c r="AC3" s="361"/>
-      <c r="AD3" s="361"/>
-      <c r="AE3" s="361"/>
-      <c r="AF3" s="361"/>
-      <c r="AG3" s="362"/>
-      <c r="AH3" s="363" t="s">
+      <c r="W3" s="327"/>
+      <c r="X3" s="327"/>
+      <c r="Y3" s="327"/>
+      <c r="Z3" s="328"/>
+      <c r="AA3" s="323"/>
+      <c r="AB3" s="324"/>
+      <c r="AC3" s="324"/>
+      <c r="AD3" s="324"/>
+      <c r="AE3" s="324"/>
+      <c r="AF3" s="324"/>
+      <c r="AG3" s="325"/>
+      <c r="AH3" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="364"/>
-      <c r="AJ3" s="364"/>
-      <c r="AK3" s="364"/>
-      <c r="AL3" s="365"/>
-      <c r="AM3" s="312"/>
-      <c r="AN3" s="313"/>
-      <c r="AO3" s="313"/>
-      <c r="AP3" s="313"/>
-      <c r="AQ3" s="313"/>
-      <c r="AR3" s="313"/>
-      <c r="AS3" s="313"/>
-      <c r="AT3" s="313"/>
-      <c r="AU3" s="313"/>
-      <c r="AV3" s="313"/>
-      <c r="AW3" s="314"/>
+      <c r="AI3" s="340"/>
+      <c r="AJ3" s="340"/>
+      <c r="AK3" s="340"/>
+      <c r="AL3" s="341"/>
+      <c r="AM3" s="342"/>
+      <c r="AN3" s="343"/>
+      <c r="AO3" s="343"/>
+      <c r="AP3" s="343"/>
+      <c r="AQ3" s="343"/>
+      <c r="AR3" s="343"/>
+      <c r="AS3" s="343"/>
+      <c r="AT3" s="343"/>
+      <c r="AU3" s="343"/>
+      <c r="AV3" s="343"/>
+      <c r="AW3" s="344"/>
     </row>
     <row r="4" spans="1:49" ht="15" thickTop="1"/>
     <row r="6" spans="1:49">
-      <c r="B6" s="475" t="s">
+      <c r="B6" s="359" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="476"/>
-      <c r="E6" s="476"/>
-      <c r="F6" s="476"/>
-      <c r="G6" s="476"/>
-      <c r="H6" s="476"/>
-      <c r="I6" s="476"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="476"/>
-      <c r="L6" s="476"/>
-      <c r="M6" s="476"/>
-      <c r="N6" s="476"/>
-      <c r="O6" s="476"/>
-      <c r="P6" s="476"/>
-      <c r="Q6" s="476"/>
-      <c r="R6" s="476"/>
-      <c r="S6" s="476"/>
-      <c r="T6" s="476"/>
-      <c r="U6" s="476"/>
-      <c r="V6" s="476"/>
-      <c r="W6" s="476"/>
-      <c r="X6" s="476"/>
-      <c r="Y6" s="476"/>
-      <c r="Z6" s="476"/>
-      <c r="AA6" s="476"/>
-      <c r="AB6" s="476"/>
-      <c r="AC6" s="476"/>
-      <c r="AD6" s="476"/>
-      <c r="AE6" s="476"/>
-      <c r="AF6" s="476"/>
-      <c r="AG6" s="476"/>
-      <c r="AH6" s="476"/>
-      <c r="AI6" s="476"/>
-      <c r="AJ6" s="476"/>
-      <c r="AK6" s="476"/>
-      <c r="AL6" s="476"/>
-      <c r="AM6" s="476"/>
-      <c r="AN6" s="476"/>
-      <c r="AO6" s="476"/>
-      <c r="AP6" s="476"/>
-      <c r="AQ6" s="476"/>
-      <c r="AR6" s="476"/>
-      <c r="AS6" s="476"/>
-      <c r="AT6" s="476"/>
-      <c r="AU6" s="476"/>
-      <c r="AV6" s="476"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="360"/>
+      <c r="T6" s="360"/>
+      <c r="U6" s="360"/>
+      <c r="V6" s="360"/>
+      <c r="W6" s="360"/>
+      <c r="X6" s="360"/>
+      <c r="Y6" s="360"/>
+      <c r="Z6" s="360"/>
+      <c r="AA6" s="360"/>
+      <c r="AB6" s="360"/>
+      <c r="AC6" s="360"/>
+      <c r="AD6" s="360"/>
+      <c r="AE6" s="360"/>
+      <c r="AF6" s="360"/>
+      <c r="AG6" s="360"/>
+      <c r="AH6" s="360"/>
+      <c r="AI6" s="360"/>
+      <c r="AJ6" s="360"/>
+      <c r="AK6" s="360"/>
+      <c r="AL6" s="360"/>
+      <c r="AM6" s="360"/>
+      <c r="AN6" s="360"/>
+      <c r="AO6" s="360"/>
+      <c r="AP6" s="360"/>
+      <c r="AQ6" s="360"/>
+      <c r="AR6" s="360"/>
+      <c r="AS6" s="360"/>
+      <c r="AT6" s="360"/>
+      <c r="AU6" s="360"/>
+      <c r="AV6" s="360"/>
     </row>
     <row r="7" spans="1:49">
-      <c r="B7" s="476"/>
-      <c r="C7" s="476"/>
-      <c r="D7" s="476"/>
-      <c r="E7" s="476"/>
-      <c r="F7" s="476"/>
-      <c r="G7" s="476"/>
-      <c r="H7" s="476"/>
-      <c r="I7" s="476"/>
-      <c r="J7" s="476"/>
-      <c r="K7" s="476"/>
-      <c r="L7" s="476"/>
-      <c r="M7" s="476"/>
-      <c r="N7" s="476"/>
-      <c r="O7" s="476"/>
-      <c r="P7" s="476"/>
-      <c r="Q7" s="476"/>
-      <c r="R7" s="476"/>
-      <c r="S7" s="476"/>
-      <c r="T7" s="476"/>
-      <c r="U7" s="476"/>
-      <c r="V7" s="476"/>
-      <c r="W7" s="476"/>
-      <c r="X7" s="476"/>
-      <c r="Y7" s="476"/>
-      <c r="Z7" s="476"/>
-      <c r="AA7" s="476"/>
-      <c r="AB7" s="476"/>
-      <c r="AC7" s="476"/>
-      <c r="AD7" s="476"/>
-      <c r="AE7" s="476"/>
-      <c r="AF7" s="476"/>
-      <c r="AG7" s="476"/>
-      <c r="AH7" s="476"/>
-      <c r="AI7" s="476"/>
-      <c r="AJ7" s="476"/>
-      <c r="AK7" s="476"/>
-      <c r="AL7" s="476"/>
-      <c r="AM7" s="476"/>
-      <c r="AN7" s="476"/>
-      <c r="AO7" s="476"/>
-      <c r="AP7" s="476"/>
-      <c r="AQ7" s="476"/>
-      <c r="AR7" s="476"/>
-      <c r="AS7" s="476"/>
-      <c r="AT7" s="476"/>
-      <c r="AU7" s="476"/>
-      <c r="AV7" s="476"/>
+      <c r="B7" s="360"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="360"/>
+      <c r="K7" s="360"/>
+      <c r="L7" s="360"/>
+      <c r="M7" s="360"/>
+      <c r="N7" s="360"/>
+      <c r="O7" s="360"/>
+      <c r="P7" s="360"/>
+      <c r="Q7" s="360"/>
+      <c r="R7" s="360"/>
+      <c r="S7" s="360"/>
+      <c r="T7" s="360"/>
+      <c r="U7" s="360"/>
+      <c r="V7" s="360"/>
+      <c r="W7" s="360"/>
+      <c r="X7" s="360"/>
+      <c r="Y7" s="360"/>
+      <c r="Z7" s="360"/>
+      <c r="AA7" s="360"/>
+      <c r="AB7" s="360"/>
+      <c r="AC7" s="360"/>
+      <c r="AD7" s="360"/>
+      <c r="AE7" s="360"/>
+      <c r="AF7" s="360"/>
+      <c r="AG7" s="360"/>
+      <c r="AH7" s="360"/>
+      <c r="AI7" s="360"/>
+      <c r="AJ7" s="360"/>
+      <c r="AK7" s="360"/>
+      <c r="AL7" s="360"/>
+      <c r="AM7" s="360"/>
+      <c r="AN7" s="360"/>
+      <c r="AO7" s="360"/>
+      <c r="AP7" s="360"/>
+      <c r="AQ7" s="360"/>
+      <c r="AR7" s="360"/>
+      <c r="AS7" s="360"/>
+      <c r="AT7" s="360"/>
+      <c r="AU7" s="360"/>
+      <c r="AV7" s="360"/>
     </row>
     <row r="8" spans="1:49">
-      <c r="B8" s="476"/>
-      <c r="C8" s="476"/>
-      <c r="D8" s="476"/>
-      <c r="E8" s="476"/>
-      <c r="F8" s="476"/>
-      <c r="G8" s="476"/>
-      <c r="H8" s="476"/>
-      <c r="I8" s="476"/>
-      <c r="J8" s="476"/>
-      <c r="K8" s="476"/>
-      <c r="L8" s="476"/>
-      <c r="M8" s="476"/>
-      <c r="N8" s="476"/>
-      <c r="O8" s="476"/>
-      <c r="P8" s="476"/>
-      <c r="Q8" s="476"/>
-      <c r="R8" s="476"/>
-      <c r="S8" s="476"/>
-      <c r="T8" s="476"/>
-      <c r="U8" s="476"/>
-      <c r="V8" s="476"/>
-      <c r="W8" s="476"/>
-      <c r="X8" s="476"/>
-      <c r="Y8" s="476"/>
-      <c r="Z8" s="476"/>
-      <c r="AA8" s="476"/>
-      <c r="AB8" s="476"/>
-      <c r="AC8" s="476"/>
-      <c r="AD8" s="476"/>
-      <c r="AE8" s="476"/>
-      <c r="AF8" s="476"/>
-      <c r="AG8" s="476"/>
-      <c r="AH8" s="476"/>
-      <c r="AI8" s="476"/>
-      <c r="AJ8" s="476"/>
-      <c r="AK8" s="476"/>
-      <c r="AL8" s="476"/>
-      <c r="AM8" s="476"/>
-      <c r="AN8" s="476"/>
-      <c r="AO8" s="476"/>
-      <c r="AP8" s="476"/>
-      <c r="AQ8" s="476"/>
-      <c r="AR8" s="476"/>
-      <c r="AS8" s="476"/>
-      <c r="AT8" s="476"/>
-      <c r="AU8" s="476"/>
-      <c r="AV8" s="476"/>
+      <c r="B8" s="360"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="360"/>
+      <c r="I8" s="360"/>
+      <c r="J8" s="360"/>
+      <c r="K8" s="360"/>
+      <c r="L8" s="360"/>
+      <c r="M8" s="360"/>
+      <c r="N8" s="360"/>
+      <c r="O8" s="360"/>
+      <c r="P8" s="360"/>
+      <c r="Q8" s="360"/>
+      <c r="R8" s="360"/>
+      <c r="S8" s="360"/>
+      <c r="T8" s="360"/>
+      <c r="U8" s="360"/>
+      <c r="V8" s="360"/>
+      <c r="W8" s="360"/>
+      <c r="X8" s="360"/>
+      <c r="Y8" s="360"/>
+      <c r="Z8" s="360"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="360"/>
+      <c r="AC8" s="360"/>
+      <c r="AD8" s="360"/>
+      <c r="AE8" s="360"/>
+      <c r="AF8" s="360"/>
+      <c r="AG8" s="360"/>
+      <c r="AH8" s="360"/>
+      <c r="AI8" s="360"/>
+      <c r="AJ8" s="360"/>
+      <c r="AK8" s="360"/>
+      <c r="AL8" s="360"/>
+      <c r="AM8" s="360"/>
+      <c r="AN8" s="360"/>
+      <c r="AO8" s="360"/>
+      <c r="AP8" s="360"/>
+      <c r="AQ8" s="360"/>
+      <c r="AR8" s="360"/>
+      <c r="AS8" s="360"/>
+      <c r="AT8" s="360"/>
+      <c r="AU8" s="360"/>
+      <c r="AV8" s="360"/>
     </row>
     <row r="9" spans="1:49">
-      <c r="B9" s="476"/>
-      <c r="C9" s="476"/>
-      <c r="D9" s="476"/>
-      <c r="E9" s="476"/>
-      <c r="F9" s="476"/>
-      <c r="G9" s="476"/>
-      <c r="H9" s="476"/>
-      <c r="I9" s="476"/>
-      <c r="J9" s="476"/>
-      <c r="K9" s="476"/>
-      <c r="L9" s="476"/>
-      <c r="M9" s="476"/>
-      <c r="N9" s="476"/>
-      <c r="O9" s="476"/>
-      <c r="P9" s="476"/>
-      <c r="Q9" s="476"/>
-      <c r="R9" s="476"/>
-      <c r="S9" s="476"/>
-      <c r="T9" s="476"/>
-      <c r="U9" s="476"/>
-      <c r="V9" s="476"/>
-      <c r="W9" s="476"/>
-      <c r="X9" s="476"/>
-      <c r="Y9" s="476"/>
-      <c r="Z9" s="476"/>
-      <c r="AA9" s="476"/>
-      <c r="AB9" s="476"/>
-      <c r="AC9" s="476"/>
-      <c r="AD9" s="476"/>
-      <c r="AE9" s="476"/>
-      <c r="AF9" s="476"/>
-      <c r="AG9" s="476"/>
-      <c r="AH9" s="476"/>
-      <c r="AI9" s="476"/>
-      <c r="AJ9" s="476"/>
-      <c r="AK9" s="476"/>
-      <c r="AL9" s="476"/>
-      <c r="AM9" s="476"/>
-      <c r="AN9" s="476"/>
-      <c r="AO9" s="476"/>
-      <c r="AP9" s="476"/>
-      <c r="AQ9" s="476"/>
-      <c r="AR9" s="476"/>
-      <c r="AS9" s="476"/>
-      <c r="AT9" s="476"/>
-      <c r="AU9" s="476"/>
-      <c r="AV9" s="476"/>
+      <c r="B9" s="360"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
+      <c r="F9" s="360"/>
+      <c r="G9" s="360"/>
+      <c r="H9" s="360"/>
+      <c r="I9" s="360"/>
+      <c r="J9" s="360"/>
+      <c r="K9" s="360"/>
+      <c r="L9" s="360"/>
+      <c r="M9" s="360"/>
+      <c r="N9" s="360"/>
+      <c r="O9" s="360"/>
+      <c r="P9" s="360"/>
+      <c r="Q9" s="360"/>
+      <c r="R9" s="360"/>
+      <c r="S9" s="360"/>
+      <c r="T9" s="360"/>
+      <c r="U9" s="360"/>
+      <c r="V9" s="360"/>
+      <c r="W9" s="360"/>
+      <c r="X9" s="360"/>
+      <c r="Y9" s="360"/>
+      <c r="Z9" s="360"/>
+      <c r="AA9" s="360"/>
+      <c r="AB9" s="360"/>
+      <c r="AC9" s="360"/>
+      <c r="AD9" s="360"/>
+      <c r="AE9" s="360"/>
+      <c r="AF9" s="360"/>
+      <c r="AG9" s="360"/>
+      <c r="AH9" s="360"/>
+      <c r="AI9" s="360"/>
+      <c r="AJ9" s="360"/>
+      <c r="AK9" s="360"/>
+      <c r="AL9" s="360"/>
+      <c r="AM9" s="360"/>
+      <c r="AN9" s="360"/>
+      <c r="AO9" s="360"/>
+      <c r="AP9" s="360"/>
+      <c r="AQ9" s="360"/>
+      <c r="AR9" s="360"/>
+      <c r="AS9" s="360"/>
+      <c r="AT9" s="360"/>
+      <c r="AU9" s="360"/>
+      <c r="AV9" s="360"/>
     </row>
     <row r="10" spans="1:49">
-      <c r="B10" s="476"/>
-      <c r="C10" s="476"/>
-      <c r="D10" s="476"/>
-      <c r="E10" s="476"/>
-      <c r="F10" s="476"/>
-      <c r="G10" s="476"/>
-      <c r="H10" s="476"/>
-      <c r="I10" s="476"/>
-      <c r="J10" s="476"/>
-      <c r="K10" s="476"/>
-      <c r="L10" s="476"/>
-      <c r="M10" s="476"/>
-      <c r="N10" s="476"/>
-      <c r="O10" s="476"/>
-      <c r="P10" s="476"/>
-      <c r="Q10" s="476"/>
-      <c r="R10" s="476"/>
-      <c r="S10" s="476"/>
-      <c r="T10" s="476"/>
-      <c r="U10" s="476"/>
-      <c r="V10" s="476"/>
-      <c r="W10" s="476"/>
-      <c r="X10" s="476"/>
-      <c r="Y10" s="476"/>
-      <c r="Z10" s="476"/>
-      <c r="AA10" s="476"/>
-      <c r="AB10" s="476"/>
-      <c r="AC10" s="476"/>
-      <c r="AD10" s="476"/>
-      <c r="AE10" s="476"/>
-      <c r="AF10" s="476"/>
-      <c r="AG10" s="476"/>
-      <c r="AH10" s="476"/>
-      <c r="AI10" s="476"/>
-      <c r="AJ10" s="476"/>
-      <c r="AK10" s="476"/>
-      <c r="AL10" s="476"/>
-      <c r="AM10" s="476"/>
-      <c r="AN10" s="476"/>
-      <c r="AO10" s="476"/>
-      <c r="AP10" s="476"/>
-      <c r="AQ10" s="476"/>
-      <c r="AR10" s="476"/>
-      <c r="AS10" s="476"/>
-      <c r="AT10" s="476"/>
-      <c r="AU10" s="476"/>
-      <c r="AV10" s="476"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="360"/>
+      <c r="G10" s="360"/>
+      <c r="H10" s="360"/>
+      <c r="I10" s="360"/>
+      <c r="J10" s="360"/>
+      <c r="K10" s="360"/>
+      <c r="L10" s="360"/>
+      <c r="M10" s="360"/>
+      <c r="N10" s="360"/>
+      <c r="O10" s="360"/>
+      <c r="P10" s="360"/>
+      <c r="Q10" s="360"/>
+      <c r="R10" s="360"/>
+      <c r="S10" s="360"/>
+      <c r="T10" s="360"/>
+      <c r="U10" s="360"/>
+      <c r="V10" s="360"/>
+      <c r="W10" s="360"/>
+      <c r="X10" s="360"/>
+      <c r="Y10" s="360"/>
+      <c r="Z10" s="360"/>
+      <c r="AA10" s="360"/>
+      <c r="AB10" s="360"/>
+      <c r="AC10" s="360"/>
+      <c r="AD10" s="360"/>
+      <c r="AE10" s="360"/>
+      <c r="AF10" s="360"/>
+      <c r="AG10" s="360"/>
+      <c r="AH10" s="360"/>
+      <c r="AI10" s="360"/>
+      <c r="AJ10" s="360"/>
+      <c r="AK10" s="360"/>
+      <c r="AL10" s="360"/>
+      <c r="AM10" s="360"/>
+      <c r="AN10" s="360"/>
+      <c r="AO10" s="360"/>
+      <c r="AP10" s="360"/>
+      <c r="AQ10" s="360"/>
+      <c r="AR10" s="360"/>
+      <c r="AS10" s="360"/>
+      <c r="AT10" s="360"/>
+      <c r="AU10" s="360"/>
+      <c r="AV10" s="360"/>
     </row>
     <row r="12" spans="1:49">
-      <c r="B12" s="477" t="s">
+      <c r="B12" s="361" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="477"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="477"/>
-      <c r="F12" s="477"/>
-      <c r="G12" s="477"/>
-      <c r="H12" s="477"/>
-      <c r="I12" s="477"/>
-      <c r="J12" s="477"/>
-      <c r="K12" s="477"/>
-      <c r="L12" s="477"/>
-      <c r="M12" s="477"/>
-      <c r="N12" s="477"/>
-      <c r="O12" s="477"/>
-      <c r="P12" s="477"/>
-      <c r="Q12" s="477"/>
-      <c r="R12" s="477"/>
-      <c r="S12" s="477"/>
-      <c r="T12" s="477"/>
-      <c r="U12" s="477"/>
-      <c r="V12" s="477"/>
-      <c r="W12" s="477"/>
-      <c r="X12" s="477"/>
-      <c r="Y12" s="477"/>
-      <c r="Z12" s="477"/>
-      <c r="AA12" s="477"/>
-      <c r="AB12" s="477"/>
-      <c r="AC12" s="477"/>
-      <c r="AD12" s="477"/>
-      <c r="AE12" s="477"/>
-      <c r="AF12" s="477"/>
-      <c r="AG12" s="477"/>
-      <c r="AH12" s="477"/>
-      <c r="AI12" s="477"/>
-      <c r="AJ12" s="477"/>
-      <c r="AK12" s="477"/>
-      <c r="AL12" s="477"/>
-      <c r="AM12" s="477"/>
-      <c r="AN12" s="477"/>
-      <c r="AO12" s="477"/>
-      <c r="AP12" s="477"/>
-      <c r="AQ12" s="477"/>
-      <c r="AR12" s="477"/>
-      <c r="AS12" s="477"/>
-      <c r="AT12" s="477"/>
-      <c r="AU12" s="477"/>
-      <c r="AV12" s="477"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="361"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="361"/>
+      <c r="G12" s="361"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="361"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="361"/>
+      <c r="L12" s="361"/>
+      <c r="M12" s="361"/>
+      <c r="N12" s="361"/>
+      <c r="O12" s="361"/>
+      <c r="P12" s="361"/>
+      <c r="Q12" s="361"/>
+      <c r="R12" s="361"/>
+      <c r="S12" s="361"/>
+      <c r="T12" s="361"/>
+      <c r="U12" s="361"/>
+      <c r="V12" s="361"/>
+      <c r="W12" s="361"/>
+      <c r="X12" s="361"/>
+      <c r="Y12" s="361"/>
+      <c r="Z12" s="361"/>
+      <c r="AA12" s="361"/>
+      <c r="AB12" s="361"/>
+      <c r="AC12" s="361"/>
+      <c r="AD12" s="361"/>
+      <c r="AE12" s="361"/>
+      <c r="AF12" s="361"/>
+      <c r="AG12" s="361"/>
+      <c r="AH12" s="361"/>
+      <c r="AI12" s="361"/>
+      <c r="AJ12" s="361"/>
+      <c r="AK12" s="361"/>
+      <c r="AL12" s="361"/>
+      <c r="AM12" s="361"/>
+      <c r="AN12" s="361"/>
+      <c r="AO12" s="361"/>
+      <c r="AP12" s="361"/>
+      <c r="AQ12" s="361"/>
+      <c r="AR12" s="361"/>
+      <c r="AS12" s="361"/>
+      <c r="AT12" s="361"/>
+      <c r="AU12" s="361"/>
+      <c r="AV12" s="361"/>
     </row>
     <row r="13" spans="1:49">
-      <c r="B13" s="477"/>
-      <c r="C13" s="477"/>
-      <c r="D13" s="477"/>
-      <c r="E13" s="477"/>
-      <c r="F13" s="477"/>
-      <c r="G13" s="477"/>
-      <c r="H13" s="477"/>
-      <c r="I13" s="477"/>
-      <c r="J13" s="477"/>
-      <c r="K13" s="477"/>
-      <c r="L13" s="477"/>
-      <c r="M13" s="477"/>
-      <c r="N13" s="477"/>
-      <c r="O13" s="477"/>
-      <c r="P13" s="477"/>
-      <c r="Q13" s="477"/>
-      <c r="R13" s="477"/>
-      <c r="S13" s="477"/>
-      <c r="T13" s="477"/>
-      <c r="U13" s="477"/>
-      <c r="V13" s="477"/>
-      <c r="W13" s="477"/>
-      <c r="X13" s="477"/>
-      <c r="Y13" s="477"/>
-      <c r="Z13" s="477"/>
-      <c r="AA13" s="477"/>
-      <c r="AB13" s="477"/>
-      <c r="AC13" s="477"/>
-      <c r="AD13" s="477"/>
-      <c r="AE13" s="477"/>
-      <c r="AF13" s="477"/>
-      <c r="AG13" s="477"/>
-      <c r="AH13" s="477"/>
-      <c r="AI13" s="477"/>
-      <c r="AJ13" s="477"/>
-      <c r="AK13" s="477"/>
-      <c r="AL13" s="477"/>
-      <c r="AM13" s="477"/>
-      <c r="AN13" s="477"/>
-      <c r="AO13" s="477"/>
-      <c r="AP13" s="477"/>
-      <c r="AQ13" s="477"/>
-      <c r="AR13" s="477"/>
-      <c r="AS13" s="477"/>
-      <c r="AT13" s="477"/>
-      <c r="AU13" s="477"/>
-      <c r="AV13" s="477"/>
+      <c r="B13" s="361"/>
+      <c r="C13" s="361"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="361"/>
+      <c r="F13" s="361"/>
+      <c r="G13" s="361"/>
+      <c r="H13" s="361"/>
+      <c r="I13" s="361"/>
+      <c r="J13" s="361"/>
+      <c r="K13" s="361"/>
+      <c r="L13" s="361"/>
+      <c r="M13" s="361"/>
+      <c r="N13" s="361"/>
+      <c r="O13" s="361"/>
+      <c r="P13" s="361"/>
+      <c r="Q13" s="361"/>
+      <c r="R13" s="361"/>
+      <c r="S13" s="361"/>
+      <c r="T13" s="361"/>
+      <c r="U13" s="361"/>
+      <c r="V13" s="361"/>
+      <c r="W13" s="361"/>
+      <c r="X13" s="361"/>
+      <c r="Y13" s="361"/>
+      <c r="Z13" s="361"/>
+      <c r="AA13" s="361"/>
+      <c r="AB13" s="361"/>
+      <c r="AC13" s="361"/>
+      <c r="AD13" s="361"/>
+      <c r="AE13" s="361"/>
+      <c r="AF13" s="361"/>
+      <c r="AG13" s="361"/>
+      <c r="AH13" s="361"/>
+      <c r="AI13" s="361"/>
+      <c r="AJ13" s="361"/>
+      <c r="AK13" s="361"/>
+      <c r="AL13" s="361"/>
+      <c r="AM13" s="361"/>
+      <c r="AN13" s="361"/>
+      <c r="AO13" s="361"/>
+      <c r="AP13" s="361"/>
+      <c r="AQ13" s="361"/>
+      <c r="AR13" s="361"/>
+      <c r="AS13" s="361"/>
+      <c r="AT13" s="361"/>
+      <c r="AU13" s="361"/>
+      <c r="AV13" s="361"/>
     </row>
     <row r="14" spans="1:49">
-      <c r="B14" s="477"/>
-      <c r="C14" s="477"/>
-      <c r="D14" s="477"/>
-      <c r="E14" s="477"/>
-      <c r="F14" s="477"/>
-      <c r="G14" s="477"/>
-      <c r="H14" s="477"/>
-      <c r="I14" s="477"/>
-      <c r="J14" s="477"/>
-      <c r="K14" s="477"/>
-      <c r="L14" s="477"/>
-      <c r="M14" s="477"/>
-      <c r="N14" s="477"/>
-      <c r="O14" s="477"/>
-      <c r="P14" s="477"/>
-      <c r="Q14" s="477"/>
-      <c r="R14" s="477"/>
-      <c r="S14" s="477"/>
-      <c r="T14" s="477"/>
-      <c r="U14" s="477"/>
-      <c r="V14" s="477"/>
-      <c r="W14" s="477"/>
-      <c r="X14" s="477"/>
-      <c r="Y14" s="477"/>
-      <c r="Z14" s="477"/>
-      <c r="AA14" s="477"/>
-      <c r="AB14" s="477"/>
-      <c r="AC14" s="477"/>
-      <c r="AD14" s="477"/>
-      <c r="AE14" s="477"/>
-      <c r="AF14" s="477"/>
-      <c r="AG14" s="477"/>
-      <c r="AH14" s="477"/>
-      <c r="AI14" s="477"/>
-      <c r="AJ14" s="477"/>
-      <c r="AK14" s="477"/>
-      <c r="AL14" s="477"/>
-      <c r="AM14" s="477"/>
-      <c r="AN14" s="477"/>
-      <c r="AO14" s="477"/>
-      <c r="AP14" s="477"/>
-      <c r="AQ14" s="477"/>
-      <c r="AR14" s="477"/>
-      <c r="AS14" s="477"/>
-      <c r="AT14" s="477"/>
-      <c r="AU14" s="477"/>
-      <c r="AV14" s="477"/>
+      <c r="B14" s="361"/>
+      <c r="C14" s="361"/>
+      <c r="D14" s="361"/>
+      <c r="E14" s="361"/>
+      <c r="F14" s="361"/>
+      <c r="G14" s="361"/>
+      <c r="H14" s="361"/>
+      <c r="I14" s="361"/>
+      <c r="J14" s="361"/>
+      <c r="K14" s="361"/>
+      <c r="L14" s="361"/>
+      <c r="M14" s="361"/>
+      <c r="N14" s="361"/>
+      <c r="O14" s="361"/>
+      <c r="P14" s="361"/>
+      <c r="Q14" s="361"/>
+      <c r="R14" s="361"/>
+      <c r="S14" s="361"/>
+      <c r="T14" s="361"/>
+      <c r="U14" s="361"/>
+      <c r="V14" s="361"/>
+      <c r="W14" s="361"/>
+      <c r="X14" s="361"/>
+      <c r="Y14" s="361"/>
+      <c r="Z14" s="361"/>
+      <c r="AA14" s="361"/>
+      <c r="AB14" s="361"/>
+      <c r="AC14" s="361"/>
+      <c r="AD14" s="361"/>
+      <c r="AE14" s="361"/>
+      <c r="AF14" s="361"/>
+      <c r="AG14" s="361"/>
+      <c r="AH14" s="361"/>
+      <c r="AI14" s="361"/>
+      <c r="AJ14" s="361"/>
+      <c r="AK14" s="361"/>
+      <c r="AL14" s="361"/>
+      <c r="AM14" s="361"/>
+      <c r="AN14" s="361"/>
+      <c r="AO14" s="361"/>
+      <c r="AP14" s="361"/>
+      <c r="AQ14" s="361"/>
+      <c r="AR14" s="361"/>
+      <c r="AS14" s="361"/>
+      <c r="AT14" s="361"/>
+      <c r="AU14" s="361"/>
+      <c r="AV14" s="361"/>
     </row>
     <row r="15" spans="1:49">
-      <c r="B15" s="477"/>
-      <c r="C15" s="477"/>
-      <c r="D15" s="477"/>
-      <c r="E15" s="477"/>
-      <c r="F15" s="477"/>
-      <c r="G15" s="477"/>
-      <c r="H15" s="477"/>
-      <c r="I15" s="477"/>
-      <c r="J15" s="477"/>
-      <c r="K15" s="477"/>
-      <c r="L15" s="477"/>
-      <c r="M15" s="477"/>
-      <c r="N15" s="477"/>
-      <c r="O15" s="477"/>
-      <c r="P15" s="477"/>
-      <c r="Q15" s="477"/>
-      <c r="R15" s="477"/>
-      <c r="S15" s="477"/>
-      <c r="T15" s="477"/>
-      <c r="U15" s="477"/>
-      <c r="V15" s="477"/>
-      <c r="W15" s="477"/>
-      <c r="X15" s="477"/>
-      <c r="Y15" s="477"/>
-      <c r="Z15" s="477"/>
-      <c r="AA15" s="477"/>
-      <c r="AB15" s="477"/>
-      <c r="AC15" s="477"/>
-      <c r="AD15" s="477"/>
-      <c r="AE15" s="477"/>
-      <c r="AF15" s="477"/>
-      <c r="AG15" s="477"/>
-      <c r="AH15" s="477"/>
-      <c r="AI15" s="477"/>
-      <c r="AJ15" s="477"/>
-      <c r="AK15" s="477"/>
-      <c r="AL15" s="477"/>
-      <c r="AM15" s="477"/>
-      <c r="AN15" s="477"/>
-      <c r="AO15" s="477"/>
-      <c r="AP15" s="477"/>
-      <c r="AQ15" s="477"/>
-      <c r="AR15" s="477"/>
-      <c r="AS15" s="477"/>
-      <c r="AT15" s="477"/>
-      <c r="AU15" s="477"/>
-      <c r="AV15" s="477"/>
+      <c r="B15" s="361"/>
+      <c r="C15" s="361"/>
+      <c r="D15" s="361"/>
+      <c r="E15" s="361"/>
+      <c r="F15" s="361"/>
+      <c r="G15" s="361"/>
+      <c r="H15" s="361"/>
+      <c r="I15" s="361"/>
+      <c r="J15" s="361"/>
+      <c r="K15" s="361"/>
+      <c r="L15" s="361"/>
+      <c r="M15" s="361"/>
+      <c r="N15" s="361"/>
+      <c r="O15" s="361"/>
+      <c r="P15" s="361"/>
+      <c r="Q15" s="361"/>
+      <c r="R15" s="361"/>
+      <c r="S15" s="361"/>
+      <c r="T15" s="361"/>
+      <c r="U15" s="361"/>
+      <c r="V15" s="361"/>
+      <c r="W15" s="361"/>
+      <c r="X15" s="361"/>
+      <c r="Y15" s="361"/>
+      <c r="Z15" s="361"/>
+      <c r="AA15" s="361"/>
+      <c r="AB15" s="361"/>
+      <c r="AC15" s="361"/>
+      <c r="AD15" s="361"/>
+      <c r="AE15" s="361"/>
+      <c r="AF15" s="361"/>
+      <c r="AG15" s="361"/>
+      <c r="AH15" s="361"/>
+      <c r="AI15" s="361"/>
+      <c r="AJ15" s="361"/>
+      <c r="AK15" s="361"/>
+      <c r="AL15" s="361"/>
+      <c r="AM15" s="361"/>
+      <c r="AN15" s="361"/>
+      <c r="AO15" s="361"/>
+      <c r="AP15" s="361"/>
+      <c r="AQ15" s="361"/>
+      <c r="AR15" s="361"/>
+      <c r="AS15" s="361"/>
+      <c r="AT15" s="361"/>
+      <c r="AU15" s="361"/>
+      <c r="AV15" s="361"/>
     </row>
     <row r="21" spans="16:25">
       <c r="P21" s="44" t="s">
@@ -6147,187 +6147,187 @@
     </row>
     <row r="33" spans="1:49" ht="15" thickBot="1"/>
     <row r="34" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="315" t="s">
+      <c r="A34" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="316"/>
-      <c r="C34" s="316"/>
-      <c r="D34" s="316"/>
-      <c r="E34" s="316"/>
-      <c r="F34" s="316"/>
-      <c r="G34" s="316"/>
-      <c r="H34" s="316"/>
-      <c r="I34" s="317"/>
-      <c r="J34" s="324" t="s">
+      <c r="B34" s="306"/>
+      <c r="C34" s="306"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="306"/>
+      <c r="F34" s="306"/>
+      <c r="G34" s="306"/>
+      <c r="H34" s="306"/>
+      <c r="I34" s="307"/>
+      <c r="J34" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="325"/>
-      <c r="L34" s="325"/>
-      <c r="M34" s="325"/>
-      <c r="N34" s="325"/>
-      <c r="O34" s="326"/>
-      <c r="P34" s="324" t="s">
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
+      <c r="M34" s="315"/>
+      <c r="N34" s="315"/>
+      <c r="O34" s="316"/>
+      <c r="P34" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="325"/>
-      <c r="R34" s="325"/>
-      <c r="S34" s="325"/>
-      <c r="T34" s="325"/>
-      <c r="U34" s="326"/>
-      <c r="V34" s="333" t="s">
+      <c r="Q34" s="315"/>
+      <c r="R34" s="315"/>
+      <c r="S34" s="315"/>
+      <c r="T34" s="315"/>
+      <c r="U34" s="316"/>
+      <c r="V34" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="W34" s="334"/>
-      <c r="X34" s="334"/>
-      <c r="Y34" s="334"/>
-      <c r="Z34" s="335"/>
-      <c r="AA34" s="339" t="s">
+      <c r="W34" s="330"/>
+      <c r="X34" s="330"/>
+      <c r="Y34" s="330"/>
+      <c r="Z34" s="331"/>
+      <c r="AA34" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="325"/>
-      <c r="AC34" s="325"/>
-      <c r="AD34" s="325"/>
-      <c r="AE34" s="325"/>
-      <c r="AF34" s="325"/>
-      <c r="AG34" s="325"/>
-      <c r="AH34" s="325"/>
-      <c r="AI34" s="325"/>
-      <c r="AJ34" s="325"/>
-      <c r="AK34" s="325"/>
-      <c r="AL34" s="326"/>
-      <c r="AM34" s="341" t="s">
+      <c r="AB34" s="315"/>
+      <c r="AC34" s="315"/>
+      <c r="AD34" s="315"/>
+      <c r="AE34" s="315"/>
+      <c r="AF34" s="315"/>
+      <c r="AG34" s="315"/>
+      <c r="AH34" s="315"/>
+      <c r="AI34" s="315"/>
+      <c r="AJ34" s="315"/>
+      <c r="AK34" s="315"/>
+      <c r="AL34" s="316"/>
+      <c r="AM34" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AN34" s="342"/>
-      <c r="AO34" s="343" t="s">
+      <c r="AN34" s="338"/>
+      <c r="AO34" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="AP34" s="344"/>
-      <c r="AQ34" s="345"/>
-      <c r="AR34" s="341" t="s">
+      <c r="AP34" s="346"/>
+      <c r="AQ34" s="347"/>
+      <c r="AR34" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="342"/>
-      <c r="AT34" s="346">
+      <c r="AS34" s="338"/>
+      <c r="AT34" s="356">
         <v>45056</v>
       </c>
-      <c r="AU34" s="347"/>
-      <c r="AV34" s="347"/>
-      <c r="AW34" s="348"/>
+      <c r="AU34" s="357"/>
+      <c r="AV34" s="357"/>
+      <c r="AW34" s="358"/>
     </row>
     <row r="35" spans="1:49">
-      <c r="A35" s="318"/>
-      <c r="B35" s="319"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="319"/>
-      <c r="E35" s="319"/>
-      <c r="F35" s="319"/>
-      <c r="G35" s="319"/>
-      <c r="H35" s="319"/>
-      <c r="I35" s="320"/>
-      <c r="J35" s="327"/>
-      <c r="K35" s="328"/>
-      <c r="L35" s="328"/>
-      <c r="M35" s="328"/>
-      <c r="N35" s="328"/>
-      <c r="O35" s="329"/>
-      <c r="P35" s="327"/>
-      <c r="Q35" s="328"/>
-      <c r="R35" s="328"/>
-      <c r="S35" s="328"/>
-      <c r="T35" s="328"/>
-      <c r="U35" s="329"/>
-      <c r="V35" s="336"/>
-      <c r="W35" s="337"/>
-      <c r="X35" s="337"/>
-      <c r="Y35" s="337"/>
-      <c r="Z35" s="338"/>
-      <c r="AA35" s="340"/>
-      <c r="AB35" s="328"/>
-      <c r="AC35" s="328"/>
-      <c r="AD35" s="328"/>
-      <c r="AE35" s="328"/>
-      <c r="AF35" s="328"/>
-      <c r="AG35" s="328"/>
-      <c r="AH35" s="328"/>
-      <c r="AI35" s="328"/>
-      <c r="AJ35" s="328"/>
-      <c r="AK35" s="328"/>
-      <c r="AL35" s="329"/>
-      <c r="AM35" s="349" t="s">
+      <c r="A35" s="308"/>
+      <c r="B35" s="309"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="309"/>
+      <c r="E35" s="309"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="309"/>
+      <c r="H35" s="309"/>
+      <c r="I35" s="310"/>
+      <c r="J35" s="317"/>
+      <c r="K35" s="318"/>
+      <c r="L35" s="318"/>
+      <c r="M35" s="318"/>
+      <c r="N35" s="318"/>
+      <c r="O35" s="319"/>
+      <c r="P35" s="317"/>
+      <c r="Q35" s="318"/>
+      <c r="R35" s="318"/>
+      <c r="S35" s="318"/>
+      <c r="T35" s="318"/>
+      <c r="U35" s="319"/>
+      <c r="V35" s="332"/>
+      <c r="W35" s="333"/>
+      <c r="X35" s="333"/>
+      <c r="Y35" s="333"/>
+      <c r="Z35" s="334"/>
+      <c r="AA35" s="336"/>
+      <c r="AB35" s="318"/>
+      <c r="AC35" s="318"/>
+      <c r="AD35" s="318"/>
+      <c r="AE35" s="318"/>
+      <c r="AF35" s="318"/>
+      <c r="AG35" s="318"/>
+      <c r="AH35" s="318"/>
+      <c r="AI35" s="318"/>
+      <c r="AJ35" s="318"/>
+      <c r="AK35" s="318"/>
+      <c r="AL35" s="319"/>
+      <c r="AM35" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="AN35" s="350"/>
-      <c r="AO35" s="351"/>
-      <c r="AP35" s="352"/>
-      <c r="AQ35" s="353"/>
-      <c r="AR35" s="349" t="s">
+      <c r="AN35" s="349"/>
+      <c r="AO35" s="350"/>
+      <c r="AP35" s="351"/>
+      <c r="AQ35" s="352"/>
+      <c r="AR35" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="AS35" s="350"/>
-      <c r="AT35" s="354"/>
-      <c r="AU35" s="355"/>
-      <c r="AV35" s="355"/>
-      <c r="AW35" s="356"/>
+      <c r="AS35" s="349"/>
+      <c r="AT35" s="353"/>
+      <c r="AU35" s="354"/>
+      <c r="AV35" s="354"/>
+      <c r="AW35" s="355"/>
     </row>
     <row r="36" spans="1:49" ht="15" thickBot="1">
-      <c r="A36" s="321"/>
-      <c r="B36" s="322"/>
-      <c r="C36" s="322"/>
-      <c r="D36" s="322"/>
-      <c r="E36" s="322"/>
-      <c r="F36" s="322"/>
-      <c r="G36" s="322"/>
-      <c r="H36" s="322"/>
-      <c r="I36" s="323"/>
-      <c r="J36" s="330"/>
-      <c r="K36" s="331"/>
-      <c r="L36" s="331"/>
-      <c r="M36" s="331"/>
-      <c r="N36" s="331"/>
-      <c r="O36" s="332"/>
-      <c r="P36" s="330"/>
-      <c r="Q36" s="331"/>
-      <c r="R36" s="331"/>
-      <c r="S36" s="331"/>
-      <c r="T36" s="331"/>
-      <c r="U36" s="332"/>
-      <c r="V36" s="357" t="s">
+      <c r="A36" s="311"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="312"/>
+      <c r="G36" s="312"/>
+      <c r="H36" s="312"/>
+      <c r="I36" s="313"/>
+      <c r="J36" s="320"/>
+      <c r="K36" s="321"/>
+      <c r="L36" s="321"/>
+      <c r="M36" s="321"/>
+      <c r="N36" s="321"/>
+      <c r="O36" s="322"/>
+      <c r="P36" s="320"/>
+      <c r="Q36" s="321"/>
+      <c r="R36" s="321"/>
+      <c r="S36" s="321"/>
+      <c r="T36" s="321"/>
+      <c r="U36" s="322"/>
+      <c r="V36" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="358"/>
-      <c r="X36" s="358"/>
-      <c r="Y36" s="358"/>
-      <c r="Z36" s="359"/>
-      <c r="AA36" s="360" t="s">
+      <c r="W36" s="327"/>
+      <c r="X36" s="327"/>
+      <c r="Y36" s="327"/>
+      <c r="Z36" s="328"/>
+      <c r="AA36" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="AB36" s="361"/>
-      <c r="AC36" s="361"/>
-      <c r="AD36" s="361"/>
-      <c r="AE36" s="361"/>
-      <c r="AF36" s="361"/>
-      <c r="AG36" s="362"/>
-      <c r="AH36" s="363" t="s">
+      <c r="AB36" s="324"/>
+      <c r="AC36" s="324"/>
+      <c r="AD36" s="324"/>
+      <c r="AE36" s="324"/>
+      <c r="AF36" s="324"/>
+      <c r="AG36" s="325"/>
+      <c r="AH36" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="AI36" s="364"/>
-      <c r="AJ36" s="364"/>
-      <c r="AK36" s="364"/>
-      <c r="AL36" s="365"/>
-      <c r="AM36" s="312" t="s">
+      <c r="AI36" s="340"/>
+      <c r="AJ36" s="340"/>
+      <c r="AK36" s="340"/>
+      <c r="AL36" s="341"/>
+      <c r="AM36" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="AN36" s="313"/>
-      <c r="AO36" s="313"/>
-      <c r="AP36" s="313"/>
-      <c r="AQ36" s="313"/>
-      <c r="AR36" s="313"/>
-      <c r="AS36" s="313"/>
-      <c r="AT36" s="313"/>
-      <c r="AU36" s="313"/>
-      <c r="AV36" s="313"/>
-      <c r="AW36" s="314"/>
+      <c r="AN36" s="343"/>
+      <c r="AO36" s="343"/>
+      <c r="AP36" s="343"/>
+      <c r="AQ36" s="343"/>
+      <c r="AR36" s="343"/>
+      <c r="AS36" s="343"/>
+      <c r="AT36" s="343"/>
+      <c r="AU36" s="343"/>
+      <c r="AV36" s="343"/>
+      <c r="AW36" s="344"/>
     </row>
     <row r="37" spans="1:49" ht="15" thickTop="1">
       <c r="A37" s="46"/>
@@ -6486,1650 +6486,1650 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" s="51"/>
-      <c r="B40" s="454" t="s">
+      <c r="B40" s="362" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="455"/>
-      <c r="D40" s="458" t="s">
+      <c r="C40" s="363"/>
+      <c r="D40" s="366" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="459"/>
-      <c r="F40" s="459"/>
-      <c r="G40" s="459"/>
-      <c r="H40" s="460"/>
-      <c r="I40" s="454" t="s">
+      <c r="E40" s="367"/>
+      <c r="F40" s="367"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="368"/>
+      <c r="I40" s="362" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="455"/>
-      <c r="K40" s="455"/>
-      <c r="L40" s="455"/>
-      <c r="M40" s="455"/>
-      <c r="N40" s="455"/>
-      <c r="O40" s="455"/>
-      <c r="P40" s="455"/>
-      <c r="Q40" s="455"/>
-      <c r="R40" s="455"/>
-      <c r="S40" s="455"/>
-      <c r="T40" s="455"/>
-      <c r="U40" s="455"/>
-      <c r="V40" s="455"/>
-      <c r="W40" s="455"/>
-      <c r="X40" s="455"/>
-      <c r="Y40" s="455"/>
-      <c r="Z40" s="464"/>
-      <c r="AA40" s="458" t="s">
+      <c r="J40" s="363"/>
+      <c r="K40" s="363"/>
+      <c r="L40" s="363"/>
+      <c r="M40" s="363"/>
+      <c r="N40" s="363"/>
+      <c r="O40" s="363"/>
+      <c r="P40" s="363"/>
+      <c r="Q40" s="363"/>
+      <c r="R40" s="363"/>
+      <c r="S40" s="363"/>
+      <c r="T40" s="363"/>
+      <c r="U40" s="363"/>
+      <c r="V40" s="363"/>
+      <c r="W40" s="363"/>
+      <c r="X40" s="363"/>
+      <c r="Y40" s="363"/>
+      <c r="Z40" s="372"/>
+      <c r="AA40" s="366" t="s">
         <v>6</v>
       </c>
-      <c r="AB40" s="459"/>
-      <c r="AC40" s="459"/>
-      <c r="AD40" s="460"/>
-      <c r="AE40" s="469"/>
-      <c r="AF40" s="470"/>
-      <c r="AG40" s="470"/>
-      <c r="AH40" s="470"/>
-      <c r="AI40" s="470"/>
-      <c r="AJ40" s="470"/>
-      <c r="AK40" s="470"/>
-      <c r="AL40" s="470"/>
-      <c r="AM40" s="471"/>
-      <c r="AN40" s="472"/>
-      <c r="AO40" s="473"/>
-      <c r="AP40" s="473"/>
-      <c r="AQ40" s="473"/>
-      <c r="AR40" s="473"/>
-      <c r="AS40" s="473"/>
-      <c r="AT40" s="473"/>
-      <c r="AU40" s="473"/>
-      <c r="AV40" s="474"/>
+      <c r="AB40" s="367"/>
+      <c r="AC40" s="367"/>
+      <c r="AD40" s="368"/>
+      <c r="AE40" s="377"/>
+      <c r="AF40" s="378"/>
+      <c r="AG40" s="378"/>
+      <c r="AH40" s="378"/>
+      <c r="AI40" s="378"/>
+      <c r="AJ40" s="378"/>
+      <c r="AK40" s="378"/>
+      <c r="AL40" s="378"/>
+      <c r="AM40" s="379"/>
+      <c r="AN40" s="380"/>
+      <c r="AO40" s="381"/>
+      <c r="AP40" s="381"/>
+      <c r="AQ40" s="381"/>
+      <c r="AR40" s="381"/>
+      <c r="AS40" s="381"/>
+      <c r="AT40" s="381"/>
+      <c r="AU40" s="381"/>
+      <c r="AV40" s="382"/>
       <c r="AW40" s="53"/>
     </row>
     <row r="41" spans="1:49">
       <c r="A41" s="51"/>
-      <c r="B41" s="456"/>
-      <c r="C41" s="457"/>
-      <c r="D41" s="461"/>
-      <c r="E41" s="462"/>
-      <c r="F41" s="462"/>
-      <c r="G41" s="462"/>
-      <c r="H41" s="463"/>
-      <c r="I41" s="456"/>
-      <c r="J41" s="457"/>
-      <c r="K41" s="457"/>
-      <c r="L41" s="457"/>
-      <c r="M41" s="457"/>
-      <c r="N41" s="457"/>
-      <c r="O41" s="457"/>
-      <c r="P41" s="457"/>
-      <c r="Q41" s="457"/>
-      <c r="R41" s="457"/>
-      <c r="S41" s="457"/>
-      <c r="T41" s="457"/>
-      <c r="U41" s="457"/>
-      <c r="V41" s="457"/>
-      <c r="W41" s="457"/>
-      <c r="X41" s="457"/>
-      <c r="Y41" s="457"/>
-      <c r="Z41" s="465"/>
-      <c r="AA41" s="466"/>
-      <c r="AB41" s="467"/>
-      <c r="AC41" s="467"/>
-      <c r="AD41" s="468"/>
-      <c r="AE41" s="469" t="s">
+      <c r="B41" s="364"/>
+      <c r="C41" s="365"/>
+      <c r="D41" s="369"/>
+      <c r="E41" s="370"/>
+      <c r="F41" s="370"/>
+      <c r="G41" s="370"/>
+      <c r="H41" s="371"/>
+      <c r="I41" s="364"/>
+      <c r="J41" s="365"/>
+      <c r="K41" s="365"/>
+      <c r="L41" s="365"/>
+      <c r="M41" s="365"/>
+      <c r="N41" s="365"/>
+      <c r="O41" s="365"/>
+      <c r="P41" s="365"/>
+      <c r="Q41" s="365"/>
+      <c r="R41" s="365"/>
+      <c r="S41" s="365"/>
+      <c r="T41" s="365"/>
+      <c r="U41" s="365"/>
+      <c r="V41" s="365"/>
+      <c r="W41" s="365"/>
+      <c r="X41" s="365"/>
+      <c r="Y41" s="365"/>
+      <c r="Z41" s="373"/>
+      <c r="AA41" s="374"/>
+      <c r="AB41" s="375"/>
+      <c r="AC41" s="375"/>
+      <c r="AD41" s="376"/>
+      <c r="AE41" s="377" t="s">
         <v>25</v>
       </c>
-      <c r="AF41" s="470"/>
-      <c r="AG41" s="470"/>
-      <c r="AH41" s="470"/>
-      <c r="AI41" s="471"/>
-      <c r="AJ41" s="469" t="s">
+      <c r="AF41" s="378"/>
+      <c r="AG41" s="378"/>
+      <c r="AH41" s="378"/>
+      <c r="AI41" s="379"/>
+      <c r="AJ41" s="377" t="s">
         <v>26</v>
       </c>
-      <c r="AK41" s="470"/>
-      <c r="AL41" s="470"/>
-      <c r="AM41" s="471"/>
-      <c r="AN41" s="469" t="s">
+      <c r="AK41" s="378"/>
+      <c r="AL41" s="378"/>
+      <c r="AM41" s="379"/>
+      <c r="AN41" s="377" t="s">
         <v>25</v>
       </c>
-      <c r="AO41" s="470"/>
-      <c r="AP41" s="470"/>
-      <c r="AQ41" s="470"/>
-      <c r="AR41" s="471"/>
-      <c r="AS41" s="469" t="s">
+      <c r="AO41" s="378"/>
+      <c r="AP41" s="378"/>
+      <c r="AQ41" s="378"/>
+      <c r="AR41" s="379"/>
+      <c r="AS41" s="377" t="s">
         <v>26</v>
       </c>
-      <c r="AT41" s="470"/>
-      <c r="AU41" s="470"/>
-      <c r="AV41" s="471"/>
+      <c r="AT41" s="378"/>
+      <c r="AU41" s="378"/>
+      <c r="AV41" s="379"/>
       <c r="AW41" s="53"/>
     </row>
     <row r="42" spans="1:49">
       <c r="A42" s="51"/>
-      <c r="B42" s="399"/>
-      <c r="C42" s="400"/>
-      <c r="D42" s="403"/>
-      <c r="E42" s="355"/>
-      <c r="F42" s="355"/>
-      <c r="G42" s="355"/>
-      <c r="H42" s="404"/>
-      <c r="I42" s="408"/>
-      <c r="J42" s="409"/>
-      <c r="K42" s="409"/>
-      <c r="L42" s="409"/>
-      <c r="M42" s="409"/>
-      <c r="N42" s="409"/>
-      <c r="O42" s="409"/>
-      <c r="P42" s="409"/>
-      <c r="Q42" s="409"/>
-      <c r="R42" s="409"/>
-      <c r="S42" s="409"/>
-      <c r="T42" s="409"/>
-      <c r="U42" s="409"/>
-      <c r="V42" s="409"/>
-      <c r="W42" s="409"/>
-      <c r="X42" s="409"/>
-      <c r="Y42" s="409"/>
-      <c r="Z42" s="410"/>
-      <c r="AA42" s="414"/>
-      <c r="AB42" s="415"/>
-      <c r="AC42" s="415"/>
-      <c r="AD42" s="416"/>
-      <c r="AE42" s="420"/>
-      <c r="AF42" s="421"/>
-      <c r="AG42" s="421"/>
-      <c r="AH42" s="421"/>
-      <c r="AI42" s="422"/>
-      <c r="AJ42" s="414"/>
-      <c r="AK42" s="415"/>
-      <c r="AL42" s="415"/>
-      <c r="AM42" s="416"/>
-      <c r="AN42" s="420"/>
-      <c r="AO42" s="421"/>
-      <c r="AP42" s="421"/>
-      <c r="AQ42" s="421"/>
-      <c r="AR42" s="422"/>
-      <c r="AS42" s="414"/>
-      <c r="AT42" s="415"/>
-      <c r="AU42" s="415"/>
-      <c r="AV42" s="416"/>
+      <c r="B42" s="383"/>
+      <c r="C42" s="384"/>
+      <c r="D42" s="387"/>
+      <c r="E42" s="354"/>
+      <c r="F42" s="354"/>
+      <c r="G42" s="354"/>
+      <c r="H42" s="388"/>
+      <c r="I42" s="392"/>
+      <c r="J42" s="393"/>
+      <c r="K42" s="393"/>
+      <c r="L42" s="393"/>
+      <c r="M42" s="393"/>
+      <c r="N42" s="393"/>
+      <c r="O42" s="393"/>
+      <c r="P42" s="393"/>
+      <c r="Q42" s="393"/>
+      <c r="R42" s="393"/>
+      <c r="S42" s="393"/>
+      <c r="T42" s="393"/>
+      <c r="U42" s="393"/>
+      <c r="V42" s="393"/>
+      <c r="W42" s="393"/>
+      <c r="X42" s="393"/>
+      <c r="Y42" s="393"/>
+      <c r="Z42" s="394"/>
+      <c r="AA42" s="398"/>
+      <c r="AB42" s="399"/>
+      <c r="AC42" s="399"/>
+      <c r="AD42" s="400"/>
+      <c r="AE42" s="404"/>
+      <c r="AF42" s="405"/>
+      <c r="AG42" s="405"/>
+      <c r="AH42" s="405"/>
+      <c r="AI42" s="406"/>
+      <c r="AJ42" s="398"/>
+      <c r="AK42" s="399"/>
+      <c r="AL42" s="399"/>
+      <c r="AM42" s="400"/>
+      <c r="AN42" s="404"/>
+      <c r="AO42" s="405"/>
+      <c r="AP42" s="405"/>
+      <c r="AQ42" s="405"/>
+      <c r="AR42" s="406"/>
+      <c r="AS42" s="398"/>
+      <c r="AT42" s="399"/>
+      <c r="AU42" s="399"/>
+      <c r="AV42" s="400"/>
       <c r="AW42" s="53"/>
     </row>
     <row r="43" spans="1:49">
       <c r="A43" s="51"/>
-      <c r="B43" s="401"/>
-      <c r="C43" s="402"/>
-      <c r="D43" s="405"/>
-      <c r="E43" s="406"/>
-      <c r="F43" s="406"/>
-      <c r="G43" s="406"/>
-      <c r="H43" s="407"/>
-      <c r="I43" s="411"/>
-      <c r="J43" s="412"/>
-      <c r="K43" s="412"/>
-      <c r="L43" s="412"/>
-      <c r="M43" s="412"/>
-      <c r="N43" s="412"/>
-      <c r="O43" s="412"/>
-      <c r="P43" s="412"/>
-      <c r="Q43" s="412"/>
-      <c r="R43" s="412"/>
-      <c r="S43" s="412"/>
-      <c r="T43" s="412"/>
-      <c r="U43" s="412"/>
-      <c r="V43" s="412"/>
-      <c r="W43" s="412"/>
-      <c r="X43" s="412"/>
-      <c r="Y43" s="412"/>
-      <c r="Z43" s="413"/>
-      <c r="AA43" s="417"/>
-      <c r="AB43" s="418"/>
-      <c r="AC43" s="418"/>
-      <c r="AD43" s="419"/>
-      <c r="AE43" s="423"/>
-      <c r="AF43" s="424"/>
-      <c r="AG43" s="424"/>
-      <c r="AH43" s="424"/>
-      <c r="AI43" s="425"/>
-      <c r="AJ43" s="417"/>
-      <c r="AK43" s="418"/>
-      <c r="AL43" s="418"/>
-      <c r="AM43" s="419"/>
-      <c r="AN43" s="423"/>
-      <c r="AO43" s="424"/>
-      <c r="AP43" s="424"/>
-      <c r="AQ43" s="424"/>
-      <c r="AR43" s="425"/>
-      <c r="AS43" s="417"/>
-      <c r="AT43" s="418"/>
-      <c r="AU43" s="418"/>
-      <c r="AV43" s="419"/>
+      <c r="B43" s="385"/>
+      <c r="C43" s="386"/>
+      <c r="D43" s="389"/>
+      <c r="E43" s="390"/>
+      <c r="F43" s="390"/>
+      <c r="G43" s="390"/>
+      <c r="H43" s="391"/>
+      <c r="I43" s="395"/>
+      <c r="J43" s="396"/>
+      <c r="K43" s="396"/>
+      <c r="L43" s="396"/>
+      <c r="M43" s="396"/>
+      <c r="N43" s="396"/>
+      <c r="O43" s="396"/>
+      <c r="P43" s="396"/>
+      <c r="Q43" s="396"/>
+      <c r="R43" s="396"/>
+      <c r="S43" s="396"/>
+      <c r="T43" s="396"/>
+      <c r="U43" s="396"/>
+      <c r="V43" s="396"/>
+      <c r="W43" s="396"/>
+      <c r="X43" s="396"/>
+      <c r="Y43" s="396"/>
+      <c r="Z43" s="397"/>
+      <c r="AA43" s="401"/>
+      <c r="AB43" s="402"/>
+      <c r="AC43" s="402"/>
+      <c r="AD43" s="403"/>
+      <c r="AE43" s="407"/>
+      <c r="AF43" s="408"/>
+      <c r="AG43" s="408"/>
+      <c r="AH43" s="408"/>
+      <c r="AI43" s="409"/>
+      <c r="AJ43" s="401"/>
+      <c r="AK43" s="402"/>
+      <c r="AL43" s="402"/>
+      <c r="AM43" s="403"/>
+      <c r="AN43" s="407"/>
+      <c r="AO43" s="408"/>
+      <c r="AP43" s="408"/>
+      <c r="AQ43" s="408"/>
+      <c r="AR43" s="409"/>
+      <c r="AS43" s="401"/>
+      <c r="AT43" s="402"/>
+      <c r="AU43" s="402"/>
+      <c r="AV43" s="403"/>
       <c r="AW43" s="53"/>
     </row>
     <row r="44" spans="1:49">
       <c r="A44" s="51"/>
-      <c r="B44" s="426"/>
-      <c r="C44" s="427"/>
-      <c r="D44" s="430"/>
-      <c r="E44" s="431"/>
-      <c r="F44" s="431"/>
-      <c r="G44" s="431"/>
-      <c r="H44" s="432"/>
-      <c r="I44" s="436"/>
-      <c r="J44" s="437"/>
-      <c r="K44" s="437"/>
-      <c r="L44" s="437"/>
-      <c r="M44" s="437"/>
-      <c r="N44" s="437"/>
-      <c r="O44" s="437"/>
-      <c r="P44" s="437"/>
-      <c r="Q44" s="437"/>
-      <c r="R44" s="437"/>
-      <c r="S44" s="437"/>
-      <c r="T44" s="437"/>
-      <c r="U44" s="437"/>
-      <c r="V44" s="437"/>
-      <c r="W44" s="437"/>
-      <c r="X44" s="437"/>
-      <c r="Y44" s="437"/>
-      <c r="Z44" s="438"/>
-      <c r="AA44" s="442"/>
-      <c r="AB44" s="443"/>
-      <c r="AC44" s="443"/>
-      <c r="AD44" s="444"/>
-      <c r="AE44" s="448"/>
-      <c r="AF44" s="449"/>
-      <c r="AG44" s="449"/>
-      <c r="AH44" s="449"/>
-      <c r="AI44" s="450"/>
-      <c r="AJ44" s="442"/>
-      <c r="AK44" s="443"/>
-      <c r="AL44" s="443"/>
-      <c r="AM44" s="444"/>
-      <c r="AN44" s="448"/>
-      <c r="AO44" s="449"/>
-      <c r="AP44" s="449"/>
-      <c r="AQ44" s="449"/>
-      <c r="AR44" s="450"/>
-      <c r="AS44" s="442"/>
-      <c r="AT44" s="443"/>
-      <c r="AU44" s="443"/>
-      <c r="AV44" s="444"/>
+      <c r="B44" s="410"/>
+      <c r="C44" s="411"/>
+      <c r="D44" s="414"/>
+      <c r="E44" s="415"/>
+      <c r="F44" s="415"/>
+      <c r="G44" s="415"/>
+      <c r="H44" s="416"/>
+      <c r="I44" s="420"/>
+      <c r="J44" s="421"/>
+      <c r="K44" s="421"/>
+      <c r="L44" s="421"/>
+      <c r="M44" s="421"/>
+      <c r="N44" s="421"/>
+      <c r="O44" s="421"/>
+      <c r="P44" s="421"/>
+      <c r="Q44" s="421"/>
+      <c r="R44" s="421"/>
+      <c r="S44" s="421"/>
+      <c r="T44" s="421"/>
+      <c r="U44" s="421"/>
+      <c r="V44" s="421"/>
+      <c r="W44" s="421"/>
+      <c r="X44" s="421"/>
+      <c r="Y44" s="421"/>
+      <c r="Z44" s="422"/>
+      <c r="AA44" s="426"/>
+      <c r="AB44" s="427"/>
+      <c r="AC44" s="427"/>
+      <c r="AD44" s="428"/>
+      <c r="AE44" s="432"/>
+      <c r="AF44" s="433"/>
+      <c r="AG44" s="433"/>
+      <c r="AH44" s="433"/>
+      <c r="AI44" s="434"/>
+      <c r="AJ44" s="426"/>
+      <c r="AK44" s="427"/>
+      <c r="AL44" s="427"/>
+      <c r="AM44" s="428"/>
+      <c r="AN44" s="432"/>
+      <c r="AO44" s="433"/>
+      <c r="AP44" s="433"/>
+      <c r="AQ44" s="433"/>
+      <c r="AR44" s="434"/>
+      <c r="AS44" s="426"/>
+      <c r="AT44" s="427"/>
+      <c r="AU44" s="427"/>
+      <c r="AV44" s="428"/>
       <c r="AW44" s="53"/>
     </row>
     <row r="45" spans="1:49">
       <c r="A45" s="51"/>
-      <c r="B45" s="428"/>
-      <c r="C45" s="429"/>
-      <c r="D45" s="433"/>
-      <c r="E45" s="434"/>
-      <c r="F45" s="434"/>
-      <c r="G45" s="434"/>
-      <c r="H45" s="435"/>
-      <c r="I45" s="439"/>
-      <c r="J45" s="440"/>
-      <c r="K45" s="440"/>
-      <c r="L45" s="440"/>
-      <c r="M45" s="440"/>
-      <c r="N45" s="440"/>
-      <c r="O45" s="440"/>
-      <c r="P45" s="440"/>
-      <c r="Q45" s="440"/>
-      <c r="R45" s="440"/>
-      <c r="S45" s="440"/>
-      <c r="T45" s="440"/>
-      <c r="U45" s="440"/>
-      <c r="V45" s="440"/>
-      <c r="W45" s="440"/>
-      <c r="X45" s="440"/>
-      <c r="Y45" s="440"/>
-      <c r="Z45" s="441"/>
-      <c r="AA45" s="445"/>
-      <c r="AB45" s="446"/>
-      <c r="AC45" s="446"/>
-      <c r="AD45" s="447"/>
-      <c r="AE45" s="451"/>
-      <c r="AF45" s="452"/>
-      <c r="AG45" s="452"/>
-      <c r="AH45" s="452"/>
-      <c r="AI45" s="453"/>
-      <c r="AJ45" s="445"/>
-      <c r="AK45" s="446"/>
-      <c r="AL45" s="446"/>
-      <c r="AM45" s="447"/>
-      <c r="AN45" s="451"/>
-      <c r="AO45" s="452"/>
-      <c r="AP45" s="452"/>
-      <c r="AQ45" s="452"/>
-      <c r="AR45" s="453"/>
-      <c r="AS45" s="445"/>
-      <c r="AT45" s="446"/>
-      <c r="AU45" s="446"/>
-      <c r="AV45" s="447"/>
+      <c r="B45" s="412"/>
+      <c r="C45" s="413"/>
+      <c r="D45" s="417"/>
+      <c r="E45" s="418"/>
+      <c r="F45" s="418"/>
+      <c r="G45" s="418"/>
+      <c r="H45" s="419"/>
+      <c r="I45" s="423"/>
+      <c r="J45" s="424"/>
+      <c r="K45" s="424"/>
+      <c r="L45" s="424"/>
+      <c r="M45" s="424"/>
+      <c r="N45" s="424"/>
+      <c r="O45" s="424"/>
+      <c r="P45" s="424"/>
+      <c r="Q45" s="424"/>
+      <c r="R45" s="424"/>
+      <c r="S45" s="424"/>
+      <c r="T45" s="424"/>
+      <c r="U45" s="424"/>
+      <c r="V45" s="424"/>
+      <c r="W45" s="424"/>
+      <c r="X45" s="424"/>
+      <c r="Y45" s="424"/>
+      <c r="Z45" s="425"/>
+      <c r="AA45" s="429"/>
+      <c r="AB45" s="430"/>
+      <c r="AC45" s="430"/>
+      <c r="AD45" s="431"/>
+      <c r="AE45" s="435"/>
+      <c r="AF45" s="436"/>
+      <c r="AG45" s="436"/>
+      <c r="AH45" s="436"/>
+      <c r="AI45" s="437"/>
+      <c r="AJ45" s="429"/>
+      <c r="AK45" s="430"/>
+      <c r="AL45" s="430"/>
+      <c r="AM45" s="431"/>
+      <c r="AN45" s="435"/>
+      <c r="AO45" s="436"/>
+      <c r="AP45" s="436"/>
+      <c r="AQ45" s="436"/>
+      <c r="AR45" s="437"/>
+      <c r="AS45" s="429"/>
+      <c r="AT45" s="430"/>
+      <c r="AU45" s="430"/>
+      <c r="AV45" s="431"/>
       <c r="AW45" s="53"/>
     </row>
     <row r="46" spans="1:49">
       <c r="A46" s="51"/>
-      <c r="B46" s="366"/>
-      <c r="C46" s="367"/>
-      <c r="D46" s="370"/>
-      <c r="E46" s="371"/>
-      <c r="F46" s="371"/>
-      <c r="G46" s="371"/>
-      <c r="H46" s="372"/>
-      <c r="I46" s="376"/>
-      <c r="J46" s="377"/>
-      <c r="K46" s="377"/>
-      <c r="L46" s="377"/>
-      <c r="M46" s="377"/>
-      <c r="N46" s="377"/>
-      <c r="O46" s="377"/>
-      <c r="P46" s="377"/>
-      <c r="Q46" s="377"/>
-      <c r="R46" s="377"/>
-      <c r="S46" s="377"/>
-      <c r="T46" s="377"/>
-      <c r="U46" s="377"/>
-      <c r="V46" s="377"/>
-      <c r="W46" s="377"/>
-      <c r="X46" s="377"/>
-      <c r="Y46" s="377"/>
-      <c r="Z46" s="378"/>
-      <c r="AA46" s="382"/>
-      <c r="AB46" s="383"/>
-      <c r="AC46" s="383"/>
-      <c r="AD46" s="384"/>
-      <c r="AE46" s="370"/>
-      <c r="AF46" s="371"/>
-      <c r="AG46" s="371"/>
-      <c r="AH46" s="371"/>
-      <c r="AI46" s="372"/>
-      <c r="AJ46" s="382"/>
-      <c r="AK46" s="383"/>
-      <c r="AL46" s="383"/>
-      <c r="AM46" s="384"/>
-      <c r="AN46" s="370"/>
-      <c r="AO46" s="371"/>
-      <c r="AP46" s="371"/>
-      <c r="AQ46" s="371"/>
-      <c r="AR46" s="372"/>
-      <c r="AS46" s="382"/>
-      <c r="AT46" s="383"/>
-      <c r="AU46" s="383"/>
-      <c r="AV46" s="384"/>
+      <c r="B46" s="438"/>
+      <c r="C46" s="439"/>
+      <c r="D46" s="440"/>
+      <c r="E46" s="441"/>
+      <c r="F46" s="441"/>
+      <c r="G46" s="441"/>
+      <c r="H46" s="442"/>
+      <c r="I46" s="443"/>
+      <c r="J46" s="444"/>
+      <c r="K46" s="444"/>
+      <c r="L46" s="444"/>
+      <c r="M46" s="444"/>
+      <c r="N46" s="444"/>
+      <c r="O46" s="444"/>
+      <c r="P46" s="444"/>
+      <c r="Q46" s="444"/>
+      <c r="R46" s="444"/>
+      <c r="S46" s="444"/>
+      <c r="T46" s="444"/>
+      <c r="U46" s="444"/>
+      <c r="V46" s="444"/>
+      <c r="W46" s="444"/>
+      <c r="X46" s="444"/>
+      <c r="Y46" s="444"/>
+      <c r="Z46" s="445"/>
+      <c r="AA46" s="446"/>
+      <c r="AB46" s="447"/>
+      <c r="AC46" s="447"/>
+      <c r="AD46" s="448"/>
+      <c r="AE46" s="440"/>
+      <c r="AF46" s="441"/>
+      <c r="AG46" s="441"/>
+      <c r="AH46" s="441"/>
+      <c r="AI46" s="442"/>
+      <c r="AJ46" s="446"/>
+      <c r="AK46" s="447"/>
+      <c r="AL46" s="447"/>
+      <c r="AM46" s="448"/>
+      <c r="AN46" s="440"/>
+      <c r="AO46" s="441"/>
+      <c r="AP46" s="441"/>
+      <c r="AQ46" s="441"/>
+      <c r="AR46" s="442"/>
+      <c r="AS46" s="446"/>
+      <c r="AT46" s="447"/>
+      <c r="AU46" s="447"/>
+      <c r="AV46" s="448"/>
       <c r="AW46" s="53"/>
     </row>
     <row r="47" spans="1:49">
       <c r="A47" s="51"/>
-      <c r="B47" s="366"/>
-      <c r="C47" s="367"/>
-      <c r="D47" s="370"/>
-      <c r="E47" s="371"/>
-      <c r="F47" s="371"/>
-      <c r="G47" s="371"/>
-      <c r="H47" s="372"/>
-      <c r="I47" s="376"/>
-      <c r="J47" s="377"/>
-      <c r="K47" s="377"/>
-      <c r="L47" s="377"/>
-      <c r="M47" s="377"/>
-      <c r="N47" s="377"/>
-      <c r="O47" s="377"/>
-      <c r="P47" s="377"/>
-      <c r="Q47" s="377"/>
-      <c r="R47" s="377"/>
-      <c r="S47" s="377"/>
-      <c r="T47" s="377"/>
-      <c r="U47" s="377"/>
-      <c r="V47" s="377"/>
-      <c r="W47" s="377"/>
-      <c r="X47" s="377"/>
-      <c r="Y47" s="377"/>
-      <c r="Z47" s="378"/>
-      <c r="AA47" s="382"/>
-      <c r="AB47" s="383"/>
-      <c r="AC47" s="383"/>
-      <c r="AD47" s="384"/>
-      <c r="AE47" s="370"/>
-      <c r="AF47" s="371"/>
-      <c r="AG47" s="371"/>
-      <c r="AH47" s="371"/>
-      <c r="AI47" s="372"/>
-      <c r="AJ47" s="382"/>
-      <c r="AK47" s="383"/>
-      <c r="AL47" s="383"/>
-      <c r="AM47" s="384"/>
-      <c r="AN47" s="370"/>
-      <c r="AO47" s="371"/>
-      <c r="AP47" s="371"/>
-      <c r="AQ47" s="371"/>
-      <c r="AR47" s="372"/>
-      <c r="AS47" s="382"/>
-      <c r="AT47" s="383"/>
-      <c r="AU47" s="383"/>
-      <c r="AV47" s="384"/>
+      <c r="B47" s="438"/>
+      <c r="C47" s="439"/>
+      <c r="D47" s="440"/>
+      <c r="E47" s="441"/>
+      <c r="F47" s="441"/>
+      <c r="G47" s="441"/>
+      <c r="H47" s="442"/>
+      <c r="I47" s="443"/>
+      <c r="J47" s="444"/>
+      <c r="K47" s="444"/>
+      <c r="L47" s="444"/>
+      <c r="M47" s="444"/>
+      <c r="N47" s="444"/>
+      <c r="O47" s="444"/>
+      <c r="P47" s="444"/>
+      <c r="Q47" s="444"/>
+      <c r="R47" s="444"/>
+      <c r="S47" s="444"/>
+      <c r="T47" s="444"/>
+      <c r="U47" s="444"/>
+      <c r="V47" s="444"/>
+      <c r="W47" s="444"/>
+      <c r="X47" s="444"/>
+      <c r="Y47" s="444"/>
+      <c r="Z47" s="445"/>
+      <c r="AA47" s="446"/>
+      <c r="AB47" s="447"/>
+      <c r="AC47" s="447"/>
+      <c r="AD47" s="448"/>
+      <c r="AE47" s="440"/>
+      <c r="AF47" s="441"/>
+      <c r="AG47" s="441"/>
+      <c r="AH47" s="441"/>
+      <c r="AI47" s="442"/>
+      <c r="AJ47" s="446"/>
+      <c r="AK47" s="447"/>
+      <c r="AL47" s="447"/>
+      <c r="AM47" s="448"/>
+      <c r="AN47" s="440"/>
+      <c r="AO47" s="441"/>
+      <c r="AP47" s="441"/>
+      <c r="AQ47" s="441"/>
+      <c r="AR47" s="442"/>
+      <c r="AS47" s="446"/>
+      <c r="AT47" s="447"/>
+      <c r="AU47" s="447"/>
+      <c r="AV47" s="448"/>
       <c r="AW47" s="53"/>
     </row>
     <row r="48" spans="1:49">
       <c r="A48" s="54"/>
-      <c r="B48" s="388"/>
-      <c r="C48" s="389"/>
-      <c r="D48" s="390"/>
-      <c r="E48" s="391"/>
-      <c r="F48" s="391"/>
-      <c r="G48" s="391"/>
-      <c r="H48" s="392"/>
-      <c r="I48" s="393"/>
-      <c r="J48" s="394"/>
-      <c r="K48" s="394"/>
-      <c r="L48" s="394"/>
-      <c r="M48" s="394"/>
-      <c r="N48" s="394"/>
-      <c r="O48" s="394"/>
-      <c r="P48" s="394"/>
-      <c r="Q48" s="394"/>
-      <c r="R48" s="394"/>
-      <c r="S48" s="394"/>
-      <c r="T48" s="394"/>
-      <c r="U48" s="394"/>
-      <c r="V48" s="394"/>
-      <c r="W48" s="394"/>
-      <c r="X48" s="394"/>
-      <c r="Y48" s="394"/>
-      <c r="Z48" s="395"/>
-      <c r="AA48" s="396"/>
-      <c r="AB48" s="397"/>
-      <c r="AC48" s="397"/>
-      <c r="AD48" s="398"/>
-      <c r="AE48" s="390"/>
-      <c r="AF48" s="391"/>
-      <c r="AG48" s="391"/>
-      <c r="AH48" s="391"/>
-      <c r="AI48" s="392"/>
-      <c r="AJ48" s="396"/>
-      <c r="AK48" s="397"/>
-      <c r="AL48" s="397"/>
-      <c r="AM48" s="398"/>
-      <c r="AN48" s="390"/>
-      <c r="AO48" s="391"/>
-      <c r="AP48" s="391"/>
-      <c r="AQ48" s="391"/>
-      <c r="AR48" s="392"/>
-      <c r="AS48" s="396"/>
-      <c r="AT48" s="397"/>
-      <c r="AU48" s="397"/>
-      <c r="AV48" s="398"/>
+      <c r="B48" s="449"/>
+      <c r="C48" s="450"/>
+      <c r="D48" s="451"/>
+      <c r="E48" s="452"/>
+      <c r="F48" s="452"/>
+      <c r="G48" s="452"/>
+      <c r="H48" s="453"/>
+      <c r="I48" s="454"/>
+      <c r="J48" s="455"/>
+      <c r="K48" s="455"/>
+      <c r="L48" s="455"/>
+      <c r="M48" s="455"/>
+      <c r="N48" s="455"/>
+      <c r="O48" s="455"/>
+      <c r="P48" s="455"/>
+      <c r="Q48" s="455"/>
+      <c r="R48" s="455"/>
+      <c r="S48" s="455"/>
+      <c r="T48" s="455"/>
+      <c r="U48" s="455"/>
+      <c r="V48" s="455"/>
+      <c r="W48" s="455"/>
+      <c r="X48" s="455"/>
+      <c r="Y48" s="455"/>
+      <c r="Z48" s="456"/>
+      <c r="AA48" s="457"/>
+      <c r="AB48" s="458"/>
+      <c r="AC48" s="458"/>
+      <c r="AD48" s="459"/>
+      <c r="AE48" s="451"/>
+      <c r="AF48" s="452"/>
+      <c r="AG48" s="452"/>
+      <c r="AH48" s="452"/>
+      <c r="AI48" s="453"/>
+      <c r="AJ48" s="457"/>
+      <c r="AK48" s="458"/>
+      <c r="AL48" s="458"/>
+      <c r="AM48" s="459"/>
+      <c r="AN48" s="451"/>
+      <c r="AO48" s="452"/>
+      <c r="AP48" s="452"/>
+      <c r="AQ48" s="452"/>
+      <c r="AR48" s="453"/>
+      <c r="AS48" s="457"/>
+      <c r="AT48" s="458"/>
+      <c r="AU48" s="458"/>
+      <c r="AV48" s="459"/>
       <c r="AW48" s="53"/>
     </row>
     <row r="49" spans="1:49">
       <c r="A49" s="54"/>
-      <c r="B49" s="388"/>
-      <c r="C49" s="389"/>
-      <c r="D49" s="390"/>
-      <c r="E49" s="391"/>
-      <c r="F49" s="391"/>
-      <c r="G49" s="391"/>
-      <c r="H49" s="392"/>
-      <c r="I49" s="393"/>
-      <c r="J49" s="394"/>
-      <c r="K49" s="394"/>
-      <c r="L49" s="394"/>
-      <c r="M49" s="394"/>
-      <c r="N49" s="394"/>
-      <c r="O49" s="394"/>
-      <c r="P49" s="394"/>
-      <c r="Q49" s="394"/>
-      <c r="R49" s="394"/>
-      <c r="S49" s="394"/>
-      <c r="T49" s="394"/>
-      <c r="U49" s="394"/>
-      <c r="V49" s="394"/>
-      <c r="W49" s="394"/>
-      <c r="X49" s="394"/>
-      <c r="Y49" s="394"/>
-      <c r="Z49" s="395"/>
-      <c r="AA49" s="396"/>
-      <c r="AB49" s="397"/>
-      <c r="AC49" s="397"/>
-      <c r="AD49" s="398"/>
-      <c r="AE49" s="390"/>
-      <c r="AF49" s="391"/>
-      <c r="AG49" s="391"/>
-      <c r="AH49" s="391"/>
-      <c r="AI49" s="392"/>
-      <c r="AJ49" s="396"/>
-      <c r="AK49" s="397"/>
-      <c r="AL49" s="397"/>
-      <c r="AM49" s="398"/>
-      <c r="AN49" s="390"/>
-      <c r="AO49" s="391"/>
-      <c r="AP49" s="391"/>
-      <c r="AQ49" s="391"/>
-      <c r="AR49" s="392"/>
-      <c r="AS49" s="396"/>
-      <c r="AT49" s="397"/>
-      <c r="AU49" s="397"/>
-      <c r="AV49" s="398"/>
+      <c r="B49" s="449"/>
+      <c r="C49" s="450"/>
+      <c r="D49" s="451"/>
+      <c r="E49" s="452"/>
+      <c r="F49" s="452"/>
+      <c r="G49" s="452"/>
+      <c r="H49" s="453"/>
+      <c r="I49" s="454"/>
+      <c r="J49" s="455"/>
+      <c r="K49" s="455"/>
+      <c r="L49" s="455"/>
+      <c r="M49" s="455"/>
+      <c r="N49" s="455"/>
+      <c r="O49" s="455"/>
+      <c r="P49" s="455"/>
+      <c r="Q49" s="455"/>
+      <c r="R49" s="455"/>
+      <c r="S49" s="455"/>
+      <c r="T49" s="455"/>
+      <c r="U49" s="455"/>
+      <c r="V49" s="455"/>
+      <c r="W49" s="455"/>
+      <c r="X49" s="455"/>
+      <c r="Y49" s="455"/>
+      <c r="Z49" s="456"/>
+      <c r="AA49" s="457"/>
+      <c r="AB49" s="458"/>
+      <c r="AC49" s="458"/>
+      <c r="AD49" s="459"/>
+      <c r="AE49" s="451"/>
+      <c r="AF49" s="452"/>
+      <c r="AG49" s="452"/>
+      <c r="AH49" s="452"/>
+      <c r="AI49" s="453"/>
+      <c r="AJ49" s="457"/>
+      <c r="AK49" s="458"/>
+      <c r="AL49" s="458"/>
+      <c r="AM49" s="459"/>
+      <c r="AN49" s="451"/>
+      <c r="AO49" s="452"/>
+      <c r="AP49" s="452"/>
+      <c r="AQ49" s="452"/>
+      <c r="AR49" s="453"/>
+      <c r="AS49" s="457"/>
+      <c r="AT49" s="458"/>
+      <c r="AU49" s="458"/>
+      <c r="AV49" s="459"/>
       <c r="AW49" s="53"/>
     </row>
     <row r="50" spans="1:49">
       <c r="A50" s="54"/>
-      <c r="B50" s="388"/>
-      <c r="C50" s="389"/>
-      <c r="D50" s="390"/>
-      <c r="E50" s="391"/>
-      <c r="F50" s="391"/>
-      <c r="G50" s="391"/>
-      <c r="H50" s="392"/>
-      <c r="I50" s="393"/>
-      <c r="J50" s="394"/>
-      <c r="K50" s="394"/>
-      <c r="L50" s="394"/>
-      <c r="M50" s="394"/>
-      <c r="N50" s="394"/>
-      <c r="O50" s="394"/>
-      <c r="P50" s="394"/>
-      <c r="Q50" s="394"/>
-      <c r="R50" s="394"/>
-      <c r="S50" s="394"/>
-      <c r="T50" s="394"/>
-      <c r="U50" s="394"/>
-      <c r="V50" s="394"/>
-      <c r="W50" s="394"/>
-      <c r="X50" s="394"/>
-      <c r="Y50" s="394"/>
-      <c r="Z50" s="395"/>
-      <c r="AA50" s="396"/>
-      <c r="AB50" s="397"/>
-      <c r="AC50" s="397"/>
-      <c r="AD50" s="398"/>
-      <c r="AE50" s="390"/>
-      <c r="AF50" s="391"/>
-      <c r="AG50" s="391"/>
-      <c r="AH50" s="391"/>
-      <c r="AI50" s="392"/>
-      <c r="AJ50" s="396"/>
-      <c r="AK50" s="397"/>
-      <c r="AL50" s="397"/>
-      <c r="AM50" s="398"/>
-      <c r="AN50" s="390"/>
-      <c r="AO50" s="391"/>
-      <c r="AP50" s="391"/>
-      <c r="AQ50" s="391"/>
-      <c r="AR50" s="392"/>
-      <c r="AS50" s="396"/>
-      <c r="AT50" s="397"/>
-      <c r="AU50" s="397"/>
-      <c r="AV50" s="398"/>
+      <c r="B50" s="449"/>
+      <c r="C50" s="450"/>
+      <c r="D50" s="451"/>
+      <c r="E50" s="452"/>
+      <c r="F50" s="452"/>
+      <c r="G50" s="452"/>
+      <c r="H50" s="453"/>
+      <c r="I50" s="454"/>
+      <c r="J50" s="455"/>
+      <c r="K50" s="455"/>
+      <c r="L50" s="455"/>
+      <c r="M50" s="455"/>
+      <c r="N50" s="455"/>
+      <c r="O50" s="455"/>
+      <c r="P50" s="455"/>
+      <c r="Q50" s="455"/>
+      <c r="R50" s="455"/>
+      <c r="S50" s="455"/>
+      <c r="T50" s="455"/>
+      <c r="U50" s="455"/>
+      <c r="V50" s="455"/>
+      <c r="W50" s="455"/>
+      <c r="X50" s="455"/>
+      <c r="Y50" s="455"/>
+      <c r="Z50" s="456"/>
+      <c r="AA50" s="457"/>
+      <c r="AB50" s="458"/>
+      <c r="AC50" s="458"/>
+      <c r="AD50" s="459"/>
+      <c r="AE50" s="451"/>
+      <c r="AF50" s="452"/>
+      <c r="AG50" s="452"/>
+      <c r="AH50" s="452"/>
+      <c r="AI50" s="453"/>
+      <c r="AJ50" s="457"/>
+      <c r="AK50" s="458"/>
+      <c r="AL50" s="458"/>
+      <c r="AM50" s="459"/>
+      <c r="AN50" s="451"/>
+      <c r="AO50" s="452"/>
+      <c r="AP50" s="452"/>
+      <c r="AQ50" s="452"/>
+      <c r="AR50" s="453"/>
+      <c r="AS50" s="457"/>
+      <c r="AT50" s="458"/>
+      <c r="AU50" s="458"/>
+      <c r="AV50" s="459"/>
       <c r="AW50" s="53"/>
     </row>
     <row r="51" spans="1:49">
       <c r="A51" s="51"/>
-      <c r="B51" s="388"/>
-      <c r="C51" s="389"/>
-      <c r="D51" s="390"/>
-      <c r="E51" s="391"/>
-      <c r="F51" s="391"/>
-      <c r="G51" s="391"/>
-      <c r="H51" s="392"/>
-      <c r="I51" s="393"/>
-      <c r="J51" s="394"/>
-      <c r="K51" s="394"/>
-      <c r="L51" s="394"/>
-      <c r="M51" s="394"/>
-      <c r="N51" s="394"/>
-      <c r="O51" s="394"/>
-      <c r="P51" s="394"/>
-      <c r="Q51" s="394"/>
-      <c r="R51" s="394"/>
-      <c r="S51" s="394"/>
-      <c r="T51" s="394"/>
-      <c r="U51" s="394"/>
-      <c r="V51" s="394"/>
-      <c r="W51" s="394"/>
-      <c r="X51" s="394"/>
-      <c r="Y51" s="394"/>
-      <c r="Z51" s="395"/>
-      <c r="AA51" s="396"/>
-      <c r="AB51" s="397"/>
-      <c r="AC51" s="397"/>
-      <c r="AD51" s="398"/>
-      <c r="AE51" s="390"/>
-      <c r="AF51" s="391"/>
-      <c r="AG51" s="391"/>
-      <c r="AH51" s="391"/>
-      <c r="AI51" s="392"/>
-      <c r="AJ51" s="396"/>
-      <c r="AK51" s="397"/>
-      <c r="AL51" s="397"/>
-      <c r="AM51" s="398"/>
-      <c r="AN51" s="390"/>
-      <c r="AO51" s="391"/>
-      <c r="AP51" s="391"/>
-      <c r="AQ51" s="391"/>
-      <c r="AR51" s="392"/>
-      <c r="AS51" s="396"/>
-      <c r="AT51" s="397"/>
-      <c r="AU51" s="397"/>
-      <c r="AV51" s="398"/>
+      <c r="B51" s="449"/>
+      <c r="C51" s="450"/>
+      <c r="D51" s="451"/>
+      <c r="E51" s="452"/>
+      <c r="F51" s="452"/>
+      <c r="G51" s="452"/>
+      <c r="H51" s="453"/>
+      <c r="I51" s="454"/>
+      <c r="J51" s="455"/>
+      <c r="K51" s="455"/>
+      <c r="L51" s="455"/>
+      <c r="M51" s="455"/>
+      <c r="N51" s="455"/>
+      <c r="O51" s="455"/>
+      <c r="P51" s="455"/>
+      <c r="Q51" s="455"/>
+      <c r="R51" s="455"/>
+      <c r="S51" s="455"/>
+      <c r="T51" s="455"/>
+      <c r="U51" s="455"/>
+      <c r="V51" s="455"/>
+      <c r="W51" s="455"/>
+      <c r="X51" s="455"/>
+      <c r="Y51" s="455"/>
+      <c r="Z51" s="456"/>
+      <c r="AA51" s="457"/>
+      <c r="AB51" s="458"/>
+      <c r="AC51" s="458"/>
+      <c r="AD51" s="459"/>
+      <c r="AE51" s="451"/>
+      <c r="AF51" s="452"/>
+      <c r="AG51" s="452"/>
+      <c r="AH51" s="452"/>
+      <c r="AI51" s="453"/>
+      <c r="AJ51" s="457"/>
+      <c r="AK51" s="458"/>
+      <c r="AL51" s="458"/>
+      <c r="AM51" s="459"/>
+      <c r="AN51" s="451"/>
+      <c r="AO51" s="452"/>
+      <c r="AP51" s="452"/>
+      <c r="AQ51" s="452"/>
+      <c r="AR51" s="453"/>
+      <c r="AS51" s="457"/>
+      <c r="AT51" s="458"/>
+      <c r="AU51" s="458"/>
+      <c r="AV51" s="459"/>
       <c r="AW51" s="53"/>
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="51"/>
-      <c r="B52" s="366"/>
-      <c r="C52" s="367"/>
-      <c r="D52" s="370"/>
-      <c r="E52" s="371"/>
-      <c r="F52" s="371"/>
-      <c r="G52" s="371"/>
-      <c r="H52" s="372"/>
-      <c r="I52" s="376"/>
-      <c r="J52" s="377"/>
-      <c r="K52" s="377"/>
-      <c r="L52" s="377"/>
-      <c r="M52" s="377"/>
-      <c r="N52" s="377"/>
-      <c r="O52" s="377"/>
-      <c r="P52" s="377"/>
-      <c r="Q52" s="377"/>
-      <c r="R52" s="377"/>
-      <c r="S52" s="377"/>
-      <c r="T52" s="377"/>
-      <c r="U52" s="377"/>
-      <c r="V52" s="377"/>
-      <c r="W52" s="377"/>
-      <c r="X52" s="377"/>
-      <c r="Y52" s="377"/>
-      <c r="Z52" s="378"/>
-      <c r="AA52" s="382"/>
-      <c r="AB52" s="383"/>
-      <c r="AC52" s="383"/>
-      <c r="AD52" s="384"/>
-      <c r="AE52" s="370"/>
-      <c r="AF52" s="371"/>
-      <c r="AG52" s="371"/>
-      <c r="AH52" s="371"/>
-      <c r="AI52" s="372"/>
-      <c r="AJ52" s="382"/>
-      <c r="AK52" s="383"/>
-      <c r="AL52" s="383"/>
-      <c r="AM52" s="384"/>
-      <c r="AN52" s="370"/>
-      <c r="AO52" s="371"/>
-      <c r="AP52" s="371"/>
-      <c r="AQ52" s="371"/>
-      <c r="AR52" s="372"/>
-      <c r="AS52" s="382"/>
-      <c r="AT52" s="383"/>
-      <c r="AU52" s="383"/>
-      <c r="AV52" s="384"/>
+      <c r="B52" s="438"/>
+      <c r="C52" s="439"/>
+      <c r="D52" s="440"/>
+      <c r="E52" s="441"/>
+      <c r="F52" s="441"/>
+      <c r="G52" s="441"/>
+      <c r="H52" s="442"/>
+      <c r="I52" s="443"/>
+      <c r="J52" s="444"/>
+      <c r="K52" s="444"/>
+      <c r="L52" s="444"/>
+      <c r="M52" s="444"/>
+      <c r="N52" s="444"/>
+      <c r="O52" s="444"/>
+      <c r="P52" s="444"/>
+      <c r="Q52" s="444"/>
+      <c r="R52" s="444"/>
+      <c r="S52" s="444"/>
+      <c r="T52" s="444"/>
+      <c r="U52" s="444"/>
+      <c r="V52" s="444"/>
+      <c r="W52" s="444"/>
+      <c r="X52" s="444"/>
+      <c r="Y52" s="444"/>
+      <c r="Z52" s="445"/>
+      <c r="AA52" s="446"/>
+      <c r="AB52" s="447"/>
+      <c r="AC52" s="447"/>
+      <c r="AD52" s="448"/>
+      <c r="AE52" s="440"/>
+      <c r="AF52" s="441"/>
+      <c r="AG52" s="441"/>
+      <c r="AH52" s="441"/>
+      <c r="AI52" s="442"/>
+      <c r="AJ52" s="446"/>
+      <c r="AK52" s="447"/>
+      <c r="AL52" s="447"/>
+      <c r="AM52" s="448"/>
+      <c r="AN52" s="440"/>
+      <c r="AO52" s="441"/>
+      <c r="AP52" s="441"/>
+      <c r="AQ52" s="441"/>
+      <c r="AR52" s="442"/>
+      <c r="AS52" s="446"/>
+      <c r="AT52" s="447"/>
+      <c r="AU52" s="447"/>
+      <c r="AV52" s="448"/>
       <c r="AW52" s="53"/>
     </row>
     <row r="53" spans="1:49">
       <c r="A53" s="51"/>
-      <c r="B53" s="366"/>
-      <c r="C53" s="367"/>
-      <c r="D53" s="370"/>
-      <c r="E53" s="371"/>
-      <c r="F53" s="371"/>
-      <c r="G53" s="371"/>
-      <c r="H53" s="372"/>
-      <c r="I53" s="376"/>
-      <c r="J53" s="377"/>
-      <c r="K53" s="377"/>
-      <c r="L53" s="377"/>
-      <c r="M53" s="377"/>
-      <c r="N53" s="377"/>
-      <c r="O53" s="377"/>
-      <c r="P53" s="377"/>
-      <c r="Q53" s="377"/>
-      <c r="R53" s="377"/>
-      <c r="S53" s="377"/>
-      <c r="T53" s="377"/>
-      <c r="U53" s="377"/>
-      <c r="V53" s="377"/>
-      <c r="W53" s="377"/>
-      <c r="X53" s="377"/>
-      <c r="Y53" s="377"/>
-      <c r="Z53" s="378"/>
-      <c r="AA53" s="382"/>
-      <c r="AB53" s="383"/>
-      <c r="AC53" s="383"/>
-      <c r="AD53" s="384"/>
-      <c r="AE53" s="370"/>
-      <c r="AF53" s="371"/>
-      <c r="AG53" s="371"/>
-      <c r="AH53" s="371"/>
-      <c r="AI53" s="372"/>
-      <c r="AJ53" s="382"/>
-      <c r="AK53" s="383"/>
-      <c r="AL53" s="383"/>
-      <c r="AM53" s="384"/>
-      <c r="AN53" s="370"/>
-      <c r="AO53" s="371"/>
-      <c r="AP53" s="371"/>
-      <c r="AQ53" s="371"/>
-      <c r="AR53" s="372"/>
-      <c r="AS53" s="382"/>
-      <c r="AT53" s="383"/>
-      <c r="AU53" s="383"/>
-      <c r="AV53" s="384"/>
+      <c r="B53" s="438"/>
+      <c r="C53" s="439"/>
+      <c r="D53" s="440"/>
+      <c r="E53" s="441"/>
+      <c r="F53" s="441"/>
+      <c r="G53" s="441"/>
+      <c r="H53" s="442"/>
+      <c r="I53" s="443"/>
+      <c r="J53" s="444"/>
+      <c r="K53" s="444"/>
+      <c r="L53" s="444"/>
+      <c r="M53" s="444"/>
+      <c r="N53" s="444"/>
+      <c r="O53" s="444"/>
+      <c r="P53" s="444"/>
+      <c r="Q53" s="444"/>
+      <c r="R53" s="444"/>
+      <c r="S53" s="444"/>
+      <c r="T53" s="444"/>
+      <c r="U53" s="444"/>
+      <c r="V53" s="444"/>
+      <c r="W53" s="444"/>
+      <c r="X53" s="444"/>
+      <c r="Y53" s="444"/>
+      <c r="Z53" s="445"/>
+      <c r="AA53" s="446"/>
+      <c r="AB53" s="447"/>
+      <c r="AC53" s="447"/>
+      <c r="AD53" s="448"/>
+      <c r="AE53" s="440"/>
+      <c r="AF53" s="441"/>
+      <c r="AG53" s="441"/>
+      <c r="AH53" s="441"/>
+      <c r="AI53" s="442"/>
+      <c r="AJ53" s="446"/>
+      <c r="AK53" s="447"/>
+      <c r="AL53" s="447"/>
+      <c r="AM53" s="448"/>
+      <c r="AN53" s="440"/>
+      <c r="AO53" s="441"/>
+      <c r="AP53" s="441"/>
+      <c r="AQ53" s="441"/>
+      <c r="AR53" s="442"/>
+      <c r="AS53" s="446"/>
+      <c r="AT53" s="447"/>
+      <c r="AU53" s="447"/>
+      <c r="AV53" s="448"/>
       <c r="AW53" s="53"/>
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="51"/>
-      <c r="B54" s="366"/>
-      <c r="C54" s="367"/>
-      <c r="D54" s="370"/>
-      <c r="E54" s="371"/>
-      <c r="F54" s="371"/>
-      <c r="G54" s="371"/>
-      <c r="H54" s="372"/>
-      <c r="I54" s="376"/>
-      <c r="J54" s="377"/>
-      <c r="K54" s="377"/>
-      <c r="L54" s="377"/>
-      <c r="M54" s="377"/>
-      <c r="N54" s="377"/>
-      <c r="O54" s="377"/>
-      <c r="P54" s="377"/>
-      <c r="Q54" s="377"/>
-      <c r="R54" s="377"/>
-      <c r="S54" s="377"/>
-      <c r="T54" s="377"/>
-      <c r="U54" s="377"/>
-      <c r="V54" s="377"/>
-      <c r="W54" s="377"/>
-      <c r="X54" s="377"/>
-      <c r="Y54" s="377"/>
-      <c r="Z54" s="378"/>
-      <c r="AA54" s="382"/>
-      <c r="AB54" s="383"/>
-      <c r="AC54" s="383"/>
-      <c r="AD54" s="384"/>
-      <c r="AE54" s="370"/>
-      <c r="AF54" s="371"/>
-      <c r="AG54" s="371"/>
-      <c r="AH54" s="371"/>
-      <c r="AI54" s="372"/>
-      <c r="AJ54" s="382"/>
-      <c r="AK54" s="383"/>
-      <c r="AL54" s="383"/>
-      <c r="AM54" s="384"/>
-      <c r="AN54" s="370"/>
-      <c r="AO54" s="371"/>
-      <c r="AP54" s="371"/>
-      <c r="AQ54" s="371"/>
-      <c r="AR54" s="372"/>
-      <c r="AS54" s="382"/>
-      <c r="AT54" s="383"/>
-      <c r="AU54" s="383"/>
-      <c r="AV54" s="384"/>
+      <c r="B54" s="438"/>
+      <c r="C54" s="439"/>
+      <c r="D54" s="440"/>
+      <c r="E54" s="441"/>
+      <c r="F54" s="441"/>
+      <c r="G54" s="441"/>
+      <c r="H54" s="442"/>
+      <c r="I54" s="443"/>
+      <c r="J54" s="444"/>
+      <c r="K54" s="444"/>
+      <c r="L54" s="444"/>
+      <c r="M54" s="444"/>
+      <c r="N54" s="444"/>
+      <c r="O54" s="444"/>
+      <c r="P54" s="444"/>
+      <c r="Q54" s="444"/>
+      <c r="R54" s="444"/>
+      <c r="S54" s="444"/>
+      <c r="T54" s="444"/>
+      <c r="U54" s="444"/>
+      <c r="V54" s="444"/>
+      <c r="W54" s="444"/>
+      <c r="X54" s="444"/>
+      <c r="Y54" s="444"/>
+      <c r="Z54" s="445"/>
+      <c r="AA54" s="446"/>
+      <c r="AB54" s="447"/>
+      <c r="AC54" s="447"/>
+      <c r="AD54" s="448"/>
+      <c r="AE54" s="440"/>
+      <c r="AF54" s="441"/>
+      <c r="AG54" s="441"/>
+      <c r="AH54" s="441"/>
+      <c r="AI54" s="442"/>
+      <c r="AJ54" s="446"/>
+      <c r="AK54" s="447"/>
+      <c r="AL54" s="447"/>
+      <c r="AM54" s="448"/>
+      <c r="AN54" s="440"/>
+      <c r="AO54" s="441"/>
+      <c r="AP54" s="441"/>
+      <c r="AQ54" s="441"/>
+      <c r="AR54" s="442"/>
+      <c r="AS54" s="446"/>
+      <c r="AT54" s="447"/>
+      <c r="AU54" s="447"/>
+      <c r="AV54" s="448"/>
       <c r="AW54" s="53"/>
     </row>
     <row r="55" spans="1:49">
       <c r="A55" s="51"/>
-      <c r="B55" s="366"/>
-      <c r="C55" s="367"/>
-      <c r="D55" s="370"/>
-      <c r="E55" s="371"/>
-      <c r="F55" s="371"/>
-      <c r="G55" s="371"/>
-      <c r="H55" s="372"/>
-      <c r="I55" s="376"/>
-      <c r="J55" s="377"/>
-      <c r="K55" s="377"/>
-      <c r="L55" s="377"/>
-      <c r="M55" s="377"/>
-      <c r="N55" s="377"/>
-      <c r="O55" s="377"/>
-      <c r="P55" s="377"/>
-      <c r="Q55" s="377"/>
-      <c r="R55" s="377"/>
-      <c r="S55" s="377"/>
-      <c r="T55" s="377"/>
-      <c r="U55" s="377"/>
-      <c r="V55" s="377"/>
-      <c r="W55" s="377"/>
-      <c r="X55" s="377"/>
-      <c r="Y55" s="377"/>
-      <c r="Z55" s="378"/>
-      <c r="AA55" s="382"/>
-      <c r="AB55" s="383"/>
-      <c r="AC55" s="383"/>
-      <c r="AD55" s="384"/>
-      <c r="AE55" s="370"/>
-      <c r="AF55" s="371"/>
-      <c r="AG55" s="371"/>
-      <c r="AH55" s="371"/>
-      <c r="AI55" s="372"/>
-      <c r="AJ55" s="382"/>
-      <c r="AK55" s="383"/>
-      <c r="AL55" s="383"/>
-      <c r="AM55" s="384"/>
-      <c r="AN55" s="370"/>
-      <c r="AO55" s="371"/>
-      <c r="AP55" s="371"/>
-      <c r="AQ55" s="371"/>
-      <c r="AR55" s="372"/>
-      <c r="AS55" s="382"/>
-      <c r="AT55" s="383"/>
-      <c r="AU55" s="383"/>
-      <c r="AV55" s="384"/>
+      <c r="B55" s="438"/>
+      <c r="C55" s="439"/>
+      <c r="D55" s="440"/>
+      <c r="E55" s="441"/>
+      <c r="F55" s="441"/>
+      <c r="G55" s="441"/>
+      <c r="H55" s="442"/>
+      <c r="I55" s="443"/>
+      <c r="J55" s="444"/>
+      <c r="K55" s="444"/>
+      <c r="L55" s="444"/>
+      <c r="M55" s="444"/>
+      <c r="N55" s="444"/>
+      <c r="O55" s="444"/>
+      <c r="P55" s="444"/>
+      <c r="Q55" s="444"/>
+      <c r="R55" s="444"/>
+      <c r="S55" s="444"/>
+      <c r="T55" s="444"/>
+      <c r="U55" s="444"/>
+      <c r="V55" s="444"/>
+      <c r="W55" s="444"/>
+      <c r="X55" s="444"/>
+      <c r="Y55" s="444"/>
+      <c r="Z55" s="445"/>
+      <c r="AA55" s="446"/>
+      <c r="AB55" s="447"/>
+      <c r="AC55" s="447"/>
+      <c r="AD55" s="448"/>
+      <c r="AE55" s="440"/>
+      <c r="AF55" s="441"/>
+      <c r="AG55" s="441"/>
+      <c r="AH55" s="441"/>
+      <c r="AI55" s="442"/>
+      <c r="AJ55" s="446"/>
+      <c r="AK55" s="447"/>
+      <c r="AL55" s="447"/>
+      <c r="AM55" s="448"/>
+      <c r="AN55" s="440"/>
+      <c r="AO55" s="441"/>
+      <c r="AP55" s="441"/>
+      <c r="AQ55" s="441"/>
+      <c r="AR55" s="442"/>
+      <c r="AS55" s="446"/>
+      <c r="AT55" s="447"/>
+      <c r="AU55" s="447"/>
+      <c r="AV55" s="448"/>
       <c r="AW55" s="53"/>
     </row>
     <row r="56" spans="1:49">
       <c r="A56" s="51"/>
-      <c r="B56" s="366"/>
-      <c r="C56" s="367"/>
-      <c r="D56" s="370"/>
-      <c r="E56" s="371"/>
-      <c r="F56" s="371"/>
-      <c r="G56" s="371"/>
-      <c r="H56" s="372"/>
-      <c r="I56" s="376"/>
-      <c r="J56" s="377"/>
-      <c r="K56" s="377"/>
-      <c r="L56" s="377"/>
-      <c r="M56" s="377"/>
-      <c r="N56" s="377"/>
-      <c r="O56" s="377"/>
-      <c r="P56" s="377"/>
-      <c r="Q56" s="377"/>
-      <c r="R56" s="377"/>
-      <c r="S56" s="377"/>
-      <c r="T56" s="377"/>
-      <c r="U56" s="377"/>
-      <c r="V56" s="377"/>
-      <c r="W56" s="377"/>
-      <c r="X56" s="377"/>
-      <c r="Y56" s="377"/>
-      <c r="Z56" s="378"/>
-      <c r="AA56" s="382"/>
-      <c r="AB56" s="383"/>
-      <c r="AC56" s="383"/>
-      <c r="AD56" s="384"/>
-      <c r="AE56" s="370"/>
-      <c r="AF56" s="371"/>
-      <c r="AG56" s="371"/>
-      <c r="AH56" s="371"/>
-      <c r="AI56" s="372"/>
-      <c r="AJ56" s="382"/>
-      <c r="AK56" s="383"/>
-      <c r="AL56" s="383"/>
-      <c r="AM56" s="384"/>
-      <c r="AN56" s="370"/>
-      <c r="AO56" s="371"/>
-      <c r="AP56" s="371"/>
-      <c r="AQ56" s="371"/>
-      <c r="AR56" s="372"/>
-      <c r="AS56" s="382"/>
-      <c r="AT56" s="383"/>
-      <c r="AU56" s="383"/>
-      <c r="AV56" s="384"/>
+      <c r="B56" s="438"/>
+      <c r="C56" s="439"/>
+      <c r="D56" s="440"/>
+      <c r="E56" s="441"/>
+      <c r="F56" s="441"/>
+      <c r="G56" s="441"/>
+      <c r="H56" s="442"/>
+      <c r="I56" s="443"/>
+      <c r="J56" s="444"/>
+      <c r="K56" s="444"/>
+      <c r="L56" s="444"/>
+      <c r="M56" s="444"/>
+      <c r="N56" s="444"/>
+      <c r="O56" s="444"/>
+      <c r="P56" s="444"/>
+      <c r="Q56" s="444"/>
+      <c r="R56" s="444"/>
+      <c r="S56" s="444"/>
+      <c r="T56" s="444"/>
+      <c r="U56" s="444"/>
+      <c r="V56" s="444"/>
+      <c r="W56" s="444"/>
+      <c r="X56" s="444"/>
+      <c r="Y56" s="444"/>
+      <c r="Z56" s="445"/>
+      <c r="AA56" s="446"/>
+      <c r="AB56" s="447"/>
+      <c r="AC56" s="447"/>
+      <c r="AD56" s="448"/>
+      <c r="AE56" s="440"/>
+      <c r="AF56" s="441"/>
+      <c r="AG56" s="441"/>
+      <c r="AH56" s="441"/>
+      <c r="AI56" s="442"/>
+      <c r="AJ56" s="446"/>
+      <c r="AK56" s="447"/>
+      <c r="AL56" s="447"/>
+      <c r="AM56" s="448"/>
+      <c r="AN56" s="440"/>
+      <c r="AO56" s="441"/>
+      <c r="AP56" s="441"/>
+      <c r="AQ56" s="441"/>
+      <c r="AR56" s="442"/>
+      <c r="AS56" s="446"/>
+      <c r="AT56" s="447"/>
+      <c r="AU56" s="447"/>
+      <c r="AV56" s="448"/>
       <c r="AW56" s="53"/>
     </row>
     <row r="57" spans="1:49">
       <c r="A57" s="51"/>
-      <c r="B57" s="366"/>
-      <c r="C57" s="367"/>
-      <c r="D57" s="370"/>
-      <c r="E57" s="371"/>
-      <c r="F57" s="371"/>
-      <c r="G57" s="371"/>
-      <c r="H57" s="372"/>
-      <c r="I57" s="376"/>
-      <c r="J57" s="377"/>
-      <c r="K57" s="377"/>
-      <c r="L57" s="377"/>
-      <c r="M57" s="377"/>
-      <c r="N57" s="377"/>
-      <c r="O57" s="377"/>
-      <c r="P57" s="377"/>
-      <c r="Q57" s="377"/>
-      <c r="R57" s="377"/>
-      <c r="S57" s="377"/>
-      <c r="T57" s="377"/>
-      <c r="U57" s="377"/>
-      <c r="V57" s="377"/>
-      <c r="W57" s="377"/>
-      <c r="X57" s="377"/>
-      <c r="Y57" s="377"/>
-      <c r="Z57" s="378"/>
-      <c r="AA57" s="382"/>
-      <c r="AB57" s="383"/>
-      <c r="AC57" s="383"/>
-      <c r="AD57" s="384"/>
-      <c r="AE57" s="370"/>
-      <c r="AF57" s="371"/>
-      <c r="AG57" s="371"/>
-      <c r="AH57" s="371"/>
-      <c r="AI57" s="372"/>
-      <c r="AJ57" s="382"/>
-      <c r="AK57" s="383"/>
-      <c r="AL57" s="383"/>
-      <c r="AM57" s="384"/>
-      <c r="AN57" s="370"/>
-      <c r="AO57" s="371"/>
-      <c r="AP57" s="371"/>
-      <c r="AQ57" s="371"/>
-      <c r="AR57" s="372"/>
-      <c r="AS57" s="382"/>
-      <c r="AT57" s="383"/>
-      <c r="AU57" s="383"/>
-      <c r="AV57" s="384"/>
+      <c r="B57" s="438"/>
+      <c r="C57" s="439"/>
+      <c r="D57" s="440"/>
+      <c r="E57" s="441"/>
+      <c r="F57" s="441"/>
+      <c r="G57" s="441"/>
+      <c r="H57" s="442"/>
+      <c r="I57" s="443"/>
+      <c r="J57" s="444"/>
+      <c r="K57" s="444"/>
+      <c r="L57" s="444"/>
+      <c r="M57" s="444"/>
+      <c r="N57" s="444"/>
+      <c r="O57" s="444"/>
+      <c r="P57" s="444"/>
+      <c r="Q57" s="444"/>
+      <c r="R57" s="444"/>
+      <c r="S57" s="444"/>
+      <c r="T57" s="444"/>
+      <c r="U57" s="444"/>
+      <c r="V57" s="444"/>
+      <c r="W57" s="444"/>
+      <c r="X57" s="444"/>
+      <c r="Y57" s="444"/>
+      <c r="Z57" s="445"/>
+      <c r="AA57" s="446"/>
+      <c r="AB57" s="447"/>
+      <c r="AC57" s="447"/>
+      <c r="AD57" s="448"/>
+      <c r="AE57" s="440"/>
+      <c r="AF57" s="441"/>
+      <c r="AG57" s="441"/>
+      <c r="AH57" s="441"/>
+      <c r="AI57" s="442"/>
+      <c r="AJ57" s="446"/>
+      <c r="AK57" s="447"/>
+      <c r="AL57" s="447"/>
+      <c r="AM57" s="448"/>
+      <c r="AN57" s="440"/>
+      <c r="AO57" s="441"/>
+      <c r="AP57" s="441"/>
+      <c r="AQ57" s="441"/>
+      <c r="AR57" s="442"/>
+      <c r="AS57" s="446"/>
+      <c r="AT57" s="447"/>
+      <c r="AU57" s="447"/>
+      <c r="AV57" s="448"/>
       <c r="AW57" s="53"/>
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="51"/>
-      <c r="B58" s="366"/>
-      <c r="C58" s="367"/>
-      <c r="D58" s="370"/>
-      <c r="E58" s="371"/>
-      <c r="F58" s="371"/>
-      <c r="G58" s="371"/>
-      <c r="H58" s="372"/>
-      <c r="I58" s="376"/>
-      <c r="J58" s="377"/>
-      <c r="K58" s="377"/>
-      <c r="L58" s="377"/>
-      <c r="M58" s="377"/>
-      <c r="N58" s="377"/>
-      <c r="O58" s="377"/>
-      <c r="P58" s="377"/>
-      <c r="Q58" s="377"/>
-      <c r="R58" s="377"/>
-      <c r="S58" s="377"/>
-      <c r="T58" s="377"/>
-      <c r="U58" s="377"/>
-      <c r="V58" s="377"/>
-      <c r="W58" s="377"/>
-      <c r="X58" s="377"/>
-      <c r="Y58" s="377"/>
-      <c r="Z58" s="378"/>
-      <c r="AA58" s="382"/>
-      <c r="AB58" s="383"/>
-      <c r="AC58" s="383"/>
-      <c r="AD58" s="384"/>
-      <c r="AE58" s="370"/>
-      <c r="AF58" s="371"/>
-      <c r="AG58" s="371"/>
-      <c r="AH58" s="371"/>
-      <c r="AI58" s="372"/>
-      <c r="AJ58" s="382"/>
-      <c r="AK58" s="383"/>
-      <c r="AL58" s="383"/>
-      <c r="AM58" s="384"/>
-      <c r="AN58" s="370"/>
-      <c r="AO58" s="371"/>
-      <c r="AP58" s="371"/>
-      <c r="AQ58" s="371"/>
-      <c r="AR58" s="372"/>
-      <c r="AS58" s="382"/>
-      <c r="AT58" s="383"/>
-      <c r="AU58" s="383"/>
-      <c r="AV58" s="384"/>
+      <c r="B58" s="438"/>
+      <c r="C58" s="439"/>
+      <c r="D58" s="440"/>
+      <c r="E58" s="441"/>
+      <c r="F58" s="441"/>
+      <c r="G58" s="441"/>
+      <c r="H58" s="442"/>
+      <c r="I58" s="443"/>
+      <c r="J58" s="444"/>
+      <c r="K58" s="444"/>
+      <c r="L58" s="444"/>
+      <c r="M58" s="444"/>
+      <c r="N58" s="444"/>
+      <c r="O58" s="444"/>
+      <c r="P58" s="444"/>
+      <c r="Q58" s="444"/>
+      <c r="R58" s="444"/>
+      <c r="S58" s="444"/>
+      <c r="T58" s="444"/>
+      <c r="U58" s="444"/>
+      <c r="V58" s="444"/>
+      <c r="W58" s="444"/>
+      <c r="X58" s="444"/>
+      <c r="Y58" s="444"/>
+      <c r="Z58" s="445"/>
+      <c r="AA58" s="446"/>
+      <c r="AB58" s="447"/>
+      <c r="AC58" s="447"/>
+      <c r="AD58" s="448"/>
+      <c r="AE58" s="440"/>
+      <c r="AF58" s="441"/>
+      <c r="AG58" s="441"/>
+      <c r="AH58" s="441"/>
+      <c r="AI58" s="442"/>
+      <c r="AJ58" s="446"/>
+      <c r="AK58" s="447"/>
+      <c r="AL58" s="447"/>
+      <c r="AM58" s="448"/>
+      <c r="AN58" s="440"/>
+      <c r="AO58" s="441"/>
+      <c r="AP58" s="441"/>
+      <c r="AQ58" s="441"/>
+      <c r="AR58" s="442"/>
+      <c r="AS58" s="446"/>
+      <c r="AT58" s="447"/>
+      <c r="AU58" s="447"/>
+      <c r="AV58" s="448"/>
       <c r="AW58" s="53"/>
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="51"/>
-      <c r="B59" s="366"/>
-      <c r="C59" s="367"/>
-      <c r="D59" s="370"/>
-      <c r="E59" s="371"/>
-      <c r="F59" s="371"/>
-      <c r="G59" s="371"/>
-      <c r="H59" s="372"/>
-      <c r="I59" s="376"/>
-      <c r="J59" s="377"/>
-      <c r="K59" s="377"/>
-      <c r="L59" s="377"/>
-      <c r="M59" s="377"/>
-      <c r="N59" s="377"/>
-      <c r="O59" s="377"/>
-      <c r="P59" s="377"/>
-      <c r="Q59" s="377"/>
-      <c r="R59" s="377"/>
-      <c r="S59" s="377"/>
-      <c r="T59" s="377"/>
-      <c r="U59" s="377"/>
-      <c r="V59" s="377"/>
-      <c r="W59" s="377"/>
-      <c r="X59" s="377"/>
-      <c r="Y59" s="377"/>
-      <c r="Z59" s="378"/>
-      <c r="AA59" s="382"/>
-      <c r="AB59" s="383"/>
-      <c r="AC59" s="383"/>
-      <c r="AD59" s="384"/>
-      <c r="AE59" s="370"/>
-      <c r="AF59" s="371"/>
-      <c r="AG59" s="371"/>
-      <c r="AH59" s="371"/>
-      <c r="AI59" s="372"/>
-      <c r="AJ59" s="382"/>
-      <c r="AK59" s="383"/>
-      <c r="AL59" s="383"/>
-      <c r="AM59" s="384"/>
-      <c r="AN59" s="370"/>
-      <c r="AO59" s="371"/>
-      <c r="AP59" s="371"/>
-      <c r="AQ59" s="371"/>
-      <c r="AR59" s="372"/>
-      <c r="AS59" s="382"/>
-      <c r="AT59" s="383"/>
-      <c r="AU59" s="383"/>
-      <c r="AV59" s="384"/>
+      <c r="B59" s="438"/>
+      <c r="C59" s="439"/>
+      <c r="D59" s="440"/>
+      <c r="E59" s="441"/>
+      <c r="F59" s="441"/>
+      <c r="G59" s="441"/>
+      <c r="H59" s="442"/>
+      <c r="I59" s="443"/>
+      <c r="J59" s="444"/>
+      <c r="K59" s="444"/>
+      <c r="L59" s="444"/>
+      <c r="M59" s="444"/>
+      <c r="N59" s="444"/>
+      <c r="O59" s="444"/>
+      <c r="P59" s="444"/>
+      <c r="Q59" s="444"/>
+      <c r="R59" s="444"/>
+      <c r="S59" s="444"/>
+      <c r="T59" s="444"/>
+      <c r="U59" s="444"/>
+      <c r="V59" s="444"/>
+      <c r="W59" s="444"/>
+      <c r="X59" s="444"/>
+      <c r="Y59" s="444"/>
+      <c r="Z59" s="445"/>
+      <c r="AA59" s="446"/>
+      <c r="AB59" s="447"/>
+      <c r="AC59" s="447"/>
+      <c r="AD59" s="448"/>
+      <c r="AE59" s="440"/>
+      <c r="AF59" s="441"/>
+      <c r="AG59" s="441"/>
+      <c r="AH59" s="441"/>
+      <c r="AI59" s="442"/>
+      <c r="AJ59" s="446"/>
+      <c r="AK59" s="447"/>
+      <c r="AL59" s="447"/>
+      <c r="AM59" s="448"/>
+      <c r="AN59" s="440"/>
+      <c r="AO59" s="441"/>
+      <c r="AP59" s="441"/>
+      <c r="AQ59" s="441"/>
+      <c r="AR59" s="442"/>
+      <c r="AS59" s="446"/>
+      <c r="AT59" s="447"/>
+      <c r="AU59" s="447"/>
+      <c r="AV59" s="448"/>
       <c r="AW59" s="53"/>
     </row>
     <row r="60" spans="1:49">
       <c r="A60" s="51"/>
-      <c r="B60" s="366"/>
-      <c r="C60" s="367"/>
-      <c r="D60" s="370"/>
-      <c r="E60" s="371"/>
-      <c r="F60" s="371"/>
-      <c r="G60" s="371"/>
-      <c r="H60" s="372"/>
-      <c r="I60" s="376"/>
-      <c r="J60" s="377"/>
-      <c r="K60" s="377"/>
-      <c r="L60" s="377"/>
-      <c r="M60" s="377"/>
-      <c r="N60" s="377"/>
-      <c r="O60" s="377"/>
-      <c r="P60" s="377"/>
-      <c r="Q60" s="377"/>
-      <c r="R60" s="377"/>
-      <c r="S60" s="377"/>
-      <c r="T60" s="377"/>
-      <c r="U60" s="377"/>
-      <c r="V60" s="377"/>
-      <c r="W60" s="377"/>
-      <c r="X60" s="377"/>
-      <c r="Y60" s="377"/>
-      <c r="Z60" s="378"/>
-      <c r="AA60" s="382"/>
-      <c r="AB60" s="383"/>
-      <c r="AC60" s="383"/>
-      <c r="AD60" s="384"/>
-      <c r="AE60" s="370"/>
-      <c r="AF60" s="371"/>
-      <c r="AG60" s="371"/>
-      <c r="AH60" s="371"/>
-      <c r="AI60" s="372"/>
-      <c r="AJ60" s="382"/>
-      <c r="AK60" s="383"/>
-      <c r="AL60" s="383"/>
-      <c r="AM60" s="384"/>
-      <c r="AN60" s="370"/>
-      <c r="AO60" s="371"/>
-      <c r="AP60" s="371"/>
-      <c r="AQ60" s="371"/>
-      <c r="AR60" s="372"/>
-      <c r="AS60" s="382"/>
-      <c r="AT60" s="383"/>
-      <c r="AU60" s="383"/>
-      <c r="AV60" s="384"/>
+      <c r="B60" s="438"/>
+      <c r="C60" s="439"/>
+      <c r="D60" s="440"/>
+      <c r="E60" s="441"/>
+      <c r="F60" s="441"/>
+      <c r="G60" s="441"/>
+      <c r="H60" s="442"/>
+      <c r="I60" s="443"/>
+      <c r="J60" s="444"/>
+      <c r="K60" s="444"/>
+      <c r="L60" s="444"/>
+      <c r="M60" s="444"/>
+      <c r="N60" s="444"/>
+      <c r="O60" s="444"/>
+      <c r="P60" s="444"/>
+      <c r="Q60" s="444"/>
+      <c r="R60" s="444"/>
+      <c r="S60" s="444"/>
+      <c r="T60" s="444"/>
+      <c r="U60" s="444"/>
+      <c r="V60" s="444"/>
+      <c r="W60" s="444"/>
+      <c r="X60" s="444"/>
+      <c r="Y60" s="444"/>
+      <c r="Z60" s="445"/>
+      <c r="AA60" s="446"/>
+      <c r="AB60" s="447"/>
+      <c r="AC60" s="447"/>
+      <c r="AD60" s="448"/>
+      <c r="AE60" s="440"/>
+      <c r="AF60" s="441"/>
+      <c r="AG60" s="441"/>
+      <c r="AH60" s="441"/>
+      <c r="AI60" s="442"/>
+      <c r="AJ60" s="446"/>
+      <c r="AK60" s="447"/>
+      <c r="AL60" s="447"/>
+      <c r="AM60" s="448"/>
+      <c r="AN60" s="440"/>
+      <c r="AO60" s="441"/>
+      <c r="AP60" s="441"/>
+      <c r="AQ60" s="441"/>
+      <c r="AR60" s="442"/>
+      <c r="AS60" s="446"/>
+      <c r="AT60" s="447"/>
+      <c r="AU60" s="447"/>
+      <c r="AV60" s="448"/>
       <c r="AW60" s="53"/>
     </row>
     <row r="61" spans="1:49">
       <c r="A61" s="51"/>
-      <c r="B61" s="366"/>
-      <c r="C61" s="367"/>
-      <c r="D61" s="370"/>
-      <c r="E61" s="371"/>
-      <c r="F61" s="371"/>
-      <c r="G61" s="371"/>
-      <c r="H61" s="372"/>
-      <c r="I61" s="376"/>
-      <c r="J61" s="377"/>
-      <c r="K61" s="377"/>
-      <c r="L61" s="377"/>
-      <c r="M61" s="377"/>
-      <c r="N61" s="377"/>
-      <c r="O61" s="377"/>
-      <c r="P61" s="377"/>
-      <c r="Q61" s="377"/>
-      <c r="R61" s="377"/>
-      <c r="S61" s="377"/>
-      <c r="T61" s="377"/>
-      <c r="U61" s="377"/>
-      <c r="V61" s="377"/>
-      <c r="W61" s="377"/>
-      <c r="X61" s="377"/>
-      <c r="Y61" s="377"/>
-      <c r="Z61" s="378"/>
-      <c r="AA61" s="382"/>
-      <c r="AB61" s="383"/>
-      <c r="AC61" s="383"/>
-      <c r="AD61" s="384"/>
-      <c r="AE61" s="370"/>
-      <c r="AF61" s="371"/>
-      <c r="AG61" s="371"/>
-      <c r="AH61" s="371"/>
-      <c r="AI61" s="372"/>
-      <c r="AJ61" s="382"/>
-      <c r="AK61" s="383"/>
-      <c r="AL61" s="383"/>
-      <c r="AM61" s="384"/>
-      <c r="AN61" s="370"/>
-      <c r="AO61" s="371"/>
-      <c r="AP61" s="371"/>
-      <c r="AQ61" s="371"/>
-      <c r="AR61" s="372"/>
-      <c r="AS61" s="382"/>
-      <c r="AT61" s="383"/>
-      <c r="AU61" s="383"/>
-      <c r="AV61" s="384"/>
+      <c r="B61" s="438"/>
+      <c r="C61" s="439"/>
+      <c r="D61" s="440"/>
+      <c r="E61" s="441"/>
+      <c r="F61" s="441"/>
+      <c r="G61" s="441"/>
+      <c r="H61" s="442"/>
+      <c r="I61" s="443"/>
+      <c r="J61" s="444"/>
+      <c r="K61" s="444"/>
+      <c r="L61" s="444"/>
+      <c r="M61" s="444"/>
+      <c r="N61" s="444"/>
+      <c r="O61" s="444"/>
+      <c r="P61" s="444"/>
+      <c r="Q61" s="444"/>
+      <c r="R61" s="444"/>
+      <c r="S61" s="444"/>
+      <c r="T61" s="444"/>
+      <c r="U61" s="444"/>
+      <c r="V61" s="444"/>
+      <c r="W61" s="444"/>
+      <c r="X61" s="444"/>
+      <c r="Y61" s="444"/>
+      <c r="Z61" s="445"/>
+      <c r="AA61" s="446"/>
+      <c r="AB61" s="447"/>
+      <c r="AC61" s="447"/>
+      <c r="AD61" s="448"/>
+      <c r="AE61" s="440"/>
+      <c r="AF61" s="441"/>
+      <c r="AG61" s="441"/>
+      <c r="AH61" s="441"/>
+      <c r="AI61" s="442"/>
+      <c r="AJ61" s="446"/>
+      <c r="AK61" s="447"/>
+      <c r="AL61" s="447"/>
+      <c r="AM61" s="448"/>
+      <c r="AN61" s="440"/>
+      <c r="AO61" s="441"/>
+      <c r="AP61" s="441"/>
+      <c r="AQ61" s="441"/>
+      <c r="AR61" s="442"/>
+      <c r="AS61" s="446"/>
+      <c r="AT61" s="447"/>
+      <c r="AU61" s="447"/>
+      <c r="AV61" s="448"/>
       <c r="AW61" s="53"/>
     </row>
     <row r="62" spans="1:49">
       <c r="A62" s="51"/>
-      <c r="B62" s="366"/>
-      <c r="C62" s="367"/>
-      <c r="D62" s="370"/>
-      <c r="E62" s="371"/>
-      <c r="F62" s="371"/>
-      <c r="G62" s="371"/>
-      <c r="H62" s="372"/>
-      <c r="I62" s="376"/>
-      <c r="J62" s="377"/>
-      <c r="K62" s="377"/>
-      <c r="L62" s="377"/>
-      <c r="M62" s="377"/>
-      <c r="N62" s="377"/>
-      <c r="O62" s="377"/>
-      <c r="P62" s="377"/>
-      <c r="Q62" s="377"/>
-      <c r="R62" s="377"/>
-      <c r="S62" s="377"/>
-      <c r="T62" s="377"/>
-      <c r="U62" s="377"/>
-      <c r="V62" s="377"/>
-      <c r="W62" s="377"/>
-      <c r="X62" s="377"/>
-      <c r="Y62" s="377"/>
-      <c r="Z62" s="378"/>
-      <c r="AA62" s="382"/>
-      <c r="AB62" s="383"/>
-      <c r="AC62" s="383"/>
-      <c r="AD62" s="384"/>
-      <c r="AE62" s="370"/>
-      <c r="AF62" s="371"/>
-      <c r="AG62" s="371"/>
-      <c r="AH62" s="371"/>
-      <c r="AI62" s="372"/>
-      <c r="AJ62" s="382"/>
-      <c r="AK62" s="383"/>
-      <c r="AL62" s="383"/>
-      <c r="AM62" s="384"/>
-      <c r="AN62" s="370"/>
-      <c r="AO62" s="371"/>
-      <c r="AP62" s="371"/>
-      <c r="AQ62" s="371"/>
-      <c r="AR62" s="372"/>
-      <c r="AS62" s="382"/>
-      <c r="AT62" s="383"/>
-      <c r="AU62" s="383"/>
-      <c r="AV62" s="384"/>
+      <c r="B62" s="438"/>
+      <c r="C62" s="439"/>
+      <c r="D62" s="440"/>
+      <c r="E62" s="441"/>
+      <c r="F62" s="441"/>
+      <c r="G62" s="441"/>
+      <c r="H62" s="442"/>
+      <c r="I62" s="443"/>
+      <c r="J62" s="444"/>
+      <c r="K62" s="444"/>
+      <c r="L62" s="444"/>
+      <c r="M62" s="444"/>
+      <c r="N62" s="444"/>
+      <c r="O62" s="444"/>
+      <c r="P62" s="444"/>
+      <c r="Q62" s="444"/>
+      <c r="R62" s="444"/>
+      <c r="S62" s="444"/>
+      <c r="T62" s="444"/>
+      <c r="U62" s="444"/>
+      <c r="V62" s="444"/>
+      <c r="W62" s="444"/>
+      <c r="X62" s="444"/>
+      <c r="Y62" s="444"/>
+      <c r="Z62" s="445"/>
+      <c r="AA62" s="446"/>
+      <c r="AB62" s="447"/>
+      <c r="AC62" s="447"/>
+      <c r="AD62" s="448"/>
+      <c r="AE62" s="440"/>
+      <c r="AF62" s="441"/>
+      <c r="AG62" s="441"/>
+      <c r="AH62" s="441"/>
+      <c r="AI62" s="442"/>
+      <c r="AJ62" s="446"/>
+      <c r="AK62" s="447"/>
+      <c r="AL62" s="447"/>
+      <c r="AM62" s="448"/>
+      <c r="AN62" s="440"/>
+      <c r="AO62" s="441"/>
+      <c r="AP62" s="441"/>
+      <c r="AQ62" s="441"/>
+      <c r="AR62" s="442"/>
+      <c r="AS62" s="446"/>
+      <c r="AT62" s="447"/>
+      <c r="AU62" s="447"/>
+      <c r="AV62" s="448"/>
       <c r="AW62" s="53"/>
     </row>
     <row r="63" spans="1:49">
       <c r="A63" s="51"/>
-      <c r="B63" s="366"/>
-      <c r="C63" s="367"/>
-      <c r="D63" s="370"/>
-      <c r="E63" s="371"/>
-      <c r="F63" s="371"/>
-      <c r="G63" s="371"/>
-      <c r="H63" s="372"/>
-      <c r="I63" s="376"/>
-      <c r="J63" s="377"/>
-      <c r="K63" s="377"/>
-      <c r="L63" s="377"/>
-      <c r="M63" s="377"/>
-      <c r="N63" s="377"/>
-      <c r="O63" s="377"/>
-      <c r="P63" s="377"/>
-      <c r="Q63" s="377"/>
-      <c r="R63" s="377"/>
-      <c r="S63" s="377"/>
-      <c r="T63" s="377"/>
-      <c r="U63" s="377"/>
-      <c r="V63" s="377"/>
-      <c r="W63" s="377"/>
-      <c r="X63" s="377"/>
-      <c r="Y63" s="377"/>
-      <c r="Z63" s="378"/>
-      <c r="AA63" s="382"/>
-      <c r="AB63" s="383"/>
-      <c r="AC63" s="383"/>
-      <c r="AD63" s="384"/>
-      <c r="AE63" s="370"/>
-      <c r="AF63" s="371"/>
-      <c r="AG63" s="371"/>
-      <c r="AH63" s="371"/>
-      <c r="AI63" s="372"/>
-      <c r="AJ63" s="382"/>
-      <c r="AK63" s="383"/>
-      <c r="AL63" s="383"/>
-      <c r="AM63" s="384"/>
-      <c r="AN63" s="370"/>
-      <c r="AO63" s="371"/>
-      <c r="AP63" s="371"/>
-      <c r="AQ63" s="371"/>
-      <c r="AR63" s="372"/>
-      <c r="AS63" s="382"/>
-      <c r="AT63" s="383"/>
-      <c r="AU63" s="383"/>
-      <c r="AV63" s="384"/>
+      <c r="B63" s="438"/>
+      <c r="C63" s="439"/>
+      <c r="D63" s="440"/>
+      <c r="E63" s="441"/>
+      <c r="F63" s="441"/>
+      <c r="G63" s="441"/>
+      <c r="H63" s="442"/>
+      <c r="I63" s="443"/>
+      <c r="J63" s="444"/>
+      <c r="K63" s="444"/>
+      <c r="L63" s="444"/>
+      <c r="M63" s="444"/>
+      <c r="N63" s="444"/>
+      <c r="O63" s="444"/>
+      <c r="P63" s="444"/>
+      <c r="Q63" s="444"/>
+      <c r="R63" s="444"/>
+      <c r="S63" s="444"/>
+      <c r="T63" s="444"/>
+      <c r="U63" s="444"/>
+      <c r="V63" s="444"/>
+      <c r="W63" s="444"/>
+      <c r="X63" s="444"/>
+      <c r="Y63" s="444"/>
+      <c r="Z63" s="445"/>
+      <c r="AA63" s="446"/>
+      <c r="AB63" s="447"/>
+      <c r="AC63" s="447"/>
+      <c r="AD63" s="448"/>
+      <c r="AE63" s="440"/>
+      <c r="AF63" s="441"/>
+      <c r="AG63" s="441"/>
+      <c r="AH63" s="441"/>
+      <c r="AI63" s="442"/>
+      <c r="AJ63" s="446"/>
+      <c r="AK63" s="447"/>
+      <c r="AL63" s="447"/>
+      <c r="AM63" s="448"/>
+      <c r="AN63" s="440"/>
+      <c r="AO63" s="441"/>
+      <c r="AP63" s="441"/>
+      <c r="AQ63" s="441"/>
+      <c r="AR63" s="442"/>
+      <c r="AS63" s="446"/>
+      <c r="AT63" s="447"/>
+      <c r="AU63" s="447"/>
+      <c r="AV63" s="448"/>
       <c r="AW63" s="53"/>
     </row>
     <row r="64" spans="1:49">
       <c r="A64" s="51"/>
-      <c r="B64" s="366"/>
-      <c r="C64" s="367"/>
-      <c r="D64" s="370"/>
-      <c r="E64" s="371"/>
-      <c r="F64" s="371"/>
-      <c r="G64" s="371"/>
-      <c r="H64" s="372"/>
-      <c r="I64" s="376"/>
-      <c r="J64" s="377"/>
-      <c r="K64" s="377"/>
-      <c r="L64" s="377"/>
-      <c r="M64" s="377"/>
-      <c r="N64" s="377"/>
-      <c r="O64" s="377"/>
-      <c r="P64" s="377"/>
-      <c r="Q64" s="377"/>
-      <c r="R64" s="377"/>
-      <c r="S64" s="377"/>
-      <c r="T64" s="377"/>
-      <c r="U64" s="377"/>
-      <c r="V64" s="377"/>
-      <c r="W64" s="377"/>
-      <c r="X64" s="377"/>
-      <c r="Y64" s="377"/>
-      <c r="Z64" s="378"/>
-      <c r="AA64" s="382"/>
-      <c r="AB64" s="383"/>
-      <c r="AC64" s="383"/>
-      <c r="AD64" s="384"/>
-      <c r="AE64" s="370"/>
-      <c r="AF64" s="371"/>
-      <c r="AG64" s="371"/>
-      <c r="AH64" s="371"/>
-      <c r="AI64" s="372"/>
-      <c r="AJ64" s="382"/>
-      <c r="AK64" s="383"/>
-      <c r="AL64" s="383"/>
-      <c r="AM64" s="384"/>
-      <c r="AN64" s="370"/>
-      <c r="AO64" s="371"/>
-      <c r="AP64" s="371"/>
-      <c r="AQ64" s="371"/>
-      <c r="AR64" s="372"/>
-      <c r="AS64" s="382"/>
-      <c r="AT64" s="383"/>
-      <c r="AU64" s="383"/>
-      <c r="AV64" s="384"/>
+      <c r="B64" s="438"/>
+      <c r="C64" s="439"/>
+      <c r="D64" s="440"/>
+      <c r="E64" s="441"/>
+      <c r="F64" s="441"/>
+      <c r="G64" s="441"/>
+      <c r="H64" s="442"/>
+      <c r="I64" s="443"/>
+      <c r="J64" s="444"/>
+      <c r="K64" s="444"/>
+      <c r="L64" s="444"/>
+      <c r="M64" s="444"/>
+      <c r="N64" s="444"/>
+      <c r="O64" s="444"/>
+      <c r="P64" s="444"/>
+      <c r="Q64" s="444"/>
+      <c r="R64" s="444"/>
+      <c r="S64" s="444"/>
+      <c r="T64" s="444"/>
+      <c r="U64" s="444"/>
+      <c r="V64" s="444"/>
+      <c r="W64" s="444"/>
+      <c r="X64" s="444"/>
+      <c r="Y64" s="444"/>
+      <c r="Z64" s="445"/>
+      <c r="AA64" s="446"/>
+      <c r="AB64" s="447"/>
+      <c r="AC64" s="447"/>
+      <c r="AD64" s="448"/>
+      <c r="AE64" s="440"/>
+      <c r="AF64" s="441"/>
+      <c r="AG64" s="441"/>
+      <c r="AH64" s="441"/>
+      <c r="AI64" s="442"/>
+      <c r="AJ64" s="446"/>
+      <c r="AK64" s="447"/>
+      <c r="AL64" s="447"/>
+      <c r="AM64" s="448"/>
+      <c r="AN64" s="440"/>
+      <c r="AO64" s="441"/>
+      <c r="AP64" s="441"/>
+      <c r="AQ64" s="441"/>
+      <c r="AR64" s="442"/>
+      <c r="AS64" s="446"/>
+      <c r="AT64" s="447"/>
+      <c r="AU64" s="447"/>
+      <c r="AV64" s="448"/>
       <c r="AW64" s="53"/>
     </row>
     <row r="65" spans="1:49">
       <c r="A65" s="51"/>
-      <c r="B65" s="366"/>
-      <c r="C65" s="367"/>
-      <c r="D65" s="370"/>
-      <c r="E65" s="371"/>
-      <c r="F65" s="371"/>
-      <c r="G65" s="371"/>
-      <c r="H65" s="372"/>
-      <c r="I65" s="376"/>
-      <c r="J65" s="377"/>
-      <c r="K65" s="377"/>
-      <c r="L65" s="377"/>
-      <c r="M65" s="377"/>
-      <c r="N65" s="377"/>
-      <c r="O65" s="377"/>
-      <c r="P65" s="377"/>
-      <c r="Q65" s="377"/>
-      <c r="R65" s="377"/>
-      <c r="S65" s="377"/>
-      <c r="T65" s="377"/>
-      <c r="U65" s="377"/>
-      <c r="V65" s="377"/>
-      <c r="W65" s="377"/>
-      <c r="X65" s="377"/>
-      <c r="Y65" s="377"/>
-      <c r="Z65" s="378"/>
-      <c r="AA65" s="382"/>
-      <c r="AB65" s="383"/>
-      <c r="AC65" s="383"/>
-      <c r="AD65" s="384"/>
-      <c r="AE65" s="370"/>
-      <c r="AF65" s="371"/>
-      <c r="AG65" s="371"/>
-      <c r="AH65" s="371"/>
-      <c r="AI65" s="372"/>
-      <c r="AJ65" s="382"/>
-      <c r="AK65" s="383"/>
-      <c r="AL65" s="383"/>
-      <c r="AM65" s="384"/>
-      <c r="AN65" s="370"/>
-      <c r="AO65" s="371"/>
-      <c r="AP65" s="371"/>
-      <c r="AQ65" s="371"/>
-      <c r="AR65" s="372"/>
-      <c r="AS65" s="382"/>
-      <c r="AT65" s="383"/>
-      <c r="AU65" s="383"/>
-      <c r="AV65" s="384"/>
+      <c r="B65" s="438"/>
+      <c r="C65" s="439"/>
+      <c r="D65" s="440"/>
+      <c r="E65" s="441"/>
+      <c r="F65" s="441"/>
+      <c r="G65" s="441"/>
+      <c r="H65" s="442"/>
+      <c r="I65" s="443"/>
+      <c r="J65" s="444"/>
+      <c r="K65" s="444"/>
+      <c r="L65" s="444"/>
+      <c r="M65" s="444"/>
+      <c r="N65" s="444"/>
+      <c r="O65" s="444"/>
+      <c r="P65" s="444"/>
+      <c r="Q65" s="444"/>
+      <c r="R65" s="444"/>
+      <c r="S65" s="444"/>
+      <c r="T65" s="444"/>
+      <c r="U65" s="444"/>
+      <c r="V65" s="444"/>
+      <c r="W65" s="444"/>
+      <c r="X65" s="444"/>
+      <c r="Y65" s="444"/>
+      <c r="Z65" s="445"/>
+      <c r="AA65" s="446"/>
+      <c r="AB65" s="447"/>
+      <c r="AC65" s="447"/>
+      <c r="AD65" s="448"/>
+      <c r="AE65" s="440"/>
+      <c r="AF65" s="441"/>
+      <c r="AG65" s="441"/>
+      <c r="AH65" s="441"/>
+      <c r="AI65" s="442"/>
+      <c r="AJ65" s="446"/>
+      <c r="AK65" s="447"/>
+      <c r="AL65" s="447"/>
+      <c r="AM65" s="448"/>
+      <c r="AN65" s="440"/>
+      <c r="AO65" s="441"/>
+      <c r="AP65" s="441"/>
+      <c r="AQ65" s="441"/>
+      <c r="AR65" s="442"/>
+      <c r="AS65" s="446"/>
+      <c r="AT65" s="447"/>
+      <c r="AU65" s="447"/>
+      <c r="AV65" s="448"/>
       <c r="AW65" s="53"/>
     </row>
     <row r="66" spans="1:49">
       <c r="A66" s="51"/>
-      <c r="B66" s="366"/>
-      <c r="C66" s="367"/>
-      <c r="D66" s="370"/>
-      <c r="E66" s="371"/>
-      <c r="F66" s="371"/>
-      <c r="G66" s="371"/>
-      <c r="H66" s="372"/>
-      <c r="I66" s="376"/>
-      <c r="J66" s="377"/>
-      <c r="K66" s="377"/>
-      <c r="L66" s="377"/>
-      <c r="M66" s="377"/>
-      <c r="N66" s="377"/>
-      <c r="O66" s="377"/>
-      <c r="P66" s="377"/>
-      <c r="Q66" s="377"/>
-      <c r="R66" s="377"/>
-      <c r="S66" s="377"/>
-      <c r="T66" s="377"/>
-      <c r="U66" s="377"/>
-      <c r="V66" s="377"/>
-      <c r="W66" s="377"/>
-      <c r="X66" s="377"/>
-      <c r="Y66" s="377"/>
-      <c r="Z66" s="378"/>
-      <c r="AA66" s="382"/>
-      <c r="AB66" s="383"/>
-      <c r="AC66" s="383"/>
-      <c r="AD66" s="384"/>
-      <c r="AE66" s="370"/>
-      <c r="AF66" s="371"/>
-      <c r="AG66" s="371"/>
-      <c r="AH66" s="371"/>
-      <c r="AI66" s="372"/>
-      <c r="AJ66" s="382"/>
-      <c r="AK66" s="383"/>
-      <c r="AL66" s="383"/>
-      <c r="AM66" s="384"/>
-      <c r="AN66" s="370"/>
-      <c r="AO66" s="371"/>
-      <c r="AP66" s="371"/>
-      <c r="AQ66" s="371"/>
-      <c r="AR66" s="372"/>
-      <c r="AS66" s="382"/>
-      <c r="AT66" s="383"/>
-      <c r="AU66" s="383"/>
-      <c r="AV66" s="384"/>
+      <c r="B66" s="438"/>
+      <c r="C66" s="439"/>
+      <c r="D66" s="440"/>
+      <c r="E66" s="441"/>
+      <c r="F66" s="441"/>
+      <c r="G66" s="441"/>
+      <c r="H66" s="442"/>
+      <c r="I66" s="443"/>
+      <c r="J66" s="444"/>
+      <c r="K66" s="444"/>
+      <c r="L66" s="444"/>
+      <c r="M66" s="444"/>
+      <c r="N66" s="444"/>
+      <c r="O66" s="444"/>
+      <c r="P66" s="444"/>
+      <c r="Q66" s="444"/>
+      <c r="R66" s="444"/>
+      <c r="S66" s="444"/>
+      <c r="T66" s="444"/>
+      <c r="U66" s="444"/>
+      <c r="V66" s="444"/>
+      <c r="W66" s="444"/>
+      <c r="X66" s="444"/>
+      <c r="Y66" s="444"/>
+      <c r="Z66" s="445"/>
+      <c r="AA66" s="446"/>
+      <c r="AB66" s="447"/>
+      <c r="AC66" s="447"/>
+      <c r="AD66" s="448"/>
+      <c r="AE66" s="440"/>
+      <c r="AF66" s="441"/>
+      <c r="AG66" s="441"/>
+      <c r="AH66" s="441"/>
+      <c r="AI66" s="442"/>
+      <c r="AJ66" s="446"/>
+      <c r="AK66" s="447"/>
+      <c r="AL66" s="447"/>
+      <c r="AM66" s="448"/>
+      <c r="AN66" s="440"/>
+      <c r="AO66" s="441"/>
+      <c r="AP66" s="441"/>
+      <c r="AQ66" s="441"/>
+      <c r="AR66" s="442"/>
+      <c r="AS66" s="446"/>
+      <c r="AT66" s="447"/>
+      <c r="AU66" s="447"/>
+      <c r="AV66" s="448"/>
       <c r="AW66" s="53"/>
     </row>
     <row r="67" spans="1:49">
       <c r="A67" s="51"/>
-      <c r="B67" s="366"/>
-      <c r="C67" s="367"/>
-      <c r="D67" s="370"/>
-      <c r="E67" s="371"/>
-      <c r="F67" s="371"/>
-      <c r="G67" s="371"/>
-      <c r="H67" s="372"/>
-      <c r="I67" s="376"/>
-      <c r="J67" s="377"/>
-      <c r="K67" s="377"/>
-      <c r="L67" s="377"/>
-      <c r="M67" s="377"/>
-      <c r="N67" s="377"/>
-      <c r="O67" s="377"/>
-      <c r="P67" s="377"/>
-      <c r="Q67" s="377"/>
-      <c r="R67" s="377"/>
-      <c r="S67" s="377"/>
-      <c r="T67" s="377"/>
-      <c r="U67" s="377"/>
-      <c r="V67" s="377"/>
-      <c r="W67" s="377"/>
-      <c r="X67" s="377"/>
-      <c r="Y67" s="377"/>
-      <c r="Z67" s="378"/>
-      <c r="AA67" s="382"/>
-      <c r="AB67" s="383"/>
-      <c r="AC67" s="383"/>
-      <c r="AD67" s="384"/>
-      <c r="AE67" s="370"/>
-      <c r="AF67" s="371"/>
-      <c r="AG67" s="371"/>
-      <c r="AH67" s="371"/>
-      <c r="AI67" s="372"/>
-      <c r="AJ67" s="382"/>
-      <c r="AK67" s="383"/>
-      <c r="AL67" s="383"/>
-      <c r="AM67" s="384"/>
-      <c r="AN67" s="370"/>
-      <c r="AO67" s="371"/>
-      <c r="AP67" s="371"/>
-      <c r="AQ67" s="371"/>
-      <c r="AR67" s="372"/>
-      <c r="AS67" s="382"/>
-      <c r="AT67" s="383"/>
-      <c r="AU67" s="383"/>
-      <c r="AV67" s="384"/>
+      <c r="B67" s="438"/>
+      <c r="C67" s="439"/>
+      <c r="D67" s="440"/>
+      <c r="E67" s="441"/>
+      <c r="F67" s="441"/>
+      <c r="G67" s="441"/>
+      <c r="H67" s="442"/>
+      <c r="I67" s="443"/>
+      <c r="J67" s="444"/>
+      <c r="K67" s="444"/>
+      <c r="L67" s="444"/>
+      <c r="M67" s="444"/>
+      <c r="N67" s="444"/>
+      <c r="O67" s="444"/>
+      <c r="P67" s="444"/>
+      <c r="Q67" s="444"/>
+      <c r="R67" s="444"/>
+      <c r="S67" s="444"/>
+      <c r="T67" s="444"/>
+      <c r="U67" s="444"/>
+      <c r="V67" s="444"/>
+      <c r="W67" s="444"/>
+      <c r="X67" s="444"/>
+      <c r="Y67" s="444"/>
+      <c r="Z67" s="445"/>
+      <c r="AA67" s="446"/>
+      <c r="AB67" s="447"/>
+      <c r="AC67" s="447"/>
+      <c r="AD67" s="448"/>
+      <c r="AE67" s="440"/>
+      <c r="AF67" s="441"/>
+      <c r="AG67" s="441"/>
+      <c r="AH67" s="441"/>
+      <c r="AI67" s="442"/>
+      <c r="AJ67" s="446"/>
+      <c r="AK67" s="447"/>
+      <c r="AL67" s="447"/>
+      <c r="AM67" s="448"/>
+      <c r="AN67" s="440"/>
+      <c r="AO67" s="441"/>
+      <c r="AP67" s="441"/>
+      <c r="AQ67" s="441"/>
+      <c r="AR67" s="442"/>
+      <c r="AS67" s="446"/>
+      <c r="AT67" s="447"/>
+      <c r="AU67" s="447"/>
+      <c r="AV67" s="448"/>
       <c r="AW67" s="53"/>
     </row>
     <row r="68" spans="1:49">
       <c r="A68" s="51"/>
-      <c r="B68" s="366"/>
-      <c r="C68" s="367"/>
-      <c r="D68" s="370"/>
-      <c r="E68" s="371"/>
-      <c r="F68" s="371"/>
-      <c r="G68" s="371"/>
-      <c r="H68" s="372"/>
-      <c r="I68" s="376"/>
-      <c r="J68" s="377"/>
-      <c r="K68" s="377"/>
-      <c r="L68" s="377"/>
-      <c r="M68" s="377"/>
-      <c r="N68" s="377"/>
-      <c r="O68" s="377"/>
-      <c r="P68" s="377"/>
-      <c r="Q68" s="377"/>
-      <c r="R68" s="377"/>
-      <c r="S68" s="377"/>
-      <c r="T68" s="377"/>
-      <c r="U68" s="377"/>
-      <c r="V68" s="377"/>
-      <c r="W68" s="377"/>
-      <c r="X68" s="377"/>
-      <c r="Y68" s="377"/>
-      <c r="Z68" s="378"/>
-      <c r="AA68" s="382"/>
-      <c r="AB68" s="383"/>
-      <c r="AC68" s="383"/>
-      <c r="AD68" s="384"/>
-      <c r="AE68" s="370"/>
-      <c r="AF68" s="371"/>
-      <c r="AG68" s="371"/>
-      <c r="AH68" s="371"/>
-      <c r="AI68" s="372"/>
-      <c r="AJ68" s="382"/>
-      <c r="AK68" s="383"/>
-      <c r="AL68" s="383"/>
-      <c r="AM68" s="384"/>
-      <c r="AN68" s="370"/>
-      <c r="AO68" s="371"/>
-      <c r="AP68" s="371"/>
-      <c r="AQ68" s="371"/>
-      <c r="AR68" s="372"/>
-      <c r="AS68" s="382"/>
-      <c r="AT68" s="383"/>
-      <c r="AU68" s="383"/>
-      <c r="AV68" s="384"/>
+      <c r="B68" s="438"/>
+      <c r="C68" s="439"/>
+      <c r="D68" s="440"/>
+      <c r="E68" s="441"/>
+      <c r="F68" s="441"/>
+      <c r="G68" s="441"/>
+      <c r="H68" s="442"/>
+      <c r="I68" s="443"/>
+      <c r="J68" s="444"/>
+      <c r="K68" s="444"/>
+      <c r="L68" s="444"/>
+      <c r="M68" s="444"/>
+      <c r="N68" s="444"/>
+      <c r="O68" s="444"/>
+      <c r="P68" s="444"/>
+      <c r="Q68" s="444"/>
+      <c r="R68" s="444"/>
+      <c r="S68" s="444"/>
+      <c r="T68" s="444"/>
+      <c r="U68" s="444"/>
+      <c r="V68" s="444"/>
+      <c r="W68" s="444"/>
+      <c r="X68" s="444"/>
+      <c r="Y68" s="444"/>
+      <c r="Z68" s="445"/>
+      <c r="AA68" s="446"/>
+      <c r="AB68" s="447"/>
+      <c r="AC68" s="447"/>
+      <c r="AD68" s="448"/>
+      <c r="AE68" s="440"/>
+      <c r="AF68" s="441"/>
+      <c r="AG68" s="441"/>
+      <c r="AH68" s="441"/>
+      <c r="AI68" s="442"/>
+      <c r="AJ68" s="446"/>
+      <c r="AK68" s="447"/>
+      <c r="AL68" s="447"/>
+      <c r="AM68" s="448"/>
+      <c r="AN68" s="440"/>
+      <c r="AO68" s="441"/>
+      <c r="AP68" s="441"/>
+      <c r="AQ68" s="441"/>
+      <c r="AR68" s="442"/>
+      <c r="AS68" s="446"/>
+      <c r="AT68" s="447"/>
+      <c r="AU68" s="447"/>
+      <c r="AV68" s="448"/>
       <c r="AW68" s="53"/>
     </row>
     <row r="69" spans="1:49">
       <c r="A69" s="51"/>
-      <c r="B69" s="366"/>
-      <c r="C69" s="367"/>
-      <c r="D69" s="370"/>
-      <c r="E69" s="371"/>
-      <c r="F69" s="371"/>
-      <c r="G69" s="371"/>
-      <c r="H69" s="372"/>
-      <c r="I69" s="376"/>
-      <c r="J69" s="377"/>
-      <c r="K69" s="377"/>
-      <c r="L69" s="377"/>
-      <c r="M69" s="377"/>
-      <c r="N69" s="377"/>
-      <c r="O69" s="377"/>
-      <c r="P69" s="377"/>
-      <c r="Q69" s="377"/>
-      <c r="R69" s="377"/>
-      <c r="S69" s="377"/>
-      <c r="T69" s="377"/>
-      <c r="U69" s="377"/>
-      <c r="V69" s="377"/>
-      <c r="W69" s="377"/>
-      <c r="X69" s="377"/>
-      <c r="Y69" s="377"/>
-      <c r="Z69" s="378"/>
-      <c r="AA69" s="382"/>
-      <c r="AB69" s="383"/>
-      <c r="AC69" s="383"/>
-      <c r="AD69" s="384"/>
-      <c r="AE69" s="370"/>
-      <c r="AF69" s="371"/>
-      <c r="AG69" s="371"/>
-      <c r="AH69" s="371"/>
-      <c r="AI69" s="372"/>
-      <c r="AJ69" s="382"/>
-      <c r="AK69" s="383"/>
-      <c r="AL69" s="383"/>
-      <c r="AM69" s="384"/>
-      <c r="AN69" s="370"/>
-      <c r="AO69" s="371"/>
-      <c r="AP69" s="371"/>
-      <c r="AQ69" s="371"/>
-      <c r="AR69" s="372"/>
-      <c r="AS69" s="382"/>
-      <c r="AT69" s="383"/>
-      <c r="AU69" s="383"/>
-      <c r="AV69" s="384"/>
+      <c r="B69" s="438"/>
+      <c r="C69" s="439"/>
+      <c r="D69" s="440"/>
+      <c r="E69" s="441"/>
+      <c r="F69" s="441"/>
+      <c r="G69" s="441"/>
+      <c r="H69" s="442"/>
+      <c r="I69" s="443"/>
+      <c r="J69" s="444"/>
+      <c r="K69" s="444"/>
+      <c r="L69" s="444"/>
+      <c r="M69" s="444"/>
+      <c r="N69" s="444"/>
+      <c r="O69" s="444"/>
+      <c r="P69" s="444"/>
+      <c r="Q69" s="444"/>
+      <c r="R69" s="444"/>
+      <c r="S69" s="444"/>
+      <c r="T69" s="444"/>
+      <c r="U69" s="444"/>
+      <c r="V69" s="444"/>
+      <c r="W69" s="444"/>
+      <c r="X69" s="444"/>
+      <c r="Y69" s="444"/>
+      <c r="Z69" s="445"/>
+      <c r="AA69" s="446"/>
+      <c r="AB69" s="447"/>
+      <c r="AC69" s="447"/>
+      <c r="AD69" s="448"/>
+      <c r="AE69" s="440"/>
+      <c r="AF69" s="441"/>
+      <c r="AG69" s="441"/>
+      <c r="AH69" s="441"/>
+      <c r="AI69" s="442"/>
+      <c r="AJ69" s="446"/>
+      <c r="AK69" s="447"/>
+      <c r="AL69" s="447"/>
+      <c r="AM69" s="448"/>
+      <c r="AN69" s="440"/>
+      <c r="AO69" s="441"/>
+      <c r="AP69" s="441"/>
+      <c r="AQ69" s="441"/>
+      <c r="AR69" s="442"/>
+      <c r="AS69" s="446"/>
+      <c r="AT69" s="447"/>
+      <c r="AU69" s="447"/>
+      <c r="AV69" s="448"/>
       <c r="AW69" s="53"/>
     </row>
     <row r="70" spans="1:49">
       <c r="A70" s="51"/>
-      <c r="B70" s="366"/>
-      <c r="C70" s="367"/>
-      <c r="D70" s="370"/>
-      <c r="E70" s="371"/>
-      <c r="F70" s="371"/>
-      <c r="G70" s="371"/>
-      <c r="H70" s="372"/>
-      <c r="I70" s="376"/>
-      <c r="J70" s="377"/>
-      <c r="K70" s="377"/>
-      <c r="L70" s="377"/>
-      <c r="M70" s="377"/>
-      <c r="N70" s="377"/>
-      <c r="O70" s="377"/>
-      <c r="P70" s="377"/>
-      <c r="Q70" s="377"/>
-      <c r="R70" s="377"/>
-      <c r="S70" s="377"/>
-      <c r="T70" s="377"/>
-      <c r="U70" s="377"/>
-      <c r="V70" s="377"/>
-      <c r="W70" s="377"/>
-      <c r="X70" s="377"/>
-      <c r="Y70" s="377"/>
-      <c r="Z70" s="378"/>
-      <c r="AA70" s="382"/>
-      <c r="AB70" s="383"/>
-      <c r="AC70" s="383"/>
-      <c r="AD70" s="384"/>
-      <c r="AE70" s="370"/>
-      <c r="AF70" s="371"/>
-      <c r="AG70" s="371"/>
-      <c r="AH70" s="371"/>
-      <c r="AI70" s="372"/>
-      <c r="AJ70" s="382"/>
-      <c r="AK70" s="383"/>
-      <c r="AL70" s="383"/>
-      <c r="AM70" s="384"/>
-      <c r="AN70" s="370"/>
-      <c r="AO70" s="371"/>
-      <c r="AP70" s="371"/>
-      <c r="AQ70" s="371"/>
-      <c r="AR70" s="372"/>
-      <c r="AS70" s="382"/>
-      <c r="AT70" s="383"/>
-      <c r="AU70" s="383"/>
-      <c r="AV70" s="384"/>
+      <c r="B70" s="438"/>
+      <c r="C70" s="439"/>
+      <c r="D70" s="440"/>
+      <c r="E70" s="441"/>
+      <c r="F70" s="441"/>
+      <c r="G70" s="441"/>
+      <c r="H70" s="442"/>
+      <c r="I70" s="443"/>
+      <c r="J70" s="444"/>
+      <c r="K70" s="444"/>
+      <c r="L70" s="444"/>
+      <c r="M70" s="444"/>
+      <c r="N70" s="444"/>
+      <c r="O70" s="444"/>
+      <c r="P70" s="444"/>
+      <c r="Q70" s="444"/>
+      <c r="R70" s="444"/>
+      <c r="S70" s="444"/>
+      <c r="T70" s="444"/>
+      <c r="U70" s="444"/>
+      <c r="V70" s="444"/>
+      <c r="W70" s="444"/>
+      <c r="X70" s="444"/>
+      <c r="Y70" s="444"/>
+      <c r="Z70" s="445"/>
+      <c r="AA70" s="446"/>
+      <c r="AB70" s="447"/>
+      <c r="AC70" s="447"/>
+      <c r="AD70" s="448"/>
+      <c r="AE70" s="440"/>
+      <c r="AF70" s="441"/>
+      <c r="AG70" s="441"/>
+      <c r="AH70" s="441"/>
+      <c r="AI70" s="442"/>
+      <c r="AJ70" s="446"/>
+      <c r="AK70" s="447"/>
+      <c r="AL70" s="447"/>
+      <c r="AM70" s="448"/>
+      <c r="AN70" s="440"/>
+      <c r="AO70" s="441"/>
+      <c r="AP70" s="441"/>
+      <c r="AQ70" s="441"/>
+      <c r="AR70" s="442"/>
+      <c r="AS70" s="446"/>
+      <c r="AT70" s="447"/>
+      <c r="AU70" s="447"/>
+      <c r="AV70" s="448"/>
       <c r="AW70" s="53"/>
     </row>
     <row r="71" spans="1:49">
       <c r="A71" s="51"/>
-      <c r="B71" s="368"/>
-      <c r="C71" s="369"/>
-      <c r="D71" s="373"/>
-      <c r="E71" s="374"/>
-      <c r="F71" s="374"/>
-      <c r="G71" s="374"/>
-      <c r="H71" s="375"/>
-      <c r="I71" s="379"/>
-      <c r="J71" s="380"/>
-      <c r="K71" s="380"/>
-      <c r="L71" s="380"/>
-      <c r="M71" s="380"/>
-      <c r="N71" s="380"/>
-      <c r="O71" s="380"/>
-      <c r="P71" s="380"/>
-      <c r="Q71" s="380"/>
-      <c r="R71" s="380"/>
-      <c r="S71" s="380"/>
-      <c r="T71" s="380"/>
-      <c r="U71" s="380"/>
-      <c r="V71" s="380"/>
-      <c r="W71" s="380"/>
-      <c r="X71" s="380"/>
-      <c r="Y71" s="380"/>
-      <c r="Z71" s="381"/>
-      <c r="AA71" s="385"/>
-      <c r="AB71" s="386"/>
-      <c r="AC71" s="386"/>
-      <c r="AD71" s="387"/>
-      <c r="AE71" s="373"/>
-      <c r="AF71" s="374"/>
-      <c r="AG71" s="374"/>
-      <c r="AH71" s="374"/>
-      <c r="AI71" s="375"/>
-      <c r="AJ71" s="385"/>
-      <c r="AK71" s="386"/>
-      <c r="AL71" s="386"/>
-      <c r="AM71" s="387"/>
-      <c r="AN71" s="373"/>
-      <c r="AO71" s="374"/>
-      <c r="AP71" s="374"/>
-      <c r="AQ71" s="374"/>
-      <c r="AR71" s="375"/>
-      <c r="AS71" s="385"/>
-      <c r="AT71" s="386"/>
-      <c r="AU71" s="386"/>
-      <c r="AV71" s="387"/>
+      <c r="B71" s="460"/>
+      <c r="C71" s="461"/>
+      <c r="D71" s="462"/>
+      <c r="E71" s="463"/>
+      <c r="F71" s="463"/>
+      <c r="G71" s="463"/>
+      <c r="H71" s="464"/>
+      <c r="I71" s="465"/>
+      <c r="J71" s="466"/>
+      <c r="K71" s="466"/>
+      <c r="L71" s="466"/>
+      <c r="M71" s="466"/>
+      <c r="N71" s="466"/>
+      <c r="O71" s="466"/>
+      <c r="P71" s="466"/>
+      <c r="Q71" s="466"/>
+      <c r="R71" s="466"/>
+      <c r="S71" s="466"/>
+      <c r="T71" s="466"/>
+      <c r="U71" s="466"/>
+      <c r="V71" s="466"/>
+      <c r="W71" s="466"/>
+      <c r="X71" s="466"/>
+      <c r="Y71" s="466"/>
+      <c r="Z71" s="467"/>
+      <c r="AA71" s="468"/>
+      <c r="AB71" s="469"/>
+      <c r="AC71" s="469"/>
+      <c r="AD71" s="470"/>
+      <c r="AE71" s="462"/>
+      <c r="AF71" s="463"/>
+      <c r="AG71" s="463"/>
+      <c r="AH71" s="463"/>
+      <c r="AI71" s="464"/>
+      <c r="AJ71" s="468"/>
+      <c r="AK71" s="469"/>
+      <c r="AL71" s="469"/>
+      <c r="AM71" s="470"/>
+      <c r="AN71" s="462"/>
+      <c r="AO71" s="463"/>
+      <c r="AP71" s="463"/>
+      <c r="AQ71" s="463"/>
+      <c r="AR71" s="464"/>
+      <c r="AS71" s="468"/>
+      <c r="AT71" s="469"/>
+      <c r="AU71" s="469"/>
+      <c r="AV71" s="470"/>
       <c r="AW71" s="53"/>
     </row>
     <row r="72" spans="1:49">
@@ -8235,187 +8235,187 @@
       <c r="AW73" s="61"/>
     </row>
     <row r="74" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A74" s="315" t="s">
+      <c r="A74" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="316"/>
-      <c r="C74" s="316"/>
-      <c r="D74" s="316"/>
-      <c r="E74" s="316"/>
-      <c r="F74" s="316"/>
-      <c r="G74" s="316"/>
-      <c r="H74" s="316"/>
-      <c r="I74" s="317"/>
-      <c r="J74" s="324" t="s">
+      <c r="B74" s="306"/>
+      <c r="C74" s="306"/>
+      <c r="D74" s="306"/>
+      <c r="E74" s="306"/>
+      <c r="F74" s="306"/>
+      <c r="G74" s="306"/>
+      <c r="H74" s="306"/>
+      <c r="I74" s="307"/>
+      <c r="J74" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K74" s="325"/>
-      <c r="L74" s="325"/>
-      <c r="M74" s="325"/>
-      <c r="N74" s="325"/>
-      <c r="O74" s="326"/>
-      <c r="P74" s="324" t="s">
+      <c r="K74" s="315"/>
+      <c r="L74" s="315"/>
+      <c r="M74" s="315"/>
+      <c r="N74" s="315"/>
+      <c r="O74" s="316"/>
+      <c r="P74" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="Q74" s="325"/>
-      <c r="R74" s="325"/>
-      <c r="S74" s="325"/>
-      <c r="T74" s="325"/>
-      <c r="U74" s="326"/>
-      <c r="V74" s="333" t="s">
+      <c r="Q74" s="315"/>
+      <c r="R74" s="315"/>
+      <c r="S74" s="315"/>
+      <c r="T74" s="315"/>
+      <c r="U74" s="316"/>
+      <c r="V74" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="W74" s="334"/>
-      <c r="X74" s="334"/>
-      <c r="Y74" s="334"/>
-      <c r="Z74" s="335"/>
-      <c r="AA74" s="339" t="s">
+      <c r="W74" s="330"/>
+      <c r="X74" s="330"/>
+      <c r="Y74" s="330"/>
+      <c r="Z74" s="331"/>
+      <c r="AA74" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="AB74" s="325"/>
-      <c r="AC74" s="325"/>
-      <c r="AD74" s="325"/>
-      <c r="AE74" s="325"/>
-      <c r="AF74" s="325"/>
-      <c r="AG74" s="325"/>
-      <c r="AH74" s="325"/>
-      <c r="AI74" s="325"/>
-      <c r="AJ74" s="325"/>
-      <c r="AK74" s="325"/>
-      <c r="AL74" s="326"/>
-      <c r="AM74" s="341" t="s">
+      <c r="AB74" s="315"/>
+      <c r="AC74" s="315"/>
+      <c r="AD74" s="315"/>
+      <c r="AE74" s="315"/>
+      <c r="AF74" s="315"/>
+      <c r="AG74" s="315"/>
+      <c r="AH74" s="315"/>
+      <c r="AI74" s="315"/>
+      <c r="AJ74" s="315"/>
+      <c r="AK74" s="315"/>
+      <c r="AL74" s="316"/>
+      <c r="AM74" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AN74" s="342"/>
-      <c r="AO74" s="343" t="s">
+      <c r="AN74" s="338"/>
+      <c r="AO74" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="AP74" s="344"/>
-      <c r="AQ74" s="345"/>
-      <c r="AR74" s="341" t="s">
+      <c r="AP74" s="346"/>
+      <c r="AQ74" s="347"/>
+      <c r="AR74" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="AS74" s="342"/>
-      <c r="AT74" s="346">
+      <c r="AS74" s="338"/>
+      <c r="AT74" s="356">
         <v>45056</v>
       </c>
-      <c r="AU74" s="347"/>
-      <c r="AV74" s="347"/>
-      <c r="AW74" s="348"/>
+      <c r="AU74" s="357"/>
+      <c r="AV74" s="357"/>
+      <c r="AW74" s="358"/>
     </row>
     <row r="75" spans="1:49">
-      <c r="A75" s="318"/>
-      <c r="B75" s="319"/>
-      <c r="C75" s="319"/>
-      <c r="D75" s="319"/>
-      <c r="E75" s="319"/>
-      <c r="F75" s="319"/>
-      <c r="G75" s="319"/>
-      <c r="H75" s="319"/>
-      <c r="I75" s="320"/>
-      <c r="J75" s="327"/>
-      <c r="K75" s="328"/>
-      <c r="L75" s="328"/>
-      <c r="M75" s="328"/>
-      <c r="N75" s="328"/>
-      <c r="O75" s="329"/>
-      <c r="P75" s="327"/>
-      <c r="Q75" s="328"/>
-      <c r="R75" s="328"/>
-      <c r="S75" s="328"/>
-      <c r="T75" s="328"/>
-      <c r="U75" s="329"/>
-      <c r="V75" s="336"/>
-      <c r="W75" s="337"/>
-      <c r="X75" s="337"/>
-      <c r="Y75" s="337"/>
-      <c r="Z75" s="338"/>
-      <c r="AA75" s="340"/>
-      <c r="AB75" s="328"/>
-      <c r="AC75" s="328"/>
-      <c r="AD75" s="328"/>
-      <c r="AE75" s="328"/>
-      <c r="AF75" s="328"/>
-      <c r="AG75" s="328"/>
-      <c r="AH75" s="328"/>
-      <c r="AI75" s="328"/>
-      <c r="AJ75" s="328"/>
-      <c r="AK75" s="328"/>
-      <c r="AL75" s="329"/>
-      <c r="AM75" s="349" t="s">
+      <c r="A75" s="308"/>
+      <c r="B75" s="309"/>
+      <c r="C75" s="309"/>
+      <c r="D75" s="309"/>
+      <c r="E75" s="309"/>
+      <c r="F75" s="309"/>
+      <c r="G75" s="309"/>
+      <c r="H75" s="309"/>
+      <c r="I75" s="310"/>
+      <c r="J75" s="317"/>
+      <c r="K75" s="318"/>
+      <c r="L75" s="318"/>
+      <c r="M75" s="318"/>
+      <c r="N75" s="318"/>
+      <c r="O75" s="319"/>
+      <c r="P75" s="317"/>
+      <c r="Q75" s="318"/>
+      <c r="R75" s="318"/>
+      <c r="S75" s="318"/>
+      <c r="T75" s="318"/>
+      <c r="U75" s="319"/>
+      <c r="V75" s="332"/>
+      <c r="W75" s="333"/>
+      <c r="X75" s="333"/>
+      <c r="Y75" s="333"/>
+      <c r="Z75" s="334"/>
+      <c r="AA75" s="336"/>
+      <c r="AB75" s="318"/>
+      <c r="AC75" s="318"/>
+      <c r="AD75" s="318"/>
+      <c r="AE75" s="318"/>
+      <c r="AF75" s="318"/>
+      <c r="AG75" s="318"/>
+      <c r="AH75" s="318"/>
+      <c r="AI75" s="318"/>
+      <c r="AJ75" s="318"/>
+      <c r="AK75" s="318"/>
+      <c r="AL75" s="319"/>
+      <c r="AM75" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="AN75" s="350"/>
-      <c r="AO75" s="351"/>
-      <c r="AP75" s="352"/>
-      <c r="AQ75" s="353"/>
-      <c r="AR75" s="349" t="s">
+      <c r="AN75" s="349"/>
+      <c r="AO75" s="350"/>
+      <c r="AP75" s="351"/>
+      <c r="AQ75" s="352"/>
+      <c r="AR75" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="AS75" s="350"/>
-      <c r="AT75" s="354"/>
-      <c r="AU75" s="355"/>
-      <c r="AV75" s="355"/>
-      <c r="AW75" s="356"/>
+      <c r="AS75" s="349"/>
+      <c r="AT75" s="353"/>
+      <c r="AU75" s="354"/>
+      <c r="AV75" s="354"/>
+      <c r="AW75" s="355"/>
     </row>
     <row r="76" spans="1:49" ht="15" thickBot="1">
-      <c r="A76" s="321"/>
-      <c r="B76" s="322"/>
-      <c r="C76" s="322"/>
-      <c r="D76" s="322"/>
-      <c r="E76" s="322"/>
-      <c r="F76" s="322"/>
-      <c r="G76" s="322"/>
-      <c r="H76" s="322"/>
-      <c r="I76" s="323"/>
-      <c r="J76" s="330"/>
-      <c r="K76" s="331"/>
-      <c r="L76" s="331"/>
-      <c r="M76" s="331"/>
-      <c r="N76" s="331"/>
-      <c r="O76" s="332"/>
-      <c r="P76" s="330"/>
-      <c r="Q76" s="331"/>
-      <c r="R76" s="331"/>
-      <c r="S76" s="331"/>
-      <c r="T76" s="331"/>
-      <c r="U76" s="332"/>
-      <c r="V76" s="357" t="s">
+      <c r="A76" s="311"/>
+      <c r="B76" s="312"/>
+      <c r="C76" s="312"/>
+      <c r="D76" s="312"/>
+      <c r="E76" s="312"/>
+      <c r="F76" s="312"/>
+      <c r="G76" s="312"/>
+      <c r="H76" s="312"/>
+      <c r="I76" s="313"/>
+      <c r="J76" s="320"/>
+      <c r="K76" s="321"/>
+      <c r="L76" s="321"/>
+      <c r="M76" s="321"/>
+      <c r="N76" s="321"/>
+      <c r="O76" s="322"/>
+      <c r="P76" s="320"/>
+      <c r="Q76" s="321"/>
+      <c r="R76" s="321"/>
+      <c r="S76" s="321"/>
+      <c r="T76" s="321"/>
+      <c r="U76" s="322"/>
+      <c r="V76" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="W76" s="358"/>
-      <c r="X76" s="358"/>
-      <c r="Y76" s="358"/>
-      <c r="Z76" s="359"/>
-      <c r="AA76" s="360" t="s">
+      <c r="W76" s="327"/>
+      <c r="X76" s="327"/>
+      <c r="Y76" s="327"/>
+      <c r="Z76" s="328"/>
+      <c r="AA76" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="AB76" s="361"/>
-      <c r="AC76" s="361"/>
-      <c r="AD76" s="361"/>
-      <c r="AE76" s="361"/>
-      <c r="AF76" s="361"/>
-      <c r="AG76" s="362"/>
-      <c r="AH76" s="363" t="s">
+      <c r="AB76" s="324"/>
+      <c r="AC76" s="324"/>
+      <c r="AD76" s="324"/>
+      <c r="AE76" s="324"/>
+      <c r="AF76" s="324"/>
+      <c r="AG76" s="325"/>
+      <c r="AH76" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="AI76" s="364"/>
-      <c r="AJ76" s="364"/>
-      <c r="AK76" s="364"/>
-      <c r="AL76" s="365"/>
-      <c r="AM76" s="312" t="s">
+      <c r="AI76" s="340"/>
+      <c r="AJ76" s="340"/>
+      <c r="AK76" s="340"/>
+      <c r="AL76" s="341"/>
+      <c r="AM76" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="AN76" s="313"/>
-      <c r="AO76" s="313"/>
-      <c r="AP76" s="313"/>
-      <c r="AQ76" s="313"/>
-      <c r="AR76" s="313"/>
-      <c r="AS76" s="313"/>
-      <c r="AT76" s="313"/>
-      <c r="AU76" s="313"/>
-      <c r="AV76" s="313"/>
-      <c r="AW76" s="314"/>
+      <c r="AN76" s="343"/>
+      <c r="AO76" s="343"/>
+      <c r="AP76" s="343"/>
+      <c r="AQ76" s="343"/>
+      <c r="AR76" s="343"/>
+      <c r="AS76" s="343"/>
+      <c r="AT76" s="343"/>
+      <c r="AU76" s="343"/>
+      <c r="AV76" s="343"/>
+      <c r="AW76" s="344"/>
     </row>
     <row r="77" spans="1:49" ht="15" thickTop="1">
       <c r="A77" s="46"/>
@@ -10435,187 +10435,187 @@
       <c r="AW115" s="75"/>
     </row>
     <row r="116" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A116" s="315" t="s">
+      <c r="A116" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="316"/>
-      <c r="C116" s="316"/>
-      <c r="D116" s="316"/>
-      <c r="E116" s="316"/>
-      <c r="F116" s="316"/>
-      <c r="G116" s="316"/>
-      <c r="H116" s="316"/>
-      <c r="I116" s="317"/>
-      <c r="J116" s="324" t="s">
+      <c r="B116" s="306"/>
+      <c r="C116" s="306"/>
+      <c r="D116" s="306"/>
+      <c r="E116" s="306"/>
+      <c r="F116" s="306"/>
+      <c r="G116" s="306"/>
+      <c r="H116" s="306"/>
+      <c r="I116" s="307"/>
+      <c r="J116" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K116" s="325"/>
-      <c r="L116" s="325"/>
-      <c r="M116" s="325"/>
-      <c r="N116" s="325"/>
-      <c r="O116" s="326"/>
-      <c r="P116" s="324" t="s">
+      <c r="K116" s="315"/>
+      <c r="L116" s="315"/>
+      <c r="M116" s="315"/>
+      <c r="N116" s="315"/>
+      <c r="O116" s="316"/>
+      <c r="P116" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="Q116" s="325"/>
-      <c r="R116" s="325"/>
-      <c r="S116" s="325"/>
-      <c r="T116" s="325"/>
-      <c r="U116" s="326"/>
-      <c r="V116" s="333" t="s">
+      <c r="Q116" s="315"/>
+      <c r="R116" s="315"/>
+      <c r="S116" s="315"/>
+      <c r="T116" s="315"/>
+      <c r="U116" s="316"/>
+      <c r="V116" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="W116" s="334"/>
-      <c r="X116" s="334"/>
-      <c r="Y116" s="334"/>
-      <c r="Z116" s="335"/>
-      <c r="AA116" s="339" t="s">
+      <c r="W116" s="330"/>
+      <c r="X116" s="330"/>
+      <c r="Y116" s="330"/>
+      <c r="Z116" s="331"/>
+      <c r="AA116" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="AB116" s="325"/>
-      <c r="AC116" s="325"/>
-      <c r="AD116" s="325"/>
-      <c r="AE116" s="325"/>
-      <c r="AF116" s="325"/>
-      <c r="AG116" s="325"/>
-      <c r="AH116" s="325"/>
-      <c r="AI116" s="325"/>
-      <c r="AJ116" s="325"/>
-      <c r="AK116" s="325"/>
-      <c r="AL116" s="326"/>
-      <c r="AM116" s="341" t="s">
+      <c r="AB116" s="315"/>
+      <c r="AC116" s="315"/>
+      <c r="AD116" s="315"/>
+      <c r="AE116" s="315"/>
+      <c r="AF116" s="315"/>
+      <c r="AG116" s="315"/>
+      <c r="AH116" s="315"/>
+      <c r="AI116" s="315"/>
+      <c r="AJ116" s="315"/>
+      <c r="AK116" s="315"/>
+      <c r="AL116" s="316"/>
+      <c r="AM116" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AN116" s="342"/>
-      <c r="AO116" s="343" t="s">
+      <c r="AN116" s="338"/>
+      <c r="AO116" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="AP116" s="344"/>
-      <c r="AQ116" s="345"/>
-      <c r="AR116" s="341" t="s">
+      <c r="AP116" s="346"/>
+      <c r="AQ116" s="347"/>
+      <c r="AR116" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="AS116" s="342"/>
-      <c r="AT116" s="346" t="s">
+      <c r="AS116" s="338"/>
+      <c r="AT116" s="356" t="s">
         <v>11</v>
       </c>
-      <c r="AU116" s="347"/>
-      <c r="AV116" s="347"/>
-      <c r="AW116" s="348"/>
+      <c r="AU116" s="357"/>
+      <c r="AV116" s="357"/>
+      <c r="AW116" s="358"/>
     </row>
     <row r="117" spans="1:49">
-      <c r="A117" s="318"/>
-      <c r="B117" s="319"/>
-      <c r="C117" s="319"/>
-      <c r="D117" s="319"/>
-      <c r="E117" s="319"/>
-      <c r="F117" s="319"/>
-      <c r="G117" s="319"/>
-      <c r="H117" s="319"/>
-      <c r="I117" s="320"/>
-      <c r="J117" s="327"/>
-      <c r="K117" s="328"/>
-      <c r="L117" s="328"/>
-      <c r="M117" s="328"/>
-      <c r="N117" s="328"/>
-      <c r="O117" s="329"/>
-      <c r="P117" s="327"/>
-      <c r="Q117" s="328"/>
-      <c r="R117" s="328"/>
-      <c r="S117" s="328"/>
-      <c r="T117" s="328"/>
-      <c r="U117" s="329"/>
-      <c r="V117" s="336"/>
-      <c r="W117" s="337"/>
-      <c r="X117" s="337"/>
-      <c r="Y117" s="337"/>
-      <c r="Z117" s="338"/>
-      <c r="AA117" s="340"/>
-      <c r="AB117" s="328"/>
-      <c r="AC117" s="328"/>
-      <c r="AD117" s="328"/>
-      <c r="AE117" s="328"/>
-      <c r="AF117" s="328"/>
-      <c r="AG117" s="328"/>
-      <c r="AH117" s="328"/>
-      <c r="AI117" s="328"/>
-      <c r="AJ117" s="328"/>
-      <c r="AK117" s="328"/>
-      <c r="AL117" s="329"/>
-      <c r="AM117" s="349" t="s">
+      <c r="A117" s="308"/>
+      <c r="B117" s="309"/>
+      <c r="C117" s="309"/>
+      <c r="D117" s="309"/>
+      <c r="E117" s="309"/>
+      <c r="F117" s="309"/>
+      <c r="G117" s="309"/>
+      <c r="H117" s="309"/>
+      <c r="I117" s="310"/>
+      <c r="J117" s="317"/>
+      <c r="K117" s="318"/>
+      <c r="L117" s="318"/>
+      <c r="M117" s="318"/>
+      <c r="N117" s="318"/>
+      <c r="O117" s="319"/>
+      <c r="P117" s="317"/>
+      <c r="Q117" s="318"/>
+      <c r="R117" s="318"/>
+      <c r="S117" s="318"/>
+      <c r="T117" s="318"/>
+      <c r="U117" s="319"/>
+      <c r="V117" s="332"/>
+      <c r="W117" s="333"/>
+      <c r="X117" s="333"/>
+      <c r="Y117" s="333"/>
+      <c r="Z117" s="334"/>
+      <c r="AA117" s="336"/>
+      <c r="AB117" s="318"/>
+      <c r="AC117" s="318"/>
+      <c r="AD117" s="318"/>
+      <c r="AE117" s="318"/>
+      <c r="AF117" s="318"/>
+      <c r="AG117" s="318"/>
+      <c r="AH117" s="318"/>
+      <c r="AI117" s="318"/>
+      <c r="AJ117" s="318"/>
+      <c r="AK117" s="318"/>
+      <c r="AL117" s="319"/>
+      <c r="AM117" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="AN117" s="350"/>
-      <c r="AO117" s="351"/>
-      <c r="AP117" s="352"/>
-      <c r="AQ117" s="353"/>
-      <c r="AR117" s="349" t="s">
+      <c r="AN117" s="349"/>
+      <c r="AO117" s="350"/>
+      <c r="AP117" s="351"/>
+      <c r="AQ117" s="352"/>
+      <c r="AR117" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="AS117" s="350"/>
-      <c r="AT117" s="354"/>
-      <c r="AU117" s="355"/>
-      <c r="AV117" s="355"/>
-      <c r="AW117" s="356"/>
+      <c r="AS117" s="349"/>
+      <c r="AT117" s="353"/>
+      <c r="AU117" s="354"/>
+      <c r="AV117" s="354"/>
+      <c r="AW117" s="355"/>
     </row>
     <row r="118" spans="1:49" ht="15" thickBot="1">
-      <c r="A118" s="321"/>
-      <c r="B118" s="322"/>
-      <c r="C118" s="322"/>
-      <c r="D118" s="322"/>
-      <c r="E118" s="322"/>
-      <c r="F118" s="322"/>
-      <c r="G118" s="322"/>
-      <c r="H118" s="322"/>
-      <c r="I118" s="323"/>
-      <c r="J118" s="330"/>
-      <c r="K118" s="331"/>
-      <c r="L118" s="331"/>
-      <c r="M118" s="331"/>
-      <c r="N118" s="331"/>
-      <c r="O118" s="332"/>
-      <c r="P118" s="330"/>
-      <c r="Q118" s="331"/>
-      <c r="R118" s="331"/>
-      <c r="S118" s="331"/>
-      <c r="T118" s="331"/>
-      <c r="U118" s="332"/>
-      <c r="V118" s="357" t="s">
+      <c r="A118" s="311"/>
+      <c r="B118" s="312"/>
+      <c r="C118" s="312"/>
+      <c r="D118" s="312"/>
+      <c r="E118" s="312"/>
+      <c r="F118" s="312"/>
+      <c r="G118" s="312"/>
+      <c r="H118" s="312"/>
+      <c r="I118" s="313"/>
+      <c r="J118" s="320"/>
+      <c r="K118" s="321"/>
+      <c r="L118" s="321"/>
+      <c r="M118" s="321"/>
+      <c r="N118" s="321"/>
+      <c r="O118" s="322"/>
+      <c r="P118" s="320"/>
+      <c r="Q118" s="321"/>
+      <c r="R118" s="321"/>
+      <c r="S118" s="321"/>
+      <c r="T118" s="321"/>
+      <c r="U118" s="322"/>
+      <c r="V118" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="W118" s="358"/>
-      <c r="X118" s="358"/>
-      <c r="Y118" s="358"/>
-      <c r="Z118" s="359"/>
-      <c r="AA118" s="360" t="s">
+      <c r="W118" s="327"/>
+      <c r="X118" s="327"/>
+      <c r="Y118" s="327"/>
+      <c r="Z118" s="328"/>
+      <c r="AA118" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="AB118" s="361"/>
-      <c r="AC118" s="361"/>
-      <c r="AD118" s="361"/>
-      <c r="AE118" s="361"/>
-      <c r="AF118" s="361"/>
-      <c r="AG118" s="362"/>
-      <c r="AH118" s="363" t="s">
+      <c r="AB118" s="324"/>
+      <c r="AC118" s="324"/>
+      <c r="AD118" s="324"/>
+      <c r="AE118" s="324"/>
+      <c r="AF118" s="324"/>
+      <c r="AG118" s="325"/>
+      <c r="AH118" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="AI118" s="364"/>
-      <c r="AJ118" s="364"/>
-      <c r="AK118" s="364"/>
-      <c r="AL118" s="365"/>
-      <c r="AM118" s="312" t="s">
+      <c r="AI118" s="340"/>
+      <c r="AJ118" s="340"/>
+      <c r="AK118" s="340"/>
+      <c r="AL118" s="341"/>
+      <c r="AM118" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="AN118" s="313"/>
-      <c r="AO118" s="313"/>
-      <c r="AP118" s="313"/>
-      <c r="AQ118" s="313"/>
-      <c r="AR118" s="313"/>
-      <c r="AS118" s="313"/>
-      <c r="AT118" s="313"/>
-      <c r="AU118" s="313"/>
-      <c r="AV118" s="313"/>
-      <c r="AW118" s="314"/>
+      <c r="AN118" s="343"/>
+      <c r="AO118" s="343"/>
+      <c r="AP118" s="343"/>
+      <c r="AQ118" s="343"/>
+      <c r="AR118" s="343"/>
+      <c r="AS118" s="343"/>
+      <c r="AT118" s="343"/>
+      <c r="AU118" s="343"/>
+      <c r="AV118" s="343"/>
+      <c r="AW118" s="344"/>
     </row>
     <row r="119" spans="1:49" ht="15" thickTop="1">
       <c r="A119" s="46"/>
@@ -11773,35 +11773,35 @@
       <c r="U141" s="10"/>
       <c r="V141" s="9"/>
       <c r="W141" s="10"/>
-      <c r="X141" s="305" t="s">
+      <c r="X141" s="471" t="s">
         <v>40</v>
       </c>
-      <c r="Y141" s="306"/>
-      <c r="Z141" s="305" t="s">
+      <c r="Y141" s="472"/>
+      <c r="Z141" s="471" t="s">
         <v>41</v>
       </c>
-      <c r="AA141" s="307"/>
-      <c r="AB141" s="307"/>
-      <c r="AC141" s="307"/>
-      <c r="AD141" s="307"/>
-      <c r="AE141" s="307"/>
-      <c r="AF141" s="307"/>
-      <c r="AG141" s="307"/>
-      <c r="AH141" s="307"/>
-      <c r="AI141" s="307"/>
-      <c r="AJ141" s="307"/>
-      <c r="AK141" s="307"/>
-      <c r="AL141" s="307"/>
-      <c r="AM141" s="307"/>
-      <c r="AN141" s="307"/>
-      <c r="AO141" s="307"/>
-      <c r="AP141" s="307"/>
-      <c r="AQ141" s="307"/>
-      <c r="AR141" s="307"/>
-      <c r="AS141" s="307"/>
-      <c r="AT141" s="307"/>
-      <c r="AU141" s="307"/>
-      <c r="AV141" s="306"/>
+      <c r="AA141" s="473"/>
+      <c r="AB141" s="473"/>
+      <c r="AC141" s="473"/>
+      <c r="AD141" s="473"/>
+      <c r="AE141" s="473"/>
+      <c r="AF141" s="473"/>
+      <c r="AG141" s="473"/>
+      <c r="AH141" s="473"/>
+      <c r="AI141" s="473"/>
+      <c r="AJ141" s="473"/>
+      <c r="AK141" s="473"/>
+      <c r="AL141" s="473"/>
+      <c r="AM141" s="473"/>
+      <c r="AN141" s="473"/>
+      <c r="AO141" s="473"/>
+      <c r="AP141" s="473"/>
+      <c r="AQ141" s="473"/>
+      <c r="AR141" s="473"/>
+      <c r="AS141" s="473"/>
+      <c r="AT141" s="473"/>
+      <c r="AU141" s="473"/>
+      <c r="AV141" s="472"/>
       <c r="AW141" s="66"/>
     </row>
     <row r="142" spans="1:49">
@@ -11836,10 +11836,10 @@
       <c r="U142" s="84"/>
       <c r="V142" s="78"/>
       <c r="W142" s="79"/>
-      <c r="X142" s="308" t="s">
+      <c r="X142" s="474" t="s">
         <v>43</v>
       </c>
-      <c r="Y142" s="309"/>
+      <c r="Y142" s="475"/>
       <c r="Z142" s="85"/>
       <c r="AA142" s="81"/>
       <c r="AB142" s="81"/>
@@ -11891,8 +11891,8 @@
       <c r="U143" s="90"/>
       <c r="V143" s="93"/>
       <c r="W143" s="88"/>
-      <c r="X143" s="310"/>
-      <c r="Y143" s="311"/>
+      <c r="X143" s="476"/>
+      <c r="Y143" s="477"/>
       <c r="Z143" s="94"/>
       <c r="AA143" s="90"/>
       <c r="AB143" s="90"/>
@@ -11944,8 +11944,8 @@
       <c r="U144" s="90"/>
       <c r="V144" s="93"/>
       <c r="W144" s="88"/>
-      <c r="X144" s="310"/>
-      <c r="Y144" s="311"/>
+      <c r="X144" s="476"/>
+      <c r="Y144" s="477"/>
       <c r="Z144" s="94"/>
       <c r="AA144" s="90"/>
       <c r="AB144" s="90"/>
@@ -11997,8 +11997,8 @@
       <c r="U145" s="90"/>
       <c r="V145" s="93"/>
       <c r="W145" s="88"/>
-      <c r="X145" s="310"/>
-      <c r="Y145" s="311"/>
+      <c r="X145" s="476"/>
+      <c r="Y145" s="477"/>
       <c r="Z145" s="90"/>
       <c r="AA145" s="90"/>
       <c r="AB145" s="90"/>
@@ -12549,164 +12549,30 @@
     <row r="156" spans="1:49" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="206">
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="B6:AV10"/>
-    <mergeCell ref="B12:AV15"/>
-    <mergeCell ref="A34:I36"/>
-    <mergeCell ref="J34:O36"/>
-    <mergeCell ref="P34:U36"/>
-    <mergeCell ref="V34:Z35"/>
-    <mergeCell ref="AA34:AL35"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="AA36:AG36"/>
-    <mergeCell ref="AH36:AL36"/>
-    <mergeCell ref="AM36:AW36"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:H41"/>
-    <mergeCell ref="I40:Z41"/>
-    <mergeCell ref="AA40:AD41"/>
-    <mergeCell ref="AE40:AM40"/>
-    <mergeCell ref="AN40:AV40"/>
-    <mergeCell ref="AE41:AI41"/>
-    <mergeCell ref="AJ41:AM41"/>
-    <mergeCell ref="AN41:AR41"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:H43"/>
-    <mergeCell ref="I42:Z43"/>
-    <mergeCell ref="AA42:AD43"/>
-    <mergeCell ref="AE42:AI43"/>
-    <mergeCell ref="AJ42:AM43"/>
-    <mergeCell ref="AN42:AR43"/>
-    <mergeCell ref="AS42:AV43"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:H45"/>
-    <mergeCell ref="I44:Z45"/>
-    <mergeCell ref="AA44:AD45"/>
-    <mergeCell ref="AE44:AI45"/>
-    <mergeCell ref="AJ44:AM45"/>
-    <mergeCell ref="AN44:AR45"/>
-    <mergeCell ref="AS44:AV45"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:H47"/>
-    <mergeCell ref="I46:Z47"/>
-    <mergeCell ref="AA46:AD47"/>
-    <mergeCell ref="AE46:AI47"/>
-    <mergeCell ref="AJ46:AM47"/>
-    <mergeCell ref="AN46:AR47"/>
-    <mergeCell ref="AS46:AV47"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:H49"/>
-    <mergeCell ref="I48:Z49"/>
-    <mergeCell ref="AA48:AD49"/>
-    <mergeCell ref="AE48:AI49"/>
-    <mergeCell ref="AJ48:AM49"/>
-    <mergeCell ref="AN48:AR49"/>
-    <mergeCell ref="AS48:AV49"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:H51"/>
-    <mergeCell ref="I50:Z51"/>
-    <mergeCell ref="AA50:AD51"/>
-    <mergeCell ref="AE50:AI51"/>
-    <mergeCell ref="AJ50:AM51"/>
-    <mergeCell ref="AN50:AR51"/>
-    <mergeCell ref="AS50:AV51"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:H53"/>
-    <mergeCell ref="I52:Z53"/>
-    <mergeCell ref="AA52:AD53"/>
-    <mergeCell ref="AE52:AI53"/>
-    <mergeCell ref="AJ52:AM53"/>
-    <mergeCell ref="AN52:AR53"/>
-    <mergeCell ref="AS52:AV53"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:H55"/>
-    <mergeCell ref="I54:Z55"/>
-    <mergeCell ref="AA54:AD55"/>
-    <mergeCell ref="AE54:AI55"/>
-    <mergeCell ref="AJ54:AM55"/>
-    <mergeCell ref="AN54:AR55"/>
-    <mergeCell ref="AS54:AV55"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:H57"/>
-    <mergeCell ref="I56:Z57"/>
-    <mergeCell ref="AA56:AD57"/>
-    <mergeCell ref="AE56:AI57"/>
-    <mergeCell ref="AJ56:AM57"/>
-    <mergeCell ref="AN56:AR57"/>
-    <mergeCell ref="AS56:AV57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:H59"/>
-    <mergeCell ref="I58:Z59"/>
-    <mergeCell ref="AA58:AD59"/>
-    <mergeCell ref="AE58:AI59"/>
-    <mergeCell ref="AJ58:AM59"/>
-    <mergeCell ref="AN58:AR59"/>
-    <mergeCell ref="AS58:AV59"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="D60:H61"/>
-    <mergeCell ref="I60:Z61"/>
-    <mergeCell ref="AA60:AD61"/>
-    <mergeCell ref="AE60:AI61"/>
-    <mergeCell ref="AJ60:AM61"/>
-    <mergeCell ref="AN60:AR61"/>
-    <mergeCell ref="AS60:AV61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="D62:H63"/>
-    <mergeCell ref="I62:Z63"/>
-    <mergeCell ref="AA62:AD63"/>
-    <mergeCell ref="AE62:AI63"/>
-    <mergeCell ref="AJ62:AM63"/>
-    <mergeCell ref="AN62:AR63"/>
-    <mergeCell ref="AS62:AV63"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:H65"/>
-    <mergeCell ref="I64:Z65"/>
-    <mergeCell ref="AA64:AD65"/>
-    <mergeCell ref="AE64:AI65"/>
-    <mergeCell ref="AJ64:AM65"/>
-    <mergeCell ref="AN64:AR65"/>
-    <mergeCell ref="AS64:AV65"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="D66:H67"/>
-    <mergeCell ref="I66:Z67"/>
-    <mergeCell ref="AA66:AD67"/>
-    <mergeCell ref="AE66:AI67"/>
-    <mergeCell ref="AJ66:AM67"/>
-    <mergeCell ref="AN66:AR67"/>
-    <mergeCell ref="AS66:AV67"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="D68:H69"/>
-    <mergeCell ref="I68:Z69"/>
-    <mergeCell ref="AA68:AD69"/>
-    <mergeCell ref="AE68:AI69"/>
-    <mergeCell ref="AJ68:AM69"/>
-    <mergeCell ref="AN68:AR69"/>
-    <mergeCell ref="AS68:AV69"/>
+    <mergeCell ref="X141:Y141"/>
+    <mergeCell ref="Z141:AV141"/>
+    <mergeCell ref="X142:Y142"/>
+    <mergeCell ref="X143:Y143"/>
+    <mergeCell ref="X144:Y144"/>
+    <mergeCell ref="X145:Y145"/>
+    <mergeCell ref="AM76:AW76"/>
+    <mergeCell ref="A116:I118"/>
+    <mergeCell ref="J116:O118"/>
+    <mergeCell ref="P116:U118"/>
+    <mergeCell ref="V116:Z117"/>
+    <mergeCell ref="AA116:AL117"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="AO116:AQ116"/>
+    <mergeCell ref="AR116:AS116"/>
+    <mergeCell ref="AT116:AW116"/>
+    <mergeCell ref="AM117:AN117"/>
+    <mergeCell ref="AO117:AQ117"/>
+    <mergeCell ref="AR117:AS117"/>
+    <mergeCell ref="AT117:AW117"/>
+    <mergeCell ref="V118:Z118"/>
+    <mergeCell ref="AA118:AG118"/>
+    <mergeCell ref="AH118:AL118"/>
+    <mergeCell ref="AM118:AW118"/>
     <mergeCell ref="B70:C71"/>
     <mergeCell ref="D70:H71"/>
     <mergeCell ref="I70:Z71"/>
@@ -12731,30 +12597,164 @@
     <mergeCell ref="V76:Z76"/>
     <mergeCell ref="AA76:AG76"/>
     <mergeCell ref="AH76:AL76"/>
-    <mergeCell ref="X141:Y141"/>
-    <mergeCell ref="Z141:AV141"/>
-    <mergeCell ref="X142:Y142"/>
-    <mergeCell ref="X143:Y143"/>
-    <mergeCell ref="X144:Y144"/>
-    <mergeCell ref="X145:Y145"/>
-    <mergeCell ref="AM76:AW76"/>
-    <mergeCell ref="A116:I118"/>
-    <mergeCell ref="J116:O118"/>
-    <mergeCell ref="P116:U118"/>
-    <mergeCell ref="V116:Z117"/>
-    <mergeCell ref="AA116:AL117"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="AO116:AQ116"/>
-    <mergeCell ref="AR116:AS116"/>
-    <mergeCell ref="AT116:AW116"/>
-    <mergeCell ref="AM117:AN117"/>
-    <mergeCell ref="AO117:AQ117"/>
-    <mergeCell ref="AR117:AS117"/>
-    <mergeCell ref="AT117:AW117"/>
-    <mergeCell ref="V118:Z118"/>
-    <mergeCell ref="AA118:AG118"/>
-    <mergeCell ref="AH118:AL118"/>
-    <mergeCell ref="AM118:AW118"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="D66:H67"/>
+    <mergeCell ref="I66:Z67"/>
+    <mergeCell ref="AA66:AD67"/>
+    <mergeCell ref="AE66:AI67"/>
+    <mergeCell ref="AJ66:AM67"/>
+    <mergeCell ref="AN66:AR67"/>
+    <mergeCell ref="AS66:AV67"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="D68:H69"/>
+    <mergeCell ref="I68:Z69"/>
+    <mergeCell ref="AA68:AD69"/>
+    <mergeCell ref="AE68:AI69"/>
+    <mergeCell ref="AJ68:AM69"/>
+    <mergeCell ref="AN68:AR69"/>
+    <mergeCell ref="AS68:AV69"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:H63"/>
+    <mergeCell ref="I62:Z63"/>
+    <mergeCell ref="AA62:AD63"/>
+    <mergeCell ref="AE62:AI63"/>
+    <mergeCell ref="AJ62:AM63"/>
+    <mergeCell ref="AN62:AR63"/>
+    <mergeCell ref="AS62:AV63"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:H65"/>
+    <mergeCell ref="I64:Z65"/>
+    <mergeCell ref="AA64:AD65"/>
+    <mergeCell ref="AE64:AI65"/>
+    <mergeCell ref="AJ64:AM65"/>
+    <mergeCell ref="AN64:AR65"/>
+    <mergeCell ref="AS64:AV65"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:H59"/>
+    <mergeCell ref="I58:Z59"/>
+    <mergeCell ref="AA58:AD59"/>
+    <mergeCell ref="AE58:AI59"/>
+    <mergeCell ref="AJ58:AM59"/>
+    <mergeCell ref="AN58:AR59"/>
+    <mergeCell ref="AS58:AV59"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="D60:H61"/>
+    <mergeCell ref="I60:Z61"/>
+    <mergeCell ref="AA60:AD61"/>
+    <mergeCell ref="AE60:AI61"/>
+    <mergeCell ref="AJ60:AM61"/>
+    <mergeCell ref="AN60:AR61"/>
+    <mergeCell ref="AS60:AV61"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:H55"/>
+    <mergeCell ref="I54:Z55"/>
+    <mergeCell ref="AA54:AD55"/>
+    <mergeCell ref="AE54:AI55"/>
+    <mergeCell ref="AJ54:AM55"/>
+    <mergeCell ref="AN54:AR55"/>
+    <mergeCell ref="AS54:AV55"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:H57"/>
+    <mergeCell ref="I56:Z57"/>
+    <mergeCell ref="AA56:AD57"/>
+    <mergeCell ref="AE56:AI57"/>
+    <mergeCell ref="AJ56:AM57"/>
+    <mergeCell ref="AN56:AR57"/>
+    <mergeCell ref="AS56:AV57"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:H51"/>
+    <mergeCell ref="I50:Z51"/>
+    <mergeCell ref="AA50:AD51"/>
+    <mergeCell ref="AE50:AI51"/>
+    <mergeCell ref="AJ50:AM51"/>
+    <mergeCell ref="AN50:AR51"/>
+    <mergeCell ref="AS50:AV51"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:H53"/>
+    <mergeCell ref="I52:Z53"/>
+    <mergeCell ref="AA52:AD53"/>
+    <mergeCell ref="AE52:AI53"/>
+    <mergeCell ref="AJ52:AM53"/>
+    <mergeCell ref="AN52:AR53"/>
+    <mergeCell ref="AS52:AV53"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:H47"/>
+    <mergeCell ref="I46:Z47"/>
+    <mergeCell ref="AA46:AD47"/>
+    <mergeCell ref="AE46:AI47"/>
+    <mergeCell ref="AJ46:AM47"/>
+    <mergeCell ref="AN46:AR47"/>
+    <mergeCell ref="AS46:AV47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:H49"/>
+    <mergeCell ref="I48:Z49"/>
+    <mergeCell ref="AA48:AD49"/>
+    <mergeCell ref="AE48:AI49"/>
+    <mergeCell ref="AJ48:AM49"/>
+    <mergeCell ref="AN48:AR49"/>
+    <mergeCell ref="AS48:AV49"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="I42:Z43"/>
+    <mergeCell ref="AA42:AD43"/>
+    <mergeCell ref="AE42:AI43"/>
+    <mergeCell ref="AJ42:AM43"/>
+    <mergeCell ref="AN42:AR43"/>
+    <mergeCell ref="AS42:AV43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:H45"/>
+    <mergeCell ref="I44:Z45"/>
+    <mergeCell ref="AA44:AD45"/>
+    <mergeCell ref="AE44:AI45"/>
+    <mergeCell ref="AJ44:AM45"/>
+    <mergeCell ref="AN44:AR45"/>
+    <mergeCell ref="AS44:AV45"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:H41"/>
+    <mergeCell ref="I40:Z41"/>
+    <mergeCell ref="AA40:AD41"/>
+    <mergeCell ref="AE40:AM40"/>
+    <mergeCell ref="AN40:AV40"/>
+    <mergeCell ref="AE41:AI41"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="AN41:AR41"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="B6:AV10"/>
+    <mergeCell ref="B12:AV15"/>
+    <mergeCell ref="A34:I36"/>
+    <mergeCell ref="J34:O36"/>
+    <mergeCell ref="P34:U36"/>
+    <mergeCell ref="V34:Z35"/>
+    <mergeCell ref="AA34:AL35"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AT35:AW35"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="AA36:AG36"/>
+    <mergeCell ref="AH36:AL36"/>
+    <mergeCell ref="AM36:AW36"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -12771,8 +12771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="U178" sqref="U178"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AJ177" sqref="AJ177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12823,187 +12823,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" thickTop="1">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="324" t="s">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="324" t="s">
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="315"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325"/>
-      <c r="S1" s="325"/>
-      <c r="T1" s="325"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="333" t="s">
+      <c r="Q1" s="315"/>
+      <c r="R1" s="315"/>
+      <c r="S1" s="315"/>
+      <c r="T1" s="315"/>
+      <c r="U1" s="316"/>
+      <c r="V1" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="334"/>
-      <c r="X1" s="334"/>
-      <c r="Y1" s="334"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="339" t="s">
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="331"/>
+      <c r="AA1" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="325"/>
-      <c r="AC1" s="325"/>
-      <c r="AD1" s="325"/>
-      <c r="AE1" s="325"/>
-      <c r="AF1" s="325"/>
-      <c r="AG1" s="325"/>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="325"/>
-      <c r="AJ1" s="325"/>
-      <c r="AK1" s="325"/>
-      <c r="AL1" s="326"/>
-      <c r="AM1" s="341" t="s">
+      <c r="AB1" s="315"/>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="315"/>
+      <c r="AE1" s="315"/>
+      <c r="AF1" s="315"/>
+      <c r="AG1" s="315"/>
+      <c r="AH1" s="315"/>
+      <c r="AI1" s="315"/>
+      <c r="AJ1" s="315"/>
+      <c r="AK1" s="315"/>
+      <c r="AL1" s="316"/>
+      <c r="AM1" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="342"/>
-      <c r="AO1" s="343" t="s">
+      <c r="AN1" s="338"/>
+      <c r="AO1" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="344"/>
-      <c r="AQ1" s="345"/>
-      <c r="AR1" s="341" t="s">
+      <c r="AP1" s="346"/>
+      <c r="AQ1" s="347"/>
+      <c r="AR1" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="342"/>
-      <c r="AT1" s="346">
+      <c r="AS1" s="338"/>
+      <c r="AT1" s="356">
         <v>45056</v>
       </c>
-      <c r="AU1" s="347"/>
-      <c r="AV1" s="347"/>
-      <c r="AW1" s="348"/>
+      <c r="AU1" s="357"/>
+      <c r="AV1" s="357"/>
+      <c r="AW1" s="358"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="318"/>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="328"/>
-      <c r="R2" s="328"/>
-      <c r="S2" s="328"/>
-      <c r="T2" s="328"/>
-      <c r="U2" s="329"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="337"/>
-      <c r="X2" s="337"/>
-      <c r="Y2" s="337"/>
-      <c r="Z2" s="338"/>
-      <c r="AA2" s="340"/>
-      <c r="AB2" s="328"/>
-      <c r="AC2" s="328"/>
-      <c r="AD2" s="328"/>
-      <c r="AE2" s="328"/>
-      <c r="AF2" s="328"/>
-      <c r="AG2" s="328"/>
-      <c r="AH2" s="328"/>
-      <c r="AI2" s="328"/>
-      <c r="AJ2" s="328"/>
-      <c r="AK2" s="328"/>
-      <c r="AL2" s="329"/>
-      <c r="AM2" s="349" t="s">
+      <c r="A2" s="308"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="318"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="318"/>
+      <c r="U2" s="319"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="334"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="318"/>
+      <c r="AC2" s="318"/>
+      <c r="AD2" s="318"/>
+      <c r="AE2" s="318"/>
+      <c r="AF2" s="318"/>
+      <c r="AG2" s="318"/>
+      <c r="AH2" s="318"/>
+      <c r="AI2" s="318"/>
+      <c r="AJ2" s="318"/>
+      <c r="AK2" s="318"/>
+      <c r="AL2" s="319"/>
+      <c r="AM2" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="350"/>
-      <c r="AO2" s="351"/>
-      <c r="AP2" s="352"/>
-      <c r="AQ2" s="353"/>
-      <c r="AR2" s="349" t="s">
+      <c r="AN2" s="349"/>
+      <c r="AO2" s="350"/>
+      <c r="AP2" s="351"/>
+      <c r="AQ2" s="352"/>
+      <c r="AR2" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="350"/>
-      <c r="AT2" s="354"/>
-      <c r="AU2" s="355"/>
-      <c r="AV2" s="355"/>
-      <c r="AW2" s="356"/>
+      <c r="AS2" s="349"/>
+      <c r="AT2" s="353"/>
+      <c r="AU2" s="354"/>
+      <c r="AV2" s="354"/>
+      <c r="AW2" s="355"/>
     </row>
     <row r="3" spans="1:49" ht="15" thickBot="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="323"/>
-      <c r="J3" s="330"/>
-      <c r="K3" s="331"/>
-      <c r="L3" s="331"/>
-      <c r="M3" s="331"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="332"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="331"/>
-      <c r="R3" s="331"/>
-      <c r="S3" s="331"/>
-      <c r="T3" s="331"/>
-      <c r="U3" s="332"/>
-      <c r="V3" s="357" t="s">
+      <c r="A3" s="311"/>
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="321"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="320"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="321"/>
+      <c r="S3" s="321"/>
+      <c r="T3" s="321"/>
+      <c r="U3" s="322"/>
+      <c r="V3" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="358"/>
-      <c r="X3" s="358"/>
-      <c r="Y3" s="358"/>
-      <c r="Z3" s="359"/>
-      <c r="AA3" s="360" t="s">
+      <c r="W3" s="327"/>
+      <c r="X3" s="327"/>
+      <c r="Y3" s="327"/>
+      <c r="Z3" s="328"/>
+      <c r="AA3" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="AB3" s="361"/>
-      <c r="AC3" s="361"/>
-      <c r="AD3" s="361"/>
-      <c r="AE3" s="361"/>
-      <c r="AF3" s="361"/>
-      <c r="AG3" s="362"/>
-      <c r="AH3" s="363" t="s">
+      <c r="AB3" s="324"/>
+      <c r="AC3" s="324"/>
+      <c r="AD3" s="324"/>
+      <c r="AE3" s="324"/>
+      <c r="AF3" s="324"/>
+      <c r="AG3" s="325"/>
+      <c r="AH3" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="364"/>
-      <c r="AJ3" s="364"/>
-      <c r="AK3" s="364"/>
-      <c r="AL3" s="365"/>
-      <c r="AM3" s="312" t="s">
+      <c r="AI3" s="340"/>
+      <c r="AJ3" s="340"/>
+      <c r="AK3" s="340"/>
+      <c r="AL3" s="341"/>
+      <c r="AM3" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="AN3" s="313"/>
-      <c r="AO3" s="313"/>
-      <c r="AP3" s="313"/>
-      <c r="AQ3" s="313"/>
-      <c r="AR3" s="313"/>
-      <c r="AS3" s="313"/>
-      <c r="AT3" s="313"/>
-      <c r="AU3" s="313"/>
-      <c r="AV3" s="313"/>
-      <c r="AW3" s="314"/>
+      <c r="AN3" s="343"/>
+      <c r="AO3" s="343"/>
+      <c r="AP3" s="343"/>
+      <c r="AQ3" s="343"/>
+      <c r="AR3" s="343"/>
+      <c r="AS3" s="343"/>
+      <c r="AT3" s="343"/>
+      <c r="AU3" s="343"/>
+      <c r="AV3" s="343"/>
+      <c r="AW3" s="344"/>
     </row>
     <row r="4" spans="1:49" ht="15" thickTop="1"/>
     <row r="5" spans="1:49">
@@ -13526,187 +13526,187 @@
     </row>
     <row r="33" spans="1:49" ht="15" thickBot="1"/>
     <row r="34" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="315" t="s">
+      <c r="A34" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="316"/>
-      <c r="C34" s="316"/>
-      <c r="D34" s="316"/>
-      <c r="E34" s="316"/>
-      <c r="F34" s="316"/>
-      <c r="G34" s="316"/>
-      <c r="H34" s="316"/>
-      <c r="I34" s="317"/>
-      <c r="J34" s="324" t="s">
+      <c r="B34" s="306"/>
+      <c r="C34" s="306"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="306"/>
+      <c r="F34" s="306"/>
+      <c r="G34" s="306"/>
+      <c r="H34" s="306"/>
+      <c r="I34" s="307"/>
+      <c r="J34" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="325"/>
-      <c r="L34" s="325"/>
-      <c r="M34" s="325"/>
-      <c r="N34" s="325"/>
-      <c r="O34" s="326"/>
-      <c r="P34" s="324" t="s">
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
+      <c r="M34" s="315"/>
+      <c r="N34" s="315"/>
+      <c r="O34" s="316"/>
+      <c r="P34" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="325"/>
-      <c r="R34" s="325"/>
-      <c r="S34" s="325"/>
-      <c r="T34" s="325"/>
-      <c r="U34" s="326"/>
-      <c r="V34" s="333" t="s">
+      <c r="Q34" s="315"/>
+      <c r="R34" s="315"/>
+      <c r="S34" s="315"/>
+      <c r="T34" s="315"/>
+      <c r="U34" s="316"/>
+      <c r="V34" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="W34" s="334"/>
-      <c r="X34" s="334"/>
-      <c r="Y34" s="334"/>
-      <c r="Z34" s="335"/>
-      <c r="AA34" s="339" t="s">
+      <c r="W34" s="330"/>
+      <c r="X34" s="330"/>
+      <c r="Y34" s="330"/>
+      <c r="Z34" s="331"/>
+      <c r="AA34" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="325"/>
-      <c r="AC34" s="325"/>
-      <c r="AD34" s="325"/>
-      <c r="AE34" s="325"/>
-      <c r="AF34" s="325"/>
-      <c r="AG34" s="325"/>
-      <c r="AH34" s="325"/>
-      <c r="AI34" s="325"/>
-      <c r="AJ34" s="325"/>
-      <c r="AK34" s="325"/>
-      <c r="AL34" s="326"/>
-      <c r="AM34" s="341" t="s">
+      <c r="AB34" s="315"/>
+      <c r="AC34" s="315"/>
+      <c r="AD34" s="315"/>
+      <c r="AE34" s="315"/>
+      <c r="AF34" s="315"/>
+      <c r="AG34" s="315"/>
+      <c r="AH34" s="315"/>
+      <c r="AI34" s="315"/>
+      <c r="AJ34" s="315"/>
+      <c r="AK34" s="315"/>
+      <c r="AL34" s="316"/>
+      <c r="AM34" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AN34" s="342"/>
-      <c r="AO34" s="343" t="s">
+      <c r="AN34" s="338"/>
+      <c r="AO34" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="AP34" s="344"/>
-      <c r="AQ34" s="345"/>
-      <c r="AR34" s="341" t="s">
+      <c r="AP34" s="346"/>
+      <c r="AQ34" s="347"/>
+      <c r="AR34" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="342"/>
-      <c r="AT34" s="346">
+      <c r="AS34" s="338"/>
+      <c r="AT34" s="356">
         <v>45056</v>
       </c>
-      <c r="AU34" s="347"/>
-      <c r="AV34" s="347"/>
-      <c r="AW34" s="348"/>
+      <c r="AU34" s="357"/>
+      <c r="AV34" s="357"/>
+      <c r="AW34" s="358"/>
     </row>
     <row r="35" spans="1:49">
-      <c r="A35" s="318"/>
-      <c r="B35" s="319"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="319"/>
-      <c r="E35" s="319"/>
-      <c r="F35" s="319"/>
-      <c r="G35" s="319"/>
-      <c r="H35" s="319"/>
-      <c r="I35" s="320"/>
-      <c r="J35" s="327"/>
-      <c r="K35" s="328"/>
-      <c r="L35" s="328"/>
-      <c r="M35" s="328"/>
-      <c r="N35" s="328"/>
-      <c r="O35" s="329"/>
-      <c r="P35" s="327"/>
-      <c r="Q35" s="328"/>
-      <c r="R35" s="328"/>
-      <c r="S35" s="328"/>
-      <c r="T35" s="328"/>
-      <c r="U35" s="329"/>
-      <c r="V35" s="336"/>
-      <c r="W35" s="337"/>
-      <c r="X35" s="337"/>
-      <c r="Y35" s="337"/>
-      <c r="Z35" s="338"/>
-      <c r="AA35" s="340"/>
-      <c r="AB35" s="328"/>
-      <c r="AC35" s="328"/>
-      <c r="AD35" s="328"/>
-      <c r="AE35" s="328"/>
-      <c r="AF35" s="328"/>
-      <c r="AG35" s="328"/>
-      <c r="AH35" s="328"/>
-      <c r="AI35" s="328"/>
-      <c r="AJ35" s="328"/>
-      <c r="AK35" s="328"/>
-      <c r="AL35" s="329"/>
-      <c r="AM35" s="349" t="s">
+      <c r="A35" s="308"/>
+      <c r="B35" s="309"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="309"/>
+      <c r="E35" s="309"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="309"/>
+      <c r="H35" s="309"/>
+      <c r="I35" s="310"/>
+      <c r="J35" s="317"/>
+      <c r="K35" s="318"/>
+      <c r="L35" s="318"/>
+      <c r="M35" s="318"/>
+      <c r="N35" s="318"/>
+      <c r="O35" s="319"/>
+      <c r="P35" s="317"/>
+      <c r="Q35" s="318"/>
+      <c r="R35" s="318"/>
+      <c r="S35" s="318"/>
+      <c r="T35" s="318"/>
+      <c r="U35" s="319"/>
+      <c r="V35" s="332"/>
+      <c r="W35" s="333"/>
+      <c r="X35" s="333"/>
+      <c r="Y35" s="333"/>
+      <c r="Z35" s="334"/>
+      <c r="AA35" s="336"/>
+      <c r="AB35" s="318"/>
+      <c r="AC35" s="318"/>
+      <c r="AD35" s="318"/>
+      <c r="AE35" s="318"/>
+      <c r="AF35" s="318"/>
+      <c r="AG35" s="318"/>
+      <c r="AH35" s="318"/>
+      <c r="AI35" s="318"/>
+      <c r="AJ35" s="318"/>
+      <c r="AK35" s="318"/>
+      <c r="AL35" s="319"/>
+      <c r="AM35" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="AN35" s="350"/>
-      <c r="AO35" s="351"/>
-      <c r="AP35" s="352"/>
-      <c r="AQ35" s="353"/>
-      <c r="AR35" s="349" t="s">
+      <c r="AN35" s="349"/>
+      <c r="AO35" s="350"/>
+      <c r="AP35" s="351"/>
+      <c r="AQ35" s="352"/>
+      <c r="AR35" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="AS35" s="350"/>
-      <c r="AT35" s="354"/>
-      <c r="AU35" s="355"/>
-      <c r="AV35" s="355"/>
-      <c r="AW35" s="356"/>
+      <c r="AS35" s="349"/>
+      <c r="AT35" s="353"/>
+      <c r="AU35" s="354"/>
+      <c r="AV35" s="354"/>
+      <c r="AW35" s="355"/>
     </row>
     <row r="36" spans="1:49" ht="15" thickBot="1">
-      <c r="A36" s="321"/>
-      <c r="B36" s="322"/>
-      <c r="C36" s="322"/>
-      <c r="D36" s="322"/>
-      <c r="E36" s="322"/>
-      <c r="F36" s="322"/>
-      <c r="G36" s="322"/>
-      <c r="H36" s="322"/>
-      <c r="I36" s="323"/>
-      <c r="J36" s="330"/>
-      <c r="K36" s="331"/>
-      <c r="L36" s="331"/>
-      <c r="M36" s="331"/>
-      <c r="N36" s="331"/>
-      <c r="O36" s="332"/>
-      <c r="P36" s="330"/>
-      <c r="Q36" s="331"/>
-      <c r="R36" s="331"/>
-      <c r="S36" s="331"/>
-      <c r="T36" s="331"/>
-      <c r="U36" s="332"/>
-      <c r="V36" s="357" t="s">
+      <c r="A36" s="311"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="312"/>
+      <c r="G36" s="312"/>
+      <c r="H36" s="312"/>
+      <c r="I36" s="313"/>
+      <c r="J36" s="320"/>
+      <c r="K36" s="321"/>
+      <c r="L36" s="321"/>
+      <c r="M36" s="321"/>
+      <c r="N36" s="321"/>
+      <c r="O36" s="322"/>
+      <c r="P36" s="320"/>
+      <c r="Q36" s="321"/>
+      <c r="R36" s="321"/>
+      <c r="S36" s="321"/>
+      <c r="T36" s="321"/>
+      <c r="U36" s="322"/>
+      <c r="V36" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="358"/>
-      <c r="X36" s="358"/>
-      <c r="Y36" s="358"/>
-      <c r="Z36" s="359"/>
-      <c r="AA36" s="360" t="s">
+      <c r="W36" s="327"/>
+      <c r="X36" s="327"/>
+      <c r="Y36" s="327"/>
+      <c r="Z36" s="328"/>
+      <c r="AA36" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="AB36" s="361"/>
-      <c r="AC36" s="361"/>
-      <c r="AD36" s="361"/>
-      <c r="AE36" s="361"/>
-      <c r="AF36" s="361"/>
-      <c r="AG36" s="362"/>
-      <c r="AH36" s="363" t="s">
+      <c r="AB36" s="324"/>
+      <c r="AC36" s="324"/>
+      <c r="AD36" s="324"/>
+      <c r="AE36" s="324"/>
+      <c r="AF36" s="324"/>
+      <c r="AG36" s="325"/>
+      <c r="AH36" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="AI36" s="364"/>
-      <c r="AJ36" s="364"/>
-      <c r="AK36" s="364"/>
-      <c r="AL36" s="365"/>
-      <c r="AM36" s="312" t="s">
+      <c r="AI36" s="340"/>
+      <c r="AJ36" s="340"/>
+      <c r="AK36" s="340"/>
+      <c r="AL36" s="341"/>
+      <c r="AM36" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="AN36" s="313"/>
-      <c r="AO36" s="313"/>
-      <c r="AP36" s="313"/>
-      <c r="AQ36" s="313"/>
-      <c r="AR36" s="313"/>
-      <c r="AS36" s="313"/>
-      <c r="AT36" s="313"/>
-      <c r="AU36" s="313"/>
-      <c r="AV36" s="313"/>
-      <c r="AW36" s="314"/>
+      <c r="AN36" s="343"/>
+      <c r="AO36" s="343"/>
+      <c r="AP36" s="343"/>
+      <c r="AQ36" s="343"/>
+      <c r="AR36" s="343"/>
+      <c r="AS36" s="343"/>
+      <c r="AT36" s="343"/>
+      <c r="AU36" s="343"/>
+      <c r="AV36" s="343"/>
+      <c r="AW36" s="344"/>
     </row>
     <row r="37" spans="1:49" ht="15" thickTop="1">
       <c r="A37" s="46"/>
@@ -13921,59 +13921,59 @@
       <c r="B41" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="503" t="s">
+      <c r="C41" s="502" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="504"/>
-      <c r="E41" s="504"/>
-      <c r="F41" s="504"/>
-      <c r="G41" s="504"/>
-      <c r="H41" s="504"/>
+      <c r="D41" s="503"/>
+      <c r="E41" s="503"/>
+      <c r="F41" s="503"/>
+      <c r="G41" s="503"/>
+      <c r="H41" s="503"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
       <c r="L41" s="27"/>
-      <c r="M41" s="505" t="s">
+      <c r="M41" s="504" t="s">
         <v>49</v>
       </c>
-      <c r="N41" s="506"/>
-      <c r="O41" s="506"/>
-      <c r="P41" s="506"/>
-      <c r="Q41" s="507"/>
-      <c r="R41" s="505" t="s">
+      <c r="N41" s="505"/>
+      <c r="O41" s="505"/>
+      <c r="P41" s="505"/>
+      <c r="Q41" s="506"/>
+      <c r="R41" s="504" t="s">
         <v>50</v>
       </c>
-      <c r="S41" s="506"/>
-      <c r="T41" s="506"/>
-      <c r="U41" s="506"/>
-      <c r="V41" s="506"/>
-      <c r="W41" s="506"/>
-      <c r="X41" s="506"/>
-      <c r="Y41" s="506"/>
-      <c r="Z41" s="506"/>
-      <c r="AA41" s="506"/>
-      <c r="AB41" s="506"/>
-      <c r="AC41" s="506"/>
-      <c r="AD41" s="506"/>
-      <c r="AE41" s="506"/>
-      <c r="AF41" s="507"/>
-      <c r="AG41" s="505" t="s">
+      <c r="S41" s="505"/>
+      <c r="T41" s="505"/>
+      <c r="U41" s="505"/>
+      <c r="V41" s="505"/>
+      <c r="W41" s="505"/>
+      <c r="X41" s="505"/>
+      <c r="Y41" s="505"/>
+      <c r="Z41" s="505"/>
+      <c r="AA41" s="505"/>
+      <c r="AB41" s="505"/>
+      <c r="AC41" s="505"/>
+      <c r="AD41" s="505"/>
+      <c r="AE41" s="505"/>
+      <c r="AF41" s="506"/>
+      <c r="AG41" s="504" t="s">
         <v>51</v>
       </c>
-      <c r="AH41" s="506"/>
-      <c r="AI41" s="506"/>
-      <c r="AJ41" s="506"/>
-      <c r="AK41" s="506"/>
-      <c r="AL41" s="506"/>
-      <c r="AM41" s="506"/>
-      <c r="AN41" s="506"/>
-      <c r="AO41" s="506"/>
-      <c r="AP41" s="506"/>
-      <c r="AQ41" s="506"/>
-      <c r="AR41" s="506"/>
-      <c r="AS41" s="506"/>
-      <c r="AT41" s="506"/>
-      <c r="AU41" s="507"/>
+      <c r="AH41" s="505"/>
+      <c r="AI41" s="505"/>
+      <c r="AJ41" s="505"/>
+      <c r="AK41" s="505"/>
+      <c r="AL41" s="505"/>
+      <c r="AM41" s="505"/>
+      <c r="AN41" s="505"/>
+      <c r="AO41" s="505"/>
+      <c r="AP41" s="505"/>
+      <c r="AQ41" s="505"/>
+      <c r="AR41" s="505"/>
+      <c r="AS41" s="505"/>
+      <c r="AT41" s="505"/>
+      <c r="AU41" s="506"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="53"/>
     </row>
@@ -15036,11 +15036,11 @@
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
-      <c r="M60" s="492" t="s">
+      <c r="M60" s="507" t="s">
         <v>77</v>
       </c>
-      <c r="N60" s="493"/>
-      <c r="O60" s="494"/>
+      <c r="N60" s="508"/>
+      <c r="O60" s="509"/>
       <c r="P60" s="180"/>
       <c r="Q60" s="181" t="s">
         <v>71</v>
@@ -15103,11 +15103,11 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
-      <c r="M61" s="492" t="s">
+      <c r="M61" s="507" t="s">
         <v>77</v>
       </c>
-      <c r="N61" s="493"/>
-      <c r="O61" s="494"/>
+      <c r="N61" s="508"/>
+      <c r="O61" s="509"/>
       <c r="P61" s="180"/>
       <c r="Q61" s="181" t="s">
         <v>71</v>
@@ -15170,11 +15170,11 @@
       <c r="J62" s="30"/>
       <c r="K62" s="30"/>
       <c r="L62" s="30"/>
-      <c r="M62" s="511" t="s">
+      <c r="M62" s="490" t="s">
         <v>77</v>
       </c>
-      <c r="N62" s="512"/>
-      <c r="O62" s="513"/>
+      <c r="N62" s="491"/>
+      <c r="O62" s="492"/>
       <c r="P62" s="183"/>
       <c r="Q62" s="184" t="s">
         <v>71</v>
@@ -15282,9 +15282,9 @@
       <c r="J64" s="243"/>
       <c r="K64" s="243"/>
       <c r="L64" s="243"/>
-      <c r="M64" s="514"/>
-      <c r="N64" s="514"/>
-      <c r="O64" s="514"/>
+      <c r="M64" s="493"/>
+      <c r="N64" s="493"/>
+      <c r="O64" s="493"/>
       <c r="P64" s="259"/>
       <c r="Q64" s="259"/>
       <c r="R64" s="241"/>
@@ -15323,102 +15323,102 @@
     <row r="65" spans="1:49">
       <c r="A65" s="51"/>
       <c r="B65" s="257"/>
-      <c r="C65" s="508"/>
-      <c r="D65" s="508"/>
-      <c r="E65" s="508"/>
-      <c r="F65" s="508"/>
-      <c r="G65" s="508"/>
-      <c r="H65" s="508"/>
-      <c r="I65" s="508"/>
-      <c r="J65" s="508"/>
-      <c r="K65" s="508"/>
-      <c r="L65" s="508"/>
-      <c r="M65" s="490"/>
-      <c r="N65" s="490"/>
-      <c r="O65" s="490"/>
-      <c r="P65" s="490"/>
-      <c r="Q65" s="490"/>
-      <c r="R65" s="490"/>
-      <c r="S65" s="490"/>
-      <c r="T65" s="490"/>
-      <c r="U65" s="510"/>
-      <c r="V65" s="510"/>
-      <c r="W65" s="510"/>
-      <c r="X65" s="510"/>
-      <c r="Y65" s="491"/>
-      <c r="Z65" s="491"/>
-      <c r="AA65" s="491"/>
-      <c r="AB65" s="491"/>
-      <c r="AC65" s="491"/>
-      <c r="AD65" s="491"/>
-      <c r="AE65" s="491"/>
-      <c r="AF65" s="491"/>
-      <c r="AG65" s="491"/>
-      <c r="AH65" s="491"/>
-      <c r="AI65" s="491"/>
-      <c r="AJ65" s="491"/>
-      <c r="AK65" s="491"/>
-      <c r="AL65" s="491"/>
-      <c r="AM65" s="491"/>
-      <c r="AN65" s="491"/>
-      <c r="AO65" s="491"/>
-      <c r="AP65" s="491"/>
-      <c r="AQ65" s="491"/>
-      <c r="AR65" s="491"/>
-      <c r="AS65" s="491"/>
-      <c r="AT65" s="491"/>
-      <c r="AU65" s="491"/>
+      <c r="C65" s="486"/>
+      <c r="D65" s="486"/>
+      <c r="E65" s="486"/>
+      <c r="F65" s="486"/>
+      <c r="G65" s="486"/>
+      <c r="H65" s="486"/>
+      <c r="I65" s="486"/>
+      <c r="J65" s="486"/>
+      <c r="K65" s="486"/>
+      <c r="L65" s="486"/>
+      <c r="M65" s="488"/>
+      <c r="N65" s="488"/>
+      <c r="O65" s="488"/>
+      <c r="P65" s="488"/>
+      <c r="Q65" s="488"/>
+      <c r="R65" s="488"/>
+      <c r="S65" s="488"/>
+      <c r="T65" s="488"/>
+      <c r="U65" s="489"/>
+      <c r="V65" s="489"/>
+      <c r="W65" s="489"/>
+      <c r="X65" s="489"/>
+      <c r="Y65" s="482"/>
+      <c r="Z65" s="482"/>
+      <c r="AA65" s="482"/>
+      <c r="AB65" s="482"/>
+      <c r="AC65" s="482"/>
+      <c r="AD65" s="482"/>
+      <c r="AE65" s="482"/>
+      <c r="AF65" s="482"/>
+      <c r="AG65" s="482"/>
+      <c r="AH65" s="482"/>
+      <c r="AI65" s="482"/>
+      <c r="AJ65" s="482"/>
+      <c r="AK65" s="482"/>
+      <c r="AL65" s="482"/>
+      <c r="AM65" s="482"/>
+      <c r="AN65" s="482"/>
+      <c r="AO65" s="482"/>
+      <c r="AP65" s="482"/>
+      <c r="AQ65" s="482"/>
+      <c r="AR65" s="482"/>
+      <c r="AS65" s="482"/>
+      <c r="AT65" s="482"/>
+      <c r="AU65" s="482"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="53"/>
     </row>
     <row r="66" spans="1:49">
       <c r="A66" s="51"/>
       <c r="B66" s="257"/>
-      <c r="C66" s="509"/>
-      <c r="D66" s="509"/>
-      <c r="E66" s="509"/>
-      <c r="F66" s="509"/>
-      <c r="G66" s="509"/>
-      <c r="H66" s="509"/>
-      <c r="I66" s="508"/>
-      <c r="J66" s="508"/>
-      <c r="K66" s="508"/>
-      <c r="L66" s="508"/>
-      <c r="M66" s="491"/>
-      <c r="N66" s="491"/>
-      <c r="O66" s="491"/>
-      <c r="P66" s="490"/>
-      <c r="Q66" s="490"/>
-      <c r="R66" s="490"/>
-      <c r="S66" s="490"/>
-      <c r="T66" s="490"/>
-      <c r="U66" s="510"/>
-      <c r="V66" s="510"/>
-      <c r="W66" s="510"/>
-      <c r="X66" s="510"/>
-      <c r="Y66" s="491"/>
-      <c r="Z66" s="491"/>
-      <c r="AA66" s="491"/>
-      <c r="AB66" s="491"/>
-      <c r="AC66" s="491"/>
-      <c r="AD66" s="491"/>
-      <c r="AE66" s="491"/>
-      <c r="AF66" s="491"/>
-      <c r="AG66" s="491"/>
-      <c r="AH66" s="491"/>
-      <c r="AI66" s="491"/>
-      <c r="AJ66" s="491"/>
-      <c r="AK66" s="491"/>
-      <c r="AL66" s="491"/>
-      <c r="AM66" s="491"/>
-      <c r="AN66" s="491"/>
-      <c r="AO66" s="491"/>
-      <c r="AP66" s="491"/>
-      <c r="AQ66" s="491"/>
-      <c r="AR66" s="491"/>
-      <c r="AS66" s="491"/>
-      <c r="AT66" s="491"/>
-      <c r="AU66" s="491"/>
+      <c r="C66" s="487"/>
+      <c r="D66" s="487"/>
+      <c r="E66" s="487"/>
+      <c r="F66" s="487"/>
+      <c r="G66" s="487"/>
+      <c r="H66" s="487"/>
+      <c r="I66" s="486"/>
+      <c r="J66" s="486"/>
+      <c r="K66" s="486"/>
+      <c r="L66" s="486"/>
+      <c r="M66" s="482"/>
+      <c r="N66" s="482"/>
+      <c r="O66" s="482"/>
+      <c r="P66" s="488"/>
+      <c r="Q66" s="488"/>
+      <c r="R66" s="488"/>
+      <c r="S66" s="488"/>
+      <c r="T66" s="488"/>
+      <c r="U66" s="489"/>
+      <c r="V66" s="489"/>
+      <c r="W66" s="489"/>
+      <c r="X66" s="489"/>
+      <c r="Y66" s="482"/>
+      <c r="Z66" s="482"/>
+      <c r="AA66" s="482"/>
+      <c r="AB66" s="482"/>
+      <c r="AC66" s="482"/>
+      <c r="AD66" s="482"/>
+      <c r="AE66" s="482"/>
+      <c r="AF66" s="482"/>
+      <c r="AG66" s="482"/>
+      <c r="AH66" s="482"/>
+      <c r="AI66" s="482"/>
+      <c r="AJ66" s="482"/>
+      <c r="AK66" s="482"/>
+      <c r="AL66" s="482"/>
+      <c r="AM66" s="482"/>
+      <c r="AN66" s="482"/>
+      <c r="AO66" s="482"/>
+      <c r="AP66" s="482"/>
+      <c r="AQ66" s="482"/>
+      <c r="AR66" s="482"/>
+      <c r="AS66" s="482"/>
+      <c r="AT66" s="482"/>
+      <c r="AU66" s="482"/>
       <c r="AV66" s="1"/>
       <c r="AW66" s="53"/>
     </row>
@@ -15515,187 +15515,187 @@
       <c r="AW77" s="50"/>
     </row>
     <row r="78" spans="1:49" ht="15" thickTop="1">
-      <c r="A78" s="315" t="s">
+      <c r="A78" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="495"/>
-      <c r="C78" s="495"/>
-      <c r="D78" s="495"/>
-      <c r="E78" s="495"/>
-      <c r="F78" s="495"/>
-      <c r="G78" s="495"/>
-      <c r="H78" s="495"/>
-      <c r="I78" s="496"/>
-      <c r="J78" s="324" t="s">
+      <c r="B78" s="494"/>
+      <c r="C78" s="494"/>
+      <c r="D78" s="494"/>
+      <c r="E78" s="494"/>
+      <c r="F78" s="494"/>
+      <c r="G78" s="494"/>
+      <c r="H78" s="494"/>
+      <c r="I78" s="495"/>
+      <c r="J78" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K78" s="325"/>
-      <c r="L78" s="325"/>
-      <c r="M78" s="325"/>
-      <c r="N78" s="325"/>
-      <c r="O78" s="326"/>
-      <c r="P78" s="324" t="s">
+      <c r="K78" s="315"/>
+      <c r="L78" s="315"/>
+      <c r="M78" s="315"/>
+      <c r="N78" s="315"/>
+      <c r="O78" s="316"/>
+      <c r="P78" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="Q78" s="325"/>
-      <c r="R78" s="325"/>
-      <c r="S78" s="325"/>
-      <c r="T78" s="325"/>
-      <c r="U78" s="326"/>
-      <c r="V78" s="333" t="s">
+      <c r="Q78" s="315"/>
+      <c r="R78" s="315"/>
+      <c r="S78" s="315"/>
+      <c r="T78" s="315"/>
+      <c r="U78" s="316"/>
+      <c r="V78" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="W78" s="334"/>
-      <c r="X78" s="334"/>
-      <c r="Y78" s="334"/>
-      <c r="Z78" s="335"/>
-      <c r="AA78" s="339" t="s">
+      <c r="W78" s="330"/>
+      <c r="X78" s="330"/>
+      <c r="Y78" s="330"/>
+      <c r="Z78" s="331"/>
+      <c r="AA78" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="AB78" s="325"/>
-      <c r="AC78" s="325"/>
-      <c r="AD78" s="325"/>
-      <c r="AE78" s="325"/>
-      <c r="AF78" s="325"/>
-      <c r="AG78" s="325"/>
-      <c r="AH78" s="325"/>
-      <c r="AI78" s="325"/>
-      <c r="AJ78" s="325"/>
-      <c r="AK78" s="325"/>
-      <c r="AL78" s="326"/>
-      <c r="AM78" s="341" t="s">
+      <c r="AB78" s="315"/>
+      <c r="AC78" s="315"/>
+      <c r="AD78" s="315"/>
+      <c r="AE78" s="315"/>
+      <c r="AF78" s="315"/>
+      <c r="AG78" s="315"/>
+      <c r="AH78" s="315"/>
+      <c r="AI78" s="315"/>
+      <c r="AJ78" s="315"/>
+      <c r="AK78" s="315"/>
+      <c r="AL78" s="316"/>
+      <c r="AM78" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AN78" s="342"/>
-      <c r="AO78" s="343" t="s">
+      <c r="AN78" s="338"/>
+      <c r="AO78" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="AP78" s="344"/>
-      <c r="AQ78" s="345"/>
-      <c r="AR78" s="341" t="s">
+      <c r="AP78" s="346"/>
+      <c r="AQ78" s="347"/>
+      <c r="AR78" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="AS78" s="342"/>
-      <c r="AT78" s="346" t="s">
+      <c r="AS78" s="338"/>
+      <c r="AT78" s="356" t="s">
         <v>11</v>
       </c>
-      <c r="AU78" s="347"/>
-      <c r="AV78" s="347"/>
-      <c r="AW78" s="348"/>
+      <c r="AU78" s="357"/>
+      <c r="AV78" s="357"/>
+      <c r="AW78" s="358"/>
     </row>
     <row r="79" spans="1:49">
-      <c r="A79" s="497"/>
-      <c r="B79" s="498"/>
-      <c r="C79" s="498"/>
-      <c r="D79" s="498"/>
-      <c r="E79" s="498"/>
-      <c r="F79" s="498"/>
-      <c r="G79" s="498"/>
-      <c r="H79" s="498"/>
-      <c r="I79" s="499"/>
-      <c r="J79" s="327"/>
-      <c r="K79" s="328"/>
-      <c r="L79" s="328"/>
-      <c r="M79" s="328"/>
-      <c r="N79" s="328"/>
-      <c r="O79" s="329"/>
-      <c r="P79" s="327"/>
-      <c r="Q79" s="328"/>
-      <c r="R79" s="328"/>
-      <c r="S79" s="328"/>
-      <c r="T79" s="328"/>
-      <c r="U79" s="329"/>
-      <c r="V79" s="336"/>
-      <c r="W79" s="337"/>
-      <c r="X79" s="337"/>
-      <c r="Y79" s="337"/>
-      <c r="Z79" s="338"/>
-      <c r="AA79" s="340"/>
-      <c r="AB79" s="328"/>
-      <c r="AC79" s="328"/>
-      <c r="AD79" s="328"/>
-      <c r="AE79" s="328"/>
-      <c r="AF79" s="328"/>
-      <c r="AG79" s="328"/>
-      <c r="AH79" s="328"/>
-      <c r="AI79" s="328"/>
-      <c r="AJ79" s="328"/>
-      <c r="AK79" s="328"/>
-      <c r="AL79" s="329"/>
-      <c r="AM79" s="349" t="s">
+      <c r="A79" s="496"/>
+      <c r="B79" s="497"/>
+      <c r="C79" s="497"/>
+      <c r="D79" s="497"/>
+      <c r="E79" s="497"/>
+      <c r="F79" s="497"/>
+      <c r="G79" s="497"/>
+      <c r="H79" s="497"/>
+      <c r="I79" s="498"/>
+      <c r="J79" s="317"/>
+      <c r="K79" s="318"/>
+      <c r="L79" s="318"/>
+      <c r="M79" s="318"/>
+      <c r="N79" s="318"/>
+      <c r="O79" s="319"/>
+      <c r="P79" s="317"/>
+      <c r="Q79" s="318"/>
+      <c r="R79" s="318"/>
+      <c r="S79" s="318"/>
+      <c r="T79" s="318"/>
+      <c r="U79" s="319"/>
+      <c r="V79" s="332"/>
+      <c r="W79" s="333"/>
+      <c r="X79" s="333"/>
+      <c r="Y79" s="333"/>
+      <c r="Z79" s="334"/>
+      <c r="AA79" s="336"/>
+      <c r="AB79" s="318"/>
+      <c r="AC79" s="318"/>
+      <c r="AD79" s="318"/>
+      <c r="AE79" s="318"/>
+      <c r="AF79" s="318"/>
+      <c r="AG79" s="318"/>
+      <c r="AH79" s="318"/>
+      <c r="AI79" s="318"/>
+      <c r="AJ79" s="318"/>
+      <c r="AK79" s="318"/>
+      <c r="AL79" s="319"/>
+      <c r="AM79" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="AN79" s="350"/>
-      <c r="AO79" s="351"/>
-      <c r="AP79" s="352"/>
-      <c r="AQ79" s="353"/>
-      <c r="AR79" s="349" t="s">
+      <c r="AN79" s="349"/>
+      <c r="AO79" s="350"/>
+      <c r="AP79" s="351"/>
+      <c r="AQ79" s="352"/>
+      <c r="AR79" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="AS79" s="350"/>
-      <c r="AT79" s="354"/>
-      <c r="AU79" s="355"/>
-      <c r="AV79" s="355"/>
-      <c r="AW79" s="356"/>
+      <c r="AS79" s="349"/>
+      <c r="AT79" s="353"/>
+      <c r="AU79" s="354"/>
+      <c r="AV79" s="354"/>
+      <c r="AW79" s="355"/>
     </row>
     <row r="80" spans="1:49" ht="15" thickBot="1">
-      <c r="A80" s="500"/>
-      <c r="B80" s="501"/>
-      <c r="C80" s="501"/>
-      <c r="D80" s="501"/>
-      <c r="E80" s="501"/>
-      <c r="F80" s="501"/>
-      <c r="G80" s="501"/>
-      <c r="H80" s="501"/>
-      <c r="I80" s="502"/>
-      <c r="J80" s="330"/>
-      <c r="K80" s="331"/>
-      <c r="L80" s="331"/>
-      <c r="M80" s="331"/>
-      <c r="N80" s="331"/>
-      <c r="O80" s="332"/>
-      <c r="P80" s="330"/>
-      <c r="Q80" s="331"/>
-      <c r="R80" s="331"/>
-      <c r="S80" s="331"/>
-      <c r="T80" s="331"/>
-      <c r="U80" s="332"/>
-      <c r="V80" s="357" t="s">
+      <c r="A80" s="499"/>
+      <c r="B80" s="500"/>
+      <c r="C80" s="500"/>
+      <c r="D80" s="500"/>
+      <c r="E80" s="500"/>
+      <c r="F80" s="500"/>
+      <c r="G80" s="500"/>
+      <c r="H80" s="500"/>
+      <c r="I80" s="501"/>
+      <c r="J80" s="320"/>
+      <c r="K80" s="321"/>
+      <c r="L80" s="321"/>
+      <c r="M80" s="321"/>
+      <c r="N80" s="321"/>
+      <c r="O80" s="322"/>
+      <c r="P80" s="320"/>
+      <c r="Q80" s="321"/>
+      <c r="R80" s="321"/>
+      <c r="S80" s="321"/>
+      <c r="T80" s="321"/>
+      <c r="U80" s="322"/>
+      <c r="V80" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="W80" s="358"/>
-      <c r="X80" s="358"/>
-      <c r="Y80" s="358"/>
-      <c r="Z80" s="359"/>
-      <c r="AA80" s="360" t="s">
+      <c r="W80" s="327"/>
+      <c r="X80" s="327"/>
+      <c r="Y80" s="327"/>
+      <c r="Z80" s="328"/>
+      <c r="AA80" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="AB80" s="361"/>
-      <c r="AC80" s="361"/>
-      <c r="AD80" s="361"/>
-      <c r="AE80" s="361"/>
-      <c r="AF80" s="361"/>
-      <c r="AG80" s="362"/>
-      <c r="AH80" s="363" t="s">
+      <c r="AB80" s="324"/>
+      <c r="AC80" s="324"/>
+      <c r="AD80" s="324"/>
+      <c r="AE80" s="324"/>
+      <c r="AF80" s="324"/>
+      <c r="AG80" s="325"/>
+      <c r="AH80" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="AI80" s="364"/>
-      <c r="AJ80" s="364"/>
-      <c r="AK80" s="364"/>
-      <c r="AL80" s="365"/>
-      <c r="AM80" s="312" t="s">
+      <c r="AI80" s="340"/>
+      <c r="AJ80" s="340"/>
+      <c r="AK80" s="340"/>
+      <c r="AL80" s="341"/>
+      <c r="AM80" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="AN80" s="313"/>
-      <c r="AO80" s="313"/>
-      <c r="AP80" s="313"/>
-      <c r="AQ80" s="313"/>
-      <c r="AR80" s="313"/>
-      <c r="AS80" s="313"/>
-      <c r="AT80" s="313"/>
-      <c r="AU80" s="313"/>
-      <c r="AV80" s="313"/>
-      <c r="AW80" s="314"/>
+      <c r="AN80" s="343"/>
+      <c r="AO80" s="343"/>
+      <c r="AP80" s="343"/>
+      <c r="AQ80" s="343"/>
+      <c r="AR80" s="343"/>
+      <c r="AS80" s="343"/>
+      <c r="AT80" s="343"/>
+      <c r="AU80" s="343"/>
+      <c r="AV80" s="343"/>
+      <c r="AW80" s="344"/>
     </row>
     <row r="81" spans="1:49" ht="15" thickTop="1">
       <c r="A81" s="62"/>
@@ -16491,48 +16491,48 @@
       <c r="B100" s="63"/>
       <c r="C100" s="186"/>
       <c r="D100" s="230"/>
-      <c r="E100" s="491"/>
-      <c r="F100" s="491"/>
-      <c r="G100" s="491"/>
-      <c r="H100" s="491"/>
-      <c r="I100" s="491"/>
-      <c r="J100" s="491"/>
-      <c r="K100" s="491"/>
-      <c r="L100" s="491"/>
-      <c r="M100" s="491"/>
-      <c r="N100" s="491"/>
-      <c r="O100" s="491"/>
-      <c r="P100" s="491"/>
-      <c r="Q100" s="491"/>
-      <c r="R100" s="491"/>
-      <c r="S100" s="491"/>
-      <c r="T100" s="491"/>
-      <c r="U100" s="491"/>
-      <c r="V100" s="491"/>
-      <c r="W100" s="491"/>
-      <c r="X100" s="491"/>
-      <c r="Y100" s="491"/>
-      <c r="Z100" s="491"/>
-      <c r="AA100" s="491"/>
-      <c r="AB100" s="491"/>
-      <c r="AC100" s="491"/>
-      <c r="AD100" s="491"/>
-      <c r="AE100" s="491"/>
-      <c r="AF100" s="491"/>
-      <c r="AG100" s="491"/>
-      <c r="AH100" s="491"/>
-      <c r="AI100" s="520"/>
-      <c r="AJ100" s="520"/>
-      <c r="AK100" s="520"/>
-      <c r="AL100" s="520"/>
-      <c r="AM100" s="520"/>
-      <c r="AN100" s="520"/>
-      <c r="AO100" s="520"/>
-      <c r="AP100" s="520"/>
-      <c r="AQ100" s="520"/>
-      <c r="AR100" s="520"/>
-      <c r="AS100" s="520"/>
-      <c r="AT100" s="520"/>
+      <c r="E100" s="482"/>
+      <c r="F100" s="482"/>
+      <c r="G100" s="482"/>
+      <c r="H100" s="482"/>
+      <c r="I100" s="482"/>
+      <c r="J100" s="482"/>
+      <c r="K100" s="482"/>
+      <c r="L100" s="482"/>
+      <c r="M100" s="482"/>
+      <c r="N100" s="482"/>
+      <c r="O100" s="482"/>
+      <c r="P100" s="482"/>
+      <c r="Q100" s="482"/>
+      <c r="R100" s="482"/>
+      <c r="S100" s="482"/>
+      <c r="T100" s="482"/>
+      <c r="U100" s="482"/>
+      <c r="V100" s="482"/>
+      <c r="W100" s="482"/>
+      <c r="X100" s="482"/>
+      <c r="Y100" s="482"/>
+      <c r="Z100" s="482"/>
+      <c r="AA100" s="482"/>
+      <c r="AB100" s="482"/>
+      <c r="AC100" s="482"/>
+      <c r="AD100" s="482"/>
+      <c r="AE100" s="482"/>
+      <c r="AF100" s="482"/>
+      <c r="AG100" s="482"/>
+      <c r="AH100" s="482"/>
+      <c r="AI100" s="484"/>
+      <c r="AJ100" s="484"/>
+      <c r="AK100" s="484"/>
+      <c r="AL100" s="484"/>
+      <c r="AM100" s="484"/>
+      <c r="AN100" s="484"/>
+      <c r="AO100" s="484"/>
+      <c r="AP100" s="484"/>
+      <c r="AQ100" s="484"/>
+      <c r="AR100" s="484"/>
+      <c r="AS100" s="484"/>
+      <c r="AT100" s="484"/>
       <c r="AU100" s="5"/>
       <c r="AV100" s="64"/>
       <c r="AW100" s="66"/>
@@ -16542,48 +16542,48 @@
       <c r="B101" s="63"/>
       <c r="C101" s="64"/>
       <c r="D101" s="134"/>
-      <c r="E101" s="518"/>
-      <c r="F101" s="518"/>
-      <c r="G101" s="518"/>
-      <c r="H101" s="518"/>
-      <c r="I101" s="518"/>
-      <c r="J101" s="518"/>
-      <c r="K101" s="518"/>
-      <c r="L101" s="518"/>
-      <c r="M101" s="518"/>
-      <c r="N101" s="518"/>
-      <c r="O101" s="518"/>
-      <c r="P101" s="518"/>
-      <c r="Q101" s="518"/>
-      <c r="R101" s="518"/>
-      <c r="S101" s="518"/>
-      <c r="T101" s="518"/>
-      <c r="U101" s="518"/>
-      <c r="V101" s="518"/>
-      <c r="W101" s="518"/>
-      <c r="X101" s="518"/>
-      <c r="Y101" s="518"/>
-      <c r="Z101" s="518"/>
-      <c r="AA101" s="518"/>
-      <c r="AB101" s="518"/>
-      <c r="AC101" s="518"/>
-      <c r="AD101" s="518"/>
-      <c r="AE101" s="518"/>
-      <c r="AF101" s="518"/>
-      <c r="AG101" s="518"/>
-      <c r="AH101" s="518"/>
-      <c r="AI101" s="520"/>
-      <c r="AJ101" s="520"/>
-      <c r="AK101" s="520"/>
-      <c r="AL101" s="520"/>
-      <c r="AM101" s="520"/>
-      <c r="AN101" s="520"/>
-      <c r="AO101" s="520"/>
-      <c r="AP101" s="520"/>
-      <c r="AQ101" s="520"/>
-      <c r="AR101" s="520"/>
-      <c r="AS101" s="520"/>
-      <c r="AT101" s="520"/>
+      <c r="E101" s="481"/>
+      <c r="F101" s="481"/>
+      <c r="G101" s="481"/>
+      <c r="H101" s="481"/>
+      <c r="I101" s="481"/>
+      <c r="J101" s="481"/>
+      <c r="K101" s="481"/>
+      <c r="L101" s="481"/>
+      <c r="M101" s="481"/>
+      <c r="N101" s="481"/>
+      <c r="O101" s="481"/>
+      <c r="P101" s="481"/>
+      <c r="Q101" s="481"/>
+      <c r="R101" s="481"/>
+      <c r="S101" s="481"/>
+      <c r="T101" s="481"/>
+      <c r="U101" s="481"/>
+      <c r="V101" s="481"/>
+      <c r="W101" s="481"/>
+      <c r="X101" s="481"/>
+      <c r="Y101" s="481"/>
+      <c r="Z101" s="481"/>
+      <c r="AA101" s="481"/>
+      <c r="AB101" s="481"/>
+      <c r="AC101" s="481"/>
+      <c r="AD101" s="481"/>
+      <c r="AE101" s="481"/>
+      <c r="AF101" s="481"/>
+      <c r="AG101" s="481"/>
+      <c r="AH101" s="481"/>
+      <c r="AI101" s="484"/>
+      <c r="AJ101" s="484"/>
+      <c r="AK101" s="484"/>
+      <c r="AL101" s="484"/>
+      <c r="AM101" s="484"/>
+      <c r="AN101" s="484"/>
+      <c r="AO101" s="484"/>
+      <c r="AP101" s="484"/>
+      <c r="AQ101" s="484"/>
+      <c r="AR101" s="484"/>
+      <c r="AS101" s="484"/>
+      <c r="AT101" s="484"/>
       <c r="AU101" s="5"/>
       <c r="AV101" s="64"/>
       <c r="AW101" s="66"/>
@@ -16593,48 +16593,48 @@
       <c r="B102" s="63"/>
       <c r="C102" s="133"/>
       <c r="D102" s="65"/>
-      <c r="E102" s="518"/>
-      <c r="F102" s="518"/>
-      <c r="G102" s="518"/>
-      <c r="H102" s="518"/>
-      <c r="I102" s="518"/>
-      <c r="J102" s="518"/>
-      <c r="K102" s="518"/>
-      <c r="L102" s="518"/>
-      <c r="M102" s="519"/>
-      <c r="N102" s="519"/>
-      <c r="O102" s="519"/>
-      <c r="P102" s="519"/>
-      <c r="Q102" s="519"/>
-      <c r="R102" s="519"/>
-      <c r="S102" s="519"/>
-      <c r="T102" s="519"/>
-      <c r="U102" s="519"/>
-      <c r="V102" s="519"/>
-      <c r="W102" s="519"/>
-      <c r="X102" s="519"/>
-      <c r="Y102" s="519"/>
-      <c r="Z102" s="519"/>
-      <c r="AA102" s="519"/>
-      <c r="AB102" s="519"/>
-      <c r="AC102" s="519"/>
-      <c r="AD102" s="519"/>
-      <c r="AE102" s="519"/>
-      <c r="AF102" s="519"/>
-      <c r="AG102" s="519"/>
-      <c r="AH102" s="519"/>
-      <c r="AI102" s="521"/>
-      <c r="AJ102" s="521"/>
-      <c r="AK102" s="521"/>
-      <c r="AL102" s="521"/>
-      <c r="AM102" s="521"/>
-      <c r="AN102" s="521"/>
-      <c r="AO102" s="521"/>
-      <c r="AP102" s="521"/>
-      <c r="AQ102" s="521"/>
-      <c r="AR102" s="521"/>
-      <c r="AS102" s="521"/>
-      <c r="AT102" s="521"/>
+      <c r="E102" s="481"/>
+      <c r="F102" s="481"/>
+      <c r="G102" s="481"/>
+      <c r="H102" s="481"/>
+      <c r="I102" s="481"/>
+      <c r="J102" s="481"/>
+      <c r="K102" s="481"/>
+      <c r="L102" s="481"/>
+      <c r="M102" s="483"/>
+      <c r="N102" s="483"/>
+      <c r="O102" s="483"/>
+      <c r="P102" s="483"/>
+      <c r="Q102" s="483"/>
+      <c r="R102" s="483"/>
+      <c r="S102" s="483"/>
+      <c r="T102" s="483"/>
+      <c r="U102" s="483"/>
+      <c r="V102" s="483"/>
+      <c r="W102" s="483"/>
+      <c r="X102" s="483"/>
+      <c r="Y102" s="483"/>
+      <c r="Z102" s="483"/>
+      <c r="AA102" s="483"/>
+      <c r="AB102" s="483"/>
+      <c r="AC102" s="483"/>
+      <c r="AD102" s="483"/>
+      <c r="AE102" s="483"/>
+      <c r="AF102" s="483"/>
+      <c r="AG102" s="483"/>
+      <c r="AH102" s="483"/>
+      <c r="AI102" s="485"/>
+      <c r="AJ102" s="485"/>
+      <c r="AK102" s="485"/>
+      <c r="AL102" s="485"/>
+      <c r="AM102" s="485"/>
+      <c r="AN102" s="485"/>
+      <c r="AO102" s="485"/>
+      <c r="AP102" s="485"/>
+      <c r="AQ102" s="485"/>
+      <c r="AR102" s="485"/>
+      <c r="AS102" s="485"/>
+      <c r="AT102" s="485"/>
       <c r="AU102" s="5"/>
       <c r="AV102" s="64"/>
       <c r="AW102" s="66"/>
@@ -17039,187 +17039,187 @@
       <c r="AW115" s="75"/>
     </row>
     <row r="116" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A116" s="315" t="s">
+      <c r="A116" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="316"/>
-      <c r="C116" s="316"/>
-      <c r="D116" s="316"/>
-      <c r="E116" s="316"/>
-      <c r="F116" s="316"/>
-      <c r="G116" s="316"/>
-      <c r="H116" s="316"/>
-      <c r="I116" s="317"/>
-      <c r="J116" s="324" t="s">
+      <c r="B116" s="306"/>
+      <c r="C116" s="306"/>
+      <c r="D116" s="306"/>
+      <c r="E116" s="306"/>
+      <c r="F116" s="306"/>
+      <c r="G116" s="306"/>
+      <c r="H116" s="306"/>
+      <c r="I116" s="307"/>
+      <c r="J116" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K116" s="325"/>
-      <c r="L116" s="325"/>
-      <c r="M116" s="325"/>
-      <c r="N116" s="325"/>
-      <c r="O116" s="326"/>
-      <c r="P116" s="324" t="s">
+      <c r="K116" s="315"/>
+      <c r="L116" s="315"/>
+      <c r="M116" s="315"/>
+      <c r="N116" s="315"/>
+      <c r="O116" s="316"/>
+      <c r="P116" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="Q116" s="325"/>
-      <c r="R116" s="325"/>
-      <c r="S116" s="325"/>
-      <c r="T116" s="325"/>
-      <c r="U116" s="326"/>
-      <c r="V116" s="333" t="s">
+      <c r="Q116" s="315"/>
+      <c r="R116" s="315"/>
+      <c r="S116" s="315"/>
+      <c r="T116" s="315"/>
+      <c r="U116" s="316"/>
+      <c r="V116" s="329" t="s">
         <v>3</v>
       </c>
-      <c r="W116" s="334"/>
-      <c r="X116" s="334"/>
-      <c r="Y116" s="334"/>
-      <c r="Z116" s="335"/>
-      <c r="AA116" s="339" t="s">
+      <c r="W116" s="330"/>
+      <c r="X116" s="330"/>
+      <c r="Y116" s="330"/>
+      <c r="Z116" s="331"/>
+      <c r="AA116" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="AB116" s="325"/>
-      <c r="AC116" s="325"/>
-      <c r="AD116" s="325"/>
-      <c r="AE116" s="325"/>
-      <c r="AF116" s="325"/>
-      <c r="AG116" s="325"/>
-      <c r="AH116" s="325"/>
-      <c r="AI116" s="325"/>
-      <c r="AJ116" s="325"/>
-      <c r="AK116" s="325"/>
-      <c r="AL116" s="326"/>
-      <c r="AM116" s="341" t="s">
+      <c r="AB116" s="315"/>
+      <c r="AC116" s="315"/>
+      <c r="AD116" s="315"/>
+      <c r="AE116" s="315"/>
+      <c r="AF116" s="315"/>
+      <c r="AG116" s="315"/>
+      <c r="AH116" s="315"/>
+      <c r="AI116" s="315"/>
+      <c r="AJ116" s="315"/>
+      <c r="AK116" s="315"/>
+      <c r="AL116" s="316"/>
+      <c r="AM116" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AN116" s="342"/>
-      <c r="AO116" s="343" t="s">
+      <c r="AN116" s="338"/>
+      <c r="AO116" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="AP116" s="344"/>
-      <c r="AQ116" s="345"/>
-      <c r="AR116" s="341" t="s">
+      <c r="AP116" s="346"/>
+      <c r="AQ116" s="347"/>
+      <c r="AR116" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="AS116" s="342"/>
-      <c r="AT116" s="346">
+      <c r="AS116" s="338"/>
+      <c r="AT116" s="356">
         <v>45056</v>
       </c>
-      <c r="AU116" s="347"/>
-      <c r="AV116" s="347"/>
-      <c r="AW116" s="348"/>
+      <c r="AU116" s="357"/>
+      <c r="AV116" s="357"/>
+      <c r="AW116" s="358"/>
     </row>
     <row r="117" spans="1:49">
-      <c r="A117" s="318"/>
-      <c r="B117" s="319"/>
-      <c r="C117" s="319"/>
-      <c r="D117" s="319"/>
-      <c r="E117" s="319"/>
-      <c r="F117" s="319"/>
-      <c r="G117" s="319"/>
-      <c r="H117" s="319"/>
-      <c r="I117" s="320"/>
-      <c r="J117" s="327"/>
-      <c r="K117" s="328"/>
-      <c r="L117" s="328"/>
-      <c r="M117" s="328"/>
-      <c r="N117" s="328"/>
-      <c r="O117" s="329"/>
-      <c r="P117" s="327"/>
-      <c r="Q117" s="328"/>
-      <c r="R117" s="328"/>
-      <c r="S117" s="328"/>
-      <c r="T117" s="328"/>
-      <c r="U117" s="329"/>
-      <c r="V117" s="336"/>
-      <c r="W117" s="337"/>
-      <c r="X117" s="337"/>
-      <c r="Y117" s="337"/>
-      <c r="Z117" s="338"/>
-      <c r="AA117" s="340"/>
-      <c r="AB117" s="328"/>
-      <c r="AC117" s="328"/>
-      <c r="AD117" s="328"/>
-      <c r="AE117" s="328"/>
-      <c r="AF117" s="328"/>
-      <c r="AG117" s="328"/>
-      <c r="AH117" s="328"/>
-      <c r="AI117" s="328"/>
-      <c r="AJ117" s="328"/>
-      <c r="AK117" s="328"/>
-      <c r="AL117" s="329"/>
-      <c r="AM117" s="349" t="s">
+      <c r="A117" s="308"/>
+      <c r="B117" s="309"/>
+      <c r="C117" s="309"/>
+      <c r="D117" s="309"/>
+      <c r="E117" s="309"/>
+      <c r="F117" s="309"/>
+      <c r="G117" s="309"/>
+      <c r="H117" s="309"/>
+      <c r="I117" s="310"/>
+      <c r="J117" s="317"/>
+      <c r="K117" s="318"/>
+      <c r="L117" s="318"/>
+      <c r="M117" s="318"/>
+      <c r="N117" s="318"/>
+      <c r="O117" s="319"/>
+      <c r="P117" s="317"/>
+      <c r="Q117" s="318"/>
+      <c r="R117" s="318"/>
+      <c r="S117" s="318"/>
+      <c r="T117" s="318"/>
+      <c r="U117" s="319"/>
+      <c r="V117" s="332"/>
+      <c r="W117" s="333"/>
+      <c r="X117" s="333"/>
+      <c r="Y117" s="333"/>
+      <c r="Z117" s="334"/>
+      <c r="AA117" s="336"/>
+      <c r="AB117" s="318"/>
+      <c r="AC117" s="318"/>
+      <c r="AD117" s="318"/>
+      <c r="AE117" s="318"/>
+      <c r="AF117" s="318"/>
+      <c r="AG117" s="318"/>
+      <c r="AH117" s="318"/>
+      <c r="AI117" s="318"/>
+      <c r="AJ117" s="318"/>
+      <c r="AK117" s="318"/>
+      <c r="AL117" s="319"/>
+      <c r="AM117" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="AN117" s="350"/>
-      <c r="AO117" s="351"/>
-      <c r="AP117" s="352"/>
-      <c r="AQ117" s="353"/>
-      <c r="AR117" s="349" t="s">
+      <c r="AN117" s="349"/>
+      <c r="AO117" s="350"/>
+      <c r="AP117" s="351"/>
+      <c r="AQ117" s="352"/>
+      <c r="AR117" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="AS117" s="350"/>
-      <c r="AT117" s="354"/>
-      <c r="AU117" s="355"/>
-      <c r="AV117" s="355"/>
-      <c r="AW117" s="356"/>
+      <c r="AS117" s="349"/>
+      <c r="AT117" s="353"/>
+      <c r="AU117" s="354"/>
+      <c r="AV117" s="354"/>
+      <c r="AW117" s="355"/>
     </row>
     <row r="118" spans="1:49" ht="15" thickBot="1">
-      <c r="A118" s="321"/>
-      <c r="B118" s="322"/>
-      <c r="C118" s="322"/>
-      <c r="D118" s="322"/>
-      <c r="E118" s="322"/>
-      <c r="F118" s="322"/>
-      <c r="G118" s="322"/>
-      <c r="H118" s="322"/>
-      <c r="I118" s="323"/>
-      <c r="J118" s="330"/>
-      <c r="K118" s="331"/>
-      <c r="L118" s="331"/>
-      <c r="M118" s="331"/>
-      <c r="N118" s="331"/>
-      <c r="O118" s="332"/>
-      <c r="P118" s="330"/>
-      <c r="Q118" s="331"/>
-      <c r="R118" s="331"/>
-      <c r="S118" s="331"/>
-      <c r="T118" s="331"/>
-      <c r="U118" s="332"/>
-      <c r="V118" s="357" t="s">
+      <c r="A118" s="311"/>
+      <c r="B118" s="312"/>
+      <c r="C118" s="312"/>
+      <c r="D118" s="312"/>
+      <c r="E118" s="312"/>
+      <c r="F118" s="312"/>
+      <c r="G118" s="312"/>
+      <c r="H118" s="312"/>
+      <c r="I118" s="313"/>
+      <c r="J118" s="320"/>
+      <c r="K118" s="321"/>
+      <c r="L118" s="321"/>
+      <c r="M118" s="321"/>
+      <c r="N118" s="321"/>
+      <c r="O118" s="322"/>
+      <c r="P118" s="320"/>
+      <c r="Q118" s="321"/>
+      <c r="R118" s="321"/>
+      <c r="S118" s="321"/>
+      <c r="T118" s="321"/>
+      <c r="U118" s="322"/>
+      <c r="V118" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="W118" s="358"/>
-      <c r="X118" s="358"/>
-      <c r="Y118" s="358"/>
-      <c r="Z118" s="359"/>
-      <c r="AA118" s="360" t="s">
+      <c r="W118" s="327"/>
+      <c r="X118" s="327"/>
+      <c r="Y118" s="327"/>
+      <c r="Z118" s="328"/>
+      <c r="AA118" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="AB118" s="361"/>
-      <c r="AC118" s="361"/>
-      <c r="AD118" s="361"/>
-      <c r="AE118" s="361"/>
-      <c r="AF118" s="361"/>
-      <c r="AG118" s="362"/>
-      <c r="AH118" s="363" t="s">
+      <c r="AB118" s="324"/>
+      <c r="AC118" s="324"/>
+      <c r="AD118" s="324"/>
+      <c r="AE118" s="324"/>
+      <c r="AF118" s="324"/>
+      <c r="AG118" s="325"/>
+      <c r="AH118" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="AI118" s="364"/>
-      <c r="AJ118" s="364"/>
-      <c r="AK118" s="364"/>
-      <c r="AL118" s="365"/>
-      <c r="AM118" s="312" t="s">
+      <c r="AI118" s="340"/>
+      <c r="AJ118" s="340"/>
+      <c r="AK118" s="340"/>
+      <c r="AL118" s="341"/>
+      <c r="AM118" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="AN118" s="313"/>
-      <c r="AO118" s="313"/>
-      <c r="AP118" s="313"/>
-      <c r="AQ118" s="313"/>
-      <c r="AR118" s="313"/>
-      <c r="AS118" s="313"/>
-      <c r="AT118" s="313"/>
-      <c r="AU118" s="313"/>
-      <c r="AV118" s="313"/>
-      <c r="AW118" s="314"/>
+      <c r="AN118" s="343"/>
+      <c r="AO118" s="343"/>
+      <c r="AP118" s="343"/>
+      <c r="AQ118" s="343"/>
+      <c r="AR118" s="343"/>
+      <c r="AS118" s="343"/>
+      <c r="AT118" s="343"/>
+      <c r="AU118" s="343"/>
+      <c r="AV118" s="343"/>
+      <c r="AW118" s="344"/>
     </row>
     <row r="119" spans="1:49" ht="15" thickTop="1">
       <c r="A119" s="46"/>
@@ -18182,24 +18182,24 @@
       <c r="Z138" s="64"/>
       <c r="AA138" s="64"/>
       <c r="AB138" s="64"/>
-      <c r="AC138" s="490"/>
-      <c r="AD138" s="490"/>
-      <c r="AE138" s="490"/>
-      <c r="AF138" s="490"/>
-      <c r="AG138" s="490"/>
-      <c r="AH138" s="490"/>
-      <c r="AI138" s="490"/>
-      <c r="AJ138" s="490"/>
-      <c r="AK138" s="491"/>
-      <c r="AL138" s="491"/>
-      <c r="AM138" s="491"/>
-      <c r="AN138" s="491"/>
-      <c r="AO138" s="491"/>
-      <c r="AP138" s="491"/>
-      <c r="AQ138" s="491"/>
-      <c r="AR138" s="491"/>
-      <c r="AS138" s="491"/>
-      <c r="AT138" s="491"/>
+      <c r="AC138" s="488"/>
+      <c r="AD138" s="488"/>
+      <c r="AE138" s="488"/>
+      <c r="AF138" s="488"/>
+      <c r="AG138" s="488"/>
+      <c r="AH138" s="488"/>
+      <c r="AI138" s="488"/>
+      <c r="AJ138" s="488"/>
+      <c r="AK138" s="482"/>
+      <c r="AL138" s="482"/>
+      <c r="AM138" s="482"/>
+      <c r="AN138" s="482"/>
+      <c r="AO138" s="482"/>
+      <c r="AP138" s="482"/>
+      <c r="AQ138" s="482"/>
+      <c r="AR138" s="482"/>
+      <c r="AS138" s="482"/>
+      <c r="AT138" s="482"/>
       <c r="AW138" s="66"/>
     </row>
     <row r="139" spans="1:49">
@@ -19487,30 +19487,30 @@
       <c r="K164" s="192"/>
       <c r="L164" s="192"/>
       <c r="M164" s="193"/>
-      <c r="N164" s="487" t="s">
+      <c r="N164" s="519" t="s">
         <v>131</v>
       </c>
-      <c r="O164" s="488"/>
-      <c r="P164" s="488"/>
-      <c r="Q164" s="488"/>
-      <c r="R164" s="488"/>
-      <c r="S164" s="488"/>
-      <c r="T164" s="488"/>
-      <c r="U164" s="488"/>
-      <c r="V164" s="488"/>
-      <c r="W164" s="488"/>
-      <c r="X164" s="488"/>
-      <c r="Y164" s="488"/>
-      <c r="Z164" s="488"/>
-      <c r="AA164" s="488"/>
-      <c r="AB164" s="488"/>
-      <c r="AC164" s="488"/>
-      <c r="AD164" s="488"/>
-      <c r="AE164" s="488"/>
-      <c r="AF164" s="488"/>
-      <c r="AG164" s="488"/>
-      <c r="AH164" s="488"/>
-      <c r="AI164" s="489"/>
+      <c r="O164" s="520"/>
+      <c r="P164" s="520"/>
+      <c r="Q164" s="520"/>
+      <c r="R164" s="520"/>
+      <c r="S164" s="520"/>
+      <c r="T164" s="520"/>
+      <c r="U164" s="520"/>
+      <c r="V164" s="520"/>
+      <c r="W164" s="520"/>
+      <c r="X164" s="520"/>
+      <c r="Y164" s="520"/>
+      <c r="Z164" s="520"/>
+      <c r="AA164" s="520"/>
+      <c r="AB164" s="520"/>
+      <c r="AC164" s="520"/>
+      <c r="AD164" s="520"/>
+      <c r="AE164" s="520"/>
+      <c r="AF164" s="520"/>
+      <c r="AG164" s="520"/>
+      <c r="AH164" s="520"/>
+      <c r="AI164" s="521"/>
       <c r="AJ164" s="209" t="s">
         <v>136</v>
       </c>
@@ -19585,54 +19585,54 @@
       <c r="E166" s="210">
         <v>7</v>
       </c>
-      <c r="F166" s="484" t="s">
+      <c r="F166" s="516" t="s">
         <v>99</v>
       </c>
-      <c r="G166" s="485"/>
-      <c r="H166" s="485"/>
-      <c r="I166" s="485"/>
-      <c r="J166" s="485"/>
-      <c r="K166" s="485"/>
-      <c r="L166" s="485"/>
-      <c r="M166" s="486"/>
-      <c r="N166" s="481" t="s">
+      <c r="G166" s="517"/>
+      <c r="H166" s="517"/>
+      <c r="I166" s="517"/>
+      <c r="J166" s="517"/>
+      <c r="K166" s="517"/>
+      <c r="L166" s="517"/>
+      <c r="M166" s="518"/>
+      <c r="N166" s="513" t="s">
         <v>139</v>
       </c>
-      <c r="O166" s="482"/>
-      <c r="P166" s="482"/>
-      <c r="Q166" s="482"/>
-      <c r="R166" s="482"/>
-      <c r="S166" s="482"/>
-      <c r="T166" s="482"/>
-      <c r="U166" s="482"/>
-      <c r="V166" s="482"/>
-      <c r="W166" s="482"/>
-      <c r="X166" s="482"/>
-      <c r="Y166" s="482"/>
-      <c r="Z166" s="482"/>
-      <c r="AA166" s="482"/>
-      <c r="AB166" s="482"/>
-      <c r="AC166" s="482"/>
-      <c r="AD166" s="482"/>
-      <c r="AE166" s="482"/>
-      <c r="AF166" s="482"/>
-      <c r="AG166" s="482"/>
-      <c r="AH166" s="482"/>
-      <c r="AI166" s="483"/>
-      <c r="AJ166" s="478" t="s">
+      <c r="O166" s="514"/>
+      <c r="P166" s="514"/>
+      <c r="Q166" s="514"/>
+      <c r="R166" s="514"/>
+      <c r="S166" s="514"/>
+      <c r="T166" s="514"/>
+      <c r="U166" s="514"/>
+      <c r="V166" s="514"/>
+      <c r="W166" s="514"/>
+      <c r="X166" s="514"/>
+      <c r="Y166" s="514"/>
+      <c r="Z166" s="514"/>
+      <c r="AA166" s="514"/>
+      <c r="AB166" s="514"/>
+      <c r="AC166" s="514"/>
+      <c r="AD166" s="514"/>
+      <c r="AE166" s="514"/>
+      <c r="AF166" s="514"/>
+      <c r="AG166" s="514"/>
+      <c r="AH166" s="514"/>
+      <c r="AI166" s="515"/>
+      <c r="AJ166" s="510" t="s">
         <v>140</v>
       </c>
-      <c r="AK166" s="479"/>
-      <c r="AL166" s="479"/>
-      <c r="AM166" s="479"/>
-      <c r="AN166" s="479"/>
-      <c r="AO166" s="479"/>
-      <c r="AP166" s="479"/>
-      <c r="AQ166" s="479"/>
-      <c r="AR166" s="479"/>
-      <c r="AS166" s="479"/>
-      <c r="AT166" s="479"/>
-      <c r="AU166" s="480"/>
+      <c r="AK166" s="511"/>
+      <c r="AL166" s="511"/>
+      <c r="AM166" s="511"/>
+      <c r="AN166" s="511"/>
+      <c r="AO166" s="511"/>
+      <c r="AP166" s="511"/>
+      <c r="AQ166" s="511"/>
+      <c r="AR166" s="511"/>
+      <c r="AS166" s="511"/>
+      <c r="AT166" s="511"/>
+      <c r="AU166" s="512"/>
     </row>
     <row r="167" spans="4:47">
       <c r="D167" s="235"/>
@@ -19673,20 +19673,20 @@
       <c r="AG167" s="284"/>
       <c r="AH167" s="284"/>
       <c r="AI167" s="292"/>
-      <c r="AJ167" s="515" t="s">
+      <c r="AJ167" s="478" t="s">
         <v>142</v>
       </c>
-      <c r="AK167" s="516"/>
-      <c r="AL167" s="516"/>
-      <c r="AM167" s="516"/>
-      <c r="AN167" s="516"/>
-      <c r="AO167" s="516"/>
-      <c r="AP167" s="516"/>
-      <c r="AQ167" s="516"/>
-      <c r="AR167" s="516"/>
-      <c r="AS167" s="516"/>
-      <c r="AT167" s="516"/>
-      <c r="AU167" s="517"/>
+      <c r="AK167" s="479"/>
+      <c r="AL167" s="479"/>
+      <c r="AM167" s="479"/>
+      <c r="AN167" s="479"/>
+      <c r="AO167" s="479"/>
+      <c r="AP167" s="479"/>
+      <c r="AQ167" s="479"/>
+      <c r="AR167" s="479"/>
+      <c r="AS167" s="479"/>
+      <c r="AT167" s="479"/>
+      <c r="AU167" s="480"/>
     </row>
     <row r="168" spans="4:47">
       <c r="D168" s="235"/>
@@ -20417,50 +20417,43 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="AJ167:AU167"/>
-    <mergeCell ref="E102:L102"/>
-    <mergeCell ref="M100:AH100"/>
-    <mergeCell ref="M101:AH101"/>
-    <mergeCell ref="M102:AH102"/>
-    <mergeCell ref="AI100:AT100"/>
-    <mergeCell ref="AI101:AT101"/>
-    <mergeCell ref="AI102:AT102"/>
-    <mergeCell ref="E100:L100"/>
-    <mergeCell ref="E101:L101"/>
-    <mergeCell ref="V116:Z117"/>
-    <mergeCell ref="AA116:AL117"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="V118:Z118"/>
-    <mergeCell ref="AA118:AG118"/>
-    <mergeCell ref="AH118:AL118"/>
-    <mergeCell ref="AM118:AW118"/>
-    <mergeCell ref="AR116:AS116"/>
-    <mergeCell ref="AT116:AW116"/>
-    <mergeCell ref="AR117:AS117"/>
-    <mergeCell ref="AT117:AW117"/>
-    <mergeCell ref="A116:I118"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="Y65:AB65"/>
-    <mergeCell ref="Y66:AB66"/>
-    <mergeCell ref="AC65:AU65"/>
-    <mergeCell ref="AC66:AU66"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U65:X65"/>
-    <mergeCell ref="U66:X66"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AJ166:AU166"/>
+    <mergeCell ref="N164:AI164"/>
+    <mergeCell ref="AO78:AQ78"/>
+    <mergeCell ref="AR78:AS78"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="AO116:AQ116"/>
+    <mergeCell ref="AC138:AJ138"/>
+    <mergeCell ref="AK138:AM138"/>
+    <mergeCell ref="AN138:AT138"/>
+    <mergeCell ref="J116:O118"/>
+    <mergeCell ref="P116:U118"/>
+    <mergeCell ref="AM117:AN117"/>
+    <mergeCell ref="AO117:AQ117"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AT35:AW35"/>
+    <mergeCell ref="A78:I80"/>
+    <mergeCell ref="J78:O80"/>
+    <mergeCell ref="P78:U80"/>
+    <mergeCell ref="V78:Z79"/>
+    <mergeCell ref="AA78:AL79"/>
+    <mergeCell ref="AR79:AS79"/>
+    <mergeCell ref="AT79:AW79"/>
+    <mergeCell ref="V80:Z80"/>
+    <mergeCell ref="AA80:AG80"/>
+    <mergeCell ref="AH80:AL80"/>
+    <mergeCell ref="AM80:AW80"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="R41:AF41"/>
+    <mergeCell ref="AG41:AU41"/>
+    <mergeCell ref="AH36:AL36"/>
+    <mergeCell ref="AM36:AW36"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AM79:AN79"/>
+    <mergeCell ref="AO79:AQ79"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="AM78:AN78"/>
     <mergeCell ref="AM3:AW3"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
@@ -20485,47 +20478,54 @@
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="V36:Z36"/>
     <mergeCell ref="AA36:AG36"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="Y65:AB65"/>
+    <mergeCell ref="Y66:AB66"/>
+    <mergeCell ref="AC65:AU65"/>
+    <mergeCell ref="AC66:AU66"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U65:X65"/>
+    <mergeCell ref="U66:X66"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="AT34:AW34"/>
     <mergeCell ref="AM35:AN35"/>
     <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="A78:I80"/>
-    <mergeCell ref="J78:O80"/>
-    <mergeCell ref="P78:U80"/>
-    <mergeCell ref="V78:Z79"/>
-    <mergeCell ref="AA78:AL79"/>
-    <mergeCell ref="AR79:AS79"/>
-    <mergeCell ref="AT79:AW79"/>
-    <mergeCell ref="V80:Z80"/>
-    <mergeCell ref="AA80:AG80"/>
-    <mergeCell ref="AH80:AL80"/>
-    <mergeCell ref="AM80:AW80"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="R41:AF41"/>
-    <mergeCell ref="AG41:AU41"/>
-    <mergeCell ref="AH36:AL36"/>
-    <mergeCell ref="AM36:AW36"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AM79:AN79"/>
-    <mergeCell ref="AO79:AQ79"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="AM78:AN78"/>
-    <mergeCell ref="AO78:AQ78"/>
-    <mergeCell ref="AR78:AS78"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="AO116:AQ116"/>
-    <mergeCell ref="AJ166:AU166"/>
+    <mergeCell ref="AJ167:AU167"/>
+    <mergeCell ref="E102:L102"/>
+    <mergeCell ref="M100:AH100"/>
+    <mergeCell ref="M101:AH101"/>
+    <mergeCell ref="M102:AH102"/>
+    <mergeCell ref="AI100:AT100"/>
+    <mergeCell ref="AI101:AT101"/>
+    <mergeCell ref="AI102:AT102"/>
+    <mergeCell ref="E100:L100"/>
+    <mergeCell ref="E101:L101"/>
+    <mergeCell ref="V116:Z117"/>
+    <mergeCell ref="AA116:AL117"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="V118:Z118"/>
+    <mergeCell ref="AA118:AG118"/>
+    <mergeCell ref="AH118:AL118"/>
+    <mergeCell ref="AM118:AW118"/>
+    <mergeCell ref="AR116:AS116"/>
+    <mergeCell ref="AT116:AW116"/>
+    <mergeCell ref="AR117:AS117"/>
+    <mergeCell ref="AT117:AW117"/>
+    <mergeCell ref="A116:I118"/>
+    <mergeCell ref="F166:M166"/>
     <mergeCell ref="N166:AI166"/>
-    <mergeCell ref="F166:M166"/>
-    <mergeCell ref="N164:AI164"/>
-    <mergeCell ref="AC138:AJ138"/>
-    <mergeCell ref="AK138:AM138"/>
-    <mergeCell ref="AN138:AT138"/>
-    <mergeCell ref="J116:O118"/>
-    <mergeCell ref="P116:U118"/>
-    <mergeCell ref="AM117:AN117"/>
-    <mergeCell ref="AO117:AQ117"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
